--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F21048-0C20-3846-8930-A73900412834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7A442-DBCC-AD40-95A4-EFAF2B0DBBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -7603,22 +7603,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936F566-E80E-414B-9865-88FE42A54FD2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="5" width="15" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="17.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="20.5" style="1" customWidth="1"/>
   </cols>
@@ -7661,7 +7661,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32">
+    <row r="2" spans="1:12" ht="32" hidden="1">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7694,7 +7694,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48">
+    <row r="3" spans="1:12" ht="48" hidden="1">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32">
+    <row r="4" spans="1:12" ht="32" hidden="1">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7759,7 +7759,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48">
+    <row r="5" spans="1:12" ht="48" hidden="1">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48">
+    <row r="6" spans="1:12" ht="48" hidden="1">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7857,7 +7857,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32">
+    <row r="8" spans="1:12" ht="32" hidden="1">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7890,7 +7890,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48">
+    <row r="9" spans="1:12" ht="48" hidden="1">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7923,7 +7923,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32">
+    <row r="10" spans="1:12" ht="32" hidden="1">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7956,7 +7956,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32">
+    <row r="11" spans="1:12" ht="32" hidden="1">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7989,7 +7989,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32">
+    <row r="12" spans="1:12" ht="32" hidden="1">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8022,7 +8022,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32">
+    <row r="13" spans="1:12" ht="32" hidden="1">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8055,7 +8055,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32">
+    <row r="14" spans="1:12" ht="32" hidden="1">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8088,7 +8088,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="48">
+    <row r="15" spans="1:12" ht="48" hidden="1">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8121,7 +8121,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32">
+    <row r="16" spans="1:12" ht="32" hidden="1">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8154,7 +8154,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32">
+    <row r="17" spans="1:9" ht="32" hidden="1">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8187,7 +8187,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48">
+    <row r="18" spans="1:9" ht="48" hidden="1">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8220,7 +8220,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="48">
+    <row r="19" spans="1:9" ht="48" hidden="1">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="48">
+    <row r="20" spans="1:9" ht="48" hidden="1">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8285,7 +8285,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="48">
+    <row r="21" spans="1:9" ht="48" hidden="1">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="48">
+    <row r="22" spans="1:9" ht="48" hidden="1">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8383,7 +8383,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48">
+    <row r="24" spans="1:9" ht="48" hidden="1">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8416,7 +8416,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="48">
+    <row r="25" spans="1:9" ht="48" hidden="1">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8449,7 +8449,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32">
+    <row r="26" spans="1:9" ht="32" hidden="1">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8482,7 +8482,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48">
+    <row r="27" spans="1:9" ht="48" hidden="1">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8515,7 +8515,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32">
+    <row r="28" spans="1:9" ht="32" hidden="1">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8548,7 +8548,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="48">
+    <row r="29" spans="1:9" ht="48" hidden="1">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8581,7 +8581,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="48">
+    <row r="30" spans="1:9" ht="48" hidden="1">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8614,7 +8614,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48">
+    <row r="31" spans="1:9" ht="48" hidden="1">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8647,7 +8647,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48">
+    <row r="32" spans="1:9" ht="48" hidden="1">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8680,7 +8680,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48">
+    <row r="33" spans="1:9" ht="48" hidden="1">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8713,7 +8713,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48">
+    <row r="34" spans="1:9" ht="48" hidden="1">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8746,7 +8746,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="48">
+    <row r="35" spans="1:9" ht="48" hidden="1">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="48">
+    <row r="36" spans="1:9" ht="48" hidden="1">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8811,7 +8811,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="48">
+    <row r="37" spans="1:9" ht="48" hidden="1">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="48">
+    <row r="38" spans="1:9" ht="48" hidden="1">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8909,7 +8909,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48">
+    <row r="40" spans="1:9" ht="48" hidden="1">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8942,7 +8942,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="48">
+    <row r="41" spans="1:9" ht="48" hidden="1">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8975,7 +8975,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32">
+    <row r="42" spans="1:9" ht="32" hidden="1">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9008,7 +9008,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="48">
+    <row r="43" spans="1:9" ht="48" hidden="1">
       <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9041,7 +9041,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="32">
+    <row r="44" spans="1:9" ht="32" hidden="1">
       <c r="A44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9074,7 +9074,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="48">
+    <row r="45" spans="1:9" ht="48" hidden="1">
       <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9107,7 +9107,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48">
+    <row r="46" spans="1:9" ht="48" hidden="1">
       <c r="A46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9140,7 +9140,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="48">
+    <row r="47" spans="1:9" ht="48" hidden="1">
       <c r="A47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9173,7 +9173,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="48">
+    <row r="48" spans="1:9" ht="48" hidden="1">
       <c r="A48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9206,7 +9206,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="48">
+    <row r="49" spans="1:9" ht="48" hidden="1">
       <c r="A49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9239,7 +9239,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32">
+    <row r="50" spans="1:9" ht="32" hidden="1">
       <c r="A50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9272,7 +9272,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="48">
+    <row r="51" spans="1:9" ht="48" hidden="1">
       <c r="A51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32">
+    <row r="52" spans="1:9" ht="32" hidden="1">
       <c r="A52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9337,7 +9337,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="48">
+    <row r="53" spans="1:9" ht="48" hidden="1">
       <c r="A53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="48">
+    <row r="54" spans="1:9" ht="48" hidden="1">
       <c r="A54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9435,7 +9435,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32">
+    <row r="56" spans="1:9" ht="32" hidden="1">
       <c r="A56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9468,7 +9468,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="48">
+    <row r="57" spans="1:9" ht="48" hidden="1">
       <c r="A57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9501,7 +9501,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="32">
+    <row r="58" spans="1:9" ht="32" hidden="1">
       <c r="A58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9534,7 +9534,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48">
+    <row r="59" spans="1:9" ht="48" hidden="1">
       <c r="A59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9567,7 +9567,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32">
+    <row r="60" spans="1:9" ht="32" hidden="1">
       <c r="A60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9600,7 +9600,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32">
+    <row r="61" spans="1:9" ht="32" hidden="1">
       <c r="A61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9633,7 +9633,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="32">
+    <row r="62" spans="1:9" ht="32" hidden="1">
       <c r="A62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9666,7 +9666,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="48">
+    <row r="63" spans="1:9" ht="48" hidden="1">
       <c r="A63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9699,7 +9699,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32">
+    <row r="64" spans="1:9" ht="32" hidden="1">
       <c r="A64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9732,7 +9732,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="48">
+    <row r="65" spans="1:9" ht="48" hidden="1">
       <c r="A65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9765,7 +9765,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="32">
+    <row r="66" spans="1:9" ht="32" hidden="1">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9798,7 +9798,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="48">
+    <row r="67" spans="1:9" ht="48" hidden="1">
       <c r="A67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32">
+    <row r="68" spans="1:9" ht="32" hidden="1">
       <c r="A68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9863,7 +9863,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="48">
+    <row r="69" spans="1:9" ht="48" hidden="1">
       <c r="A69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="48">
+    <row r="70" spans="1:9" ht="48" hidden="1">
       <c r="A70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9961,7 +9961,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32">
+    <row r="72" spans="1:9" ht="32" hidden="1">
       <c r="A72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9994,7 +9994,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48">
+    <row r="73" spans="1:9" ht="48" hidden="1">
       <c r="A73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10027,7 +10027,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32">
+    <row r="74" spans="1:9" ht="32" hidden="1">
       <c r="A74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10060,7 +10060,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="32">
+    <row r="75" spans="1:9" ht="32" hidden="1">
       <c r="A75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10093,7 +10093,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32">
+    <row r="76" spans="1:9" ht="32" hidden="1">
       <c r="A76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10126,7 +10126,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="32">
+    <row r="77" spans="1:9" ht="32" hidden="1">
       <c r="A77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10159,7 +10159,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32">
+    <row r="78" spans="1:9" ht="32" hidden="1">
       <c r="A78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10192,7 +10192,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48">
+    <row r="79" spans="1:9" ht="48" hidden="1">
       <c r="A79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10225,7 +10225,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="32">
+    <row r="80" spans="1:9" ht="32" hidden="1">
       <c r="A80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10258,7 +10258,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="32">
+    <row r="81" spans="1:9" ht="32" hidden="1">
       <c r="A81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10291,7 +10291,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="48">
+    <row r="82" spans="1:9" ht="48" hidden="1">
       <c r="A82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10324,7 +10324,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48">
+    <row r="83" spans="1:9" ht="48" hidden="1">
       <c r="A83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="48">
+    <row r="84" spans="1:9" ht="48" hidden="1">
       <c r="A84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10389,7 +10389,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48">
+    <row r="85" spans="1:9" ht="48" hidden="1">
       <c r="A85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="48">
+    <row r="86" spans="1:9" ht="48" hidden="1">
       <c r="A86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10487,7 +10487,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="48">
+    <row r="88" spans="1:9" ht="48" hidden="1">
       <c r="A88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10520,7 +10520,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="48">
+    <row r="89" spans="1:9" ht="48" hidden="1">
       <c r="A89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10553,7 +10553,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32">
+    <row r="90" spans="1:9" ht="32" hidden="1">
       <c r="A90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10586,7 +10586,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="48">
+    <row r="91" spans="1:9" ht="48" hidden="1">
       <c r="A91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10619,7 +10619,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32">
+    <row r="92" spans="1:9" ht="32" hidden="1">
       <c r="A92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10652,7 +10652,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="48">
+    <row r="93" spans="1:9" ht="48" hidden="1">
       <c r="A93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10685,7 +10685,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="48">
+    <row r="94" spans="1:9" ht="48" hidden="1">
       <c r="A94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10718,7 +10718,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="48">
+    <row r="95" spans="1:9" ht="48" hidden="1">
       <c r="A95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10751,7 +10751,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48">
+    <row r="96" spans="1:9" ht="48" hidden="1">
       <c r="A96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10784,7 +10784,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="48">
+    <row r="97" spans="1:9" ht="48" hidden="1">
       <c r="A97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10817,7 +10817,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="48">
+    <row r="98" spans="1:9" ht="48" hidden="1">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -10850,7 +10850,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="48">
+    <row r="99" spans="1:9" ht="48" hidden="1">
       <c r="A99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="48">
+    <row r="100" spans="1:9" ht="48" hidden="1">
       <c r="A100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -10915,7 +10915,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48">
+    <row r="101" spans="1:9" ht="48" hidden="1">
       <c r="A101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48">
+    <row r="102" spans="1:9" ht="48" hidden="1">
       <c r="A102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11013,7 +11013,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="48">
+    <row r="104" spans="1:9" ht="48" hidden="1">
       <c r="A104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11046,7 +11046,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="48">
+    <row r="105" spans="1:9" ht="48" hidden="1">
       <c r="A105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11079,7 +11079,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32">
+    <row r="106" spans="1:9" ht="32" hidden="1">
       <c r="A106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11112,7 +11112,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="48">
+    <row r="107" spans="1:9" ht="48" hidden="1">
       <c r="A107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11145,7 +11145,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32">
+    <row r="108" spans="1:9" ht="32" hidden="1">
       <c r="A108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11178,7 +11178,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="48">
+    <row r="109" spans="1:9" ht="48" hidden="1">
       <c r="A109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11211,7 +11211,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="48">
+    <row r="110" spans="1:9" ht="48" hidden="1">
       <c r="A110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11244,7 +11244,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="48">
+    <row r="111" spans="1:9" ht="48" hidden="1">
       <c r="A111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11277,7 +11277,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="48">
+    <row r="112" spans="1:9" ht="48" hidden="1">
       <c r="A112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11310,7 +11310,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="48">
+    <row r="113" spans="1:9" ht="48" hidden="1">
       <c r="A113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11343,7 +11343,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="48">
+    <row r="114" spans="1:9" ht="48" hidden="1">
       <c r="A114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11376,7 +11376,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="48">
+    <row r="115" spans="1:9" ht="48" hidden="1">
       <c r="A115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="48">
+    <row r="116" spans="1:9" ht="48" hidden="1">
       <c r="A116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11441,7 +11441,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="48">
+    <row r="117" spans="1:9" ht="48" hidden="1">
       <c r="A117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48">
+    <row r="118" spans="1:9" ht="48" hidden="1">
       <c r="A118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11539,7 +11539,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="48">
+    <row r="120" spans="1:9" ht="48" hidden="1">
       <c r="A120" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11572,7 +11572,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="48">
+    <row r="121" spans="1:9" ht="48" hidden="1">
       <c r="A121" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11605,7 +11605,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32">
+    <row r="122" spans="1:9" ht="32" hidden="1">
       <c r="A122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11638,7 +11638,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48">
+    <row r="123" spans="1:9" ht="48" hidden="1">
       <c r="A123" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11671,7 +11671,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32">
+    <row r="124" spans="1:9" ht="32" hidden="1">
       <c r="A124" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11704,7 +11704,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="32">
+    <row r="125" spans="1:9" ht="32" hidden="1">
       <c r="A125" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11737,7 +11737,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="48">
+    <row r="126" spans="1:9" ht="48" hidden="1">
       <c r="A126" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11770,7 +11770,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="48">
+    <row r="127" spans="1:9" ht="48" hidden="1">
       <c r="A127" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11803,7 +11803,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="48">
+    <row r="128" spans="1:9" ht="48" hidden="1">
       <c r="A128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11836,7 +11836,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="48">
+    <row r="129" spans="1:9" ht="48" hidden="1">
       <c r="A129" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12126,6 +12126,18 @@
       <c r="C194" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L129" xr:uid="{6FA4CCEF-026B-E44B-89F3-D945F0CFA0FA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:L129">
     <sortCondition ref="F2:F129"/>
   </sortState>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7A442-DBCC-AD40-95A4-EFAF2B0DBBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5849E5-6A8C-1648-9ECA-60CF49D11E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -1386,22 +1386,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53" style="9" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15" style="9" customWidth="1"/>
-    <col min="8" max="8" width="26" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
@@ -7603,20 +7603,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936F566-E80E-414B-9865-88FE42A54FD2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
-    </sheetView>
+    <sheetView topLeftCell="A20" zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="5" width="15" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
     <col min="8" max="9" width="17.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
@@ -7661,7 +7658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" hidden="1">
+    <row r="2" spans="1:12" ht="32">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7694,7 +7691,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48" hidden="1">
+    <row r="3" spans="1:12" ht="48">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7726,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" hidden="1">
+    <row r="4" spans="1:12" ht="32">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7759,7 +7756,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" hidden="1">
+    <row r="5" spans="1:12" ht="48">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -7791,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" hidden="1">
+    <row r="6" spans="1:12" ht="48">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7857,7 +7854,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" hidden="1">
+    <row r="8" spans="1:12" ht="32">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7890,7 +7887,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" hidden="1">
+    <row r="9" spans="1:12" ht="48">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7923,7 +7920,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" hidden="1">
+    <row r="10" spans="1:12" ht="32">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -7956,7 +7953,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32" hidden="1">
+    <row r="11" spans="1:12" ht="32">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -7989,7 +7986,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" hidden="1">
+    <row r="12" spans="1:12" ht="32">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8022,7 +8019,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" hidden="1">
+    <row r="13" spans="1:12" ht="32">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8055,7 +8052,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" hidden="1">
+    <row r="14" spans="1:12" ht="32">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8088,7 +8085,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="48" hidden="1">
+    <row r="15" spans="1:12" ht="48">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8121,7 +8118,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" hidden="1">
+    <row r="16" spans="1:12" ht="32">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8154,7 +8151,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32" hidden="1">
+    <row r="17" spans="1:9" ht="32">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8187,7 +8184,7 @@
         <v>2946.4285714285788</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" hidden="1">
+    <row r="18" spans="1:9" ht="48">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8220,7 +8217,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="48" hidden="1">
+    <row r="19" spans="1:9" ht="48">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8252,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="48" hidden="1">
+    <row r="20" spans="1:9" ht="48">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8285,7 +8282,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="48" hidden="1">
+    <row r="21" spans="1:9" ht="48">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -8317,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="48" hidden="1">
+    <row r="22" spans="1:9" ht="48">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8383,7 +8380,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48" hidden="1">
+    <row r="24" spans="1:9" ht="48">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8416,7 +8413,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="48" hidden="1">
+    <row r="25" spans="1:9" ht="48">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8449,7 +8446,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32" hidden="1">
+    <row r="26" spans="1:9" ht="32">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8482,7 +8479,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" hidden="1">
+    <row r="27" spans="1:9" ht="48">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8515,7 +8512,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32" hidden="1">
+    <row r="28" spans="1:9" ht="32">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8548,7 +8545,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="48" hidden="1">
+    <row r="29" spans="1:9" ht="48">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8581,7 +8578,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="48" hidden="1">
+    <row r="30" spans="1:9" ht="48">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8614,7 +8611,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48" hidden="1">
+    <row r="31" spans="1:9" ht="48">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8647,7 +8644,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" hidden="1">
+    <row r="32" spans="1:9" ht="48">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8680,7 +8677,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48" hidden="1">
+    <row r="33" spans="1:9" ht="48">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8713,7 +8710,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48" hidden="1">
+    <row r="34" spans="1:9" ht="48">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8746,7 +8743,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="48" hidden="1">
+    <row r="35" spans="1:9" ht="48">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -8778,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="48" hidden="1">
+    <row r="36" spans="1:9" ht="48">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8811,7 +8808,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="48" hidden="1">
+    <row r="37" spans="1:9" ht="48">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -8843,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="48" hidden="1">
+    <row r="38" spans="1:9" ht="48">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8909,7 +8906,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48" hidden="1">
+    <row r="40" spans="1:9" ht="48">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8942,7 +8939,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="48" hidden="1">
+    <row r="41" spans="1:9" ht="48">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8975,7 +8972,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32" hidden="1">
+    <row r="42" spans="1:9" ht="32">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9008,7 +9005,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="48" hidden="1">
+    <row r="43" spans="1:9" ht="48">
       <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9041,7 +9038,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="32" hidden="1">
+    <row r="44" spans="1:9" ht="32">
       <c r="A44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9074,7 +9071,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="48" hidden="1">
+    <row r="45" spans="1:9" ht="48">
       <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9107,7 +9104,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" hidden="1">
+    <row r="46" spans="1:9" ht="48">
       <c r="A46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9140,7 +9137,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="48" hidden="1">
+    <row r="47" spans="1:9" ht="48">
       <c r="A47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9173,7 +9170,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="48" hidden="1">
+    <row r="48" spans="1:9" ht="48">
       <c r="A48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9206,7 +9203,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="48" hidden="1">
+    <row r="49" spans="1:9" ht="48">
       <c r="A49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9239,7 +9236,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32" hidden="1">
+    <row r="50" spans="1:9" ht="32">
       <c r="A50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9272,7 +9269,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="48" hidden="1">
+    <row r="51" spans="1:9" ht="48">
       <c r="A51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -9304,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32" hidden="1">
+    <row r="52" spans="1:9" ht="32">
       <c r="A52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9337,7 +9334,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="48" hidden="1">
+    <row r="53" spans="1:9" ht="48">
       <c r="A53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -9369,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="48" hidden="1">
+    <row r="54" spans="1:9" ht="48">
       <c r="A54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9435,7 +9432,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" hidden="1">
+    <row r="56" spans="1:9" ht="32">
       <c r="A56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9468,7 +9465,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="48" hidden="1">
+    <row r="57" spans="1:9" ht="48">
       <c r="A57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9501,7 +9498,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="32" hidden="1">
+    <row r="58" spans="1:9" ht="32">
       <c r="A58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9534,7 +9531,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" hidden="1">
+    <row r="59" spans="1:9" ht="48">
       <c r="A59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9567,7 +9564,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32" hidden="1">
+    <row r="60" spans="1:9" ht="32">
       <c r="A60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9600,7 +9597,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32" hidden="1">
+    <row r="61" spans="1:9" ht="32">
       <c r="A61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9633,7 +9630,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="32" hidden="1">
+    <row r="62" spans="1:9" ht="32">
       <c r="A62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9666,7 +9663,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="48" hidden="1">
+    <row r="63" spans="1:9" ht="48">
       <c r="A63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9699,7 +9696,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32" hidden="1">
+    <row r="64" spans="1:9" ht="32">
       <c r="A64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9732,7 +9729,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="48" hidden="1">
+    <row r="65" spans="1:9" ht="48">
       <c r="A65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9765,7 +9762,7 @@
         <v>327.38095238095326</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="32" hidden="1">
+    <row r="66" spans="1:9" ht="32">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9798,7 +9795,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="48" hidden="1">
+    <row r="67" spans="1:9" ht="48">
       <c r="A67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9830,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" hidden="1">
+    <row r="68" spans="1:9" ht="32">
       <c r="A68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9863,7 +9860,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="48" hidden="1">
+    <row r="69" spans="1:9" ht="48">
       <c r="A69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9895,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="48" hidden="1">
+    <row r="70" spans="1:9" ht="48">
       <c r="A70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9961,7 +9958,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32" hidden="1">
+    <row r="72" spans="1:9" ht="32">
       <c r="A72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -9994,7 +9991,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" hidden="1">
+    <row r="73" spans="1:9" ht="48">
       <c r="A73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10027,7 +10024,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32" hidden="1">
+    <row r="74" spans="1:9" ht="32">
       <c r="A74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10060,7 +10057,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="32" hidden="1">
+    <row r="75" spans="1:9" ht="32">
       <c r="A75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10093,7 +10090,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32" hidden="1">
+    <row r="76" spans="1:9" ht="32">
       <c r="A76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10126,7 +10123,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="32" hidden="1">
+    <row r="77" spans="1:9" ht="32">
       <c r="A77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10159,7 +10156,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32" hidden="1">
+    <row r="78" spans="1:9" ht="32">
       <c r="A78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10192,7 +10189,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48" hidden="1">
+    <row r="79" spans="1:9" ht="48">
       <c r="A79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10225,7 +10222,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="32" hidden="1">
+    <row r="80" spans="1:9" ht="32">
       <c r="A80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10258,7 +10255,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="32" hidden="1">
+    <row r="81" spans="1:9" ht="32">
       <c r="A81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10291,7 +10288,7 @@
         <v>2410.7142857142917</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="48" hidden="1">
+    <row r="82" spans="1:9" ht="48">
       <c r="A82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10324,7 +10321,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48" hidden="1">
+    <row r="83" spans="1:9" ht="48">
       <c r="A83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10356,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="48" hidden="1">
+    <row r="84" spans="1:9" ht="48">
       <c r="A84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10389,7 +10386,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48" hidden="1">
+    <row r="85" spans="1:9" ht="48">
       <c r="A85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10421,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="48" hidden="1">
+    <row r="86" spans="1:9" ht="48">
       <c r="A86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10487,7 +10484,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="48" hidden="1">
+    <row r="88" spans="1:9" ht="48">
       <c r="A88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10520,7 +10517,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="48" hidden="1">
+    <row r="89" spans="1:9" ht="48">
       <c r="A89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10553,7 +10550,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" hidden="1">
+    <row r="90" spans="1:9" ht="32">
       <c r="A90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10586,7 +10583,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="48" hidden="1">
+    <row r="91" spans="1:9" ht="48">
       <c r="A91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10619,7 +10616,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32" hidden="1">
+    <row r="92" spans="1:9" ht="32">
       <c r="A92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10652,7 +10649,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="48" hidden="1">
+    <row r="93" spans="1:9" ht="48">
       <c r="A93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10685,7 +10682,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="48" hidden="1">
+    <row r="94" spans="1:9" ht="48">
       <c r="A94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10718,7 +10715,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="48" hidden="1">
+    <row r="95" spans="1:9" ht="48">
       <c r="A95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10751,7 +10748,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" hidden="1">
+    <row r="96" spans="1:9" ht="48">
       <c r="A96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10784,7 +10781,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="48" hidden="1">
+    <row r="97" spans="1:9" ht="48">
       <c r="A97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10817,7 +10814,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="48" hidden="1">
+    <row r="98" spans="1:9" ht="48">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -10850,7 +10847,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="48" hidden="1">
+    <row r="99" spans="1:9" ht="48">
       <c r="A99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10882,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="48" hidden="1">
+    <row r="100" spans="1:9" ht="48">
       <c r="A100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -10915,7 +10912,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48" hidden="1">
+    <row r="101" spans="1:9" ht="48">
       <c r="A101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10947,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48" hidden="1">
+    <row r="102" spans="1:9" ht="48">
       <c r="A102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11013,7 +11010,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="48" hidden="1">
+    <row r="104" spans="1:9" ht="48">
       <c r="A104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11046,7 +11043,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="48" hidden="1">
+    <row r="105" spans="1:9" ht="48">
       <c r="A105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11079,7 +11076,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32" hidden="1">
+    <row r="106" spans="1:9" ht="32">
       <c r="A106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11112,7 +11109,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="48" hidden="1">
+    <row r="107" spans="1:9" ht="48">
       <c r="A107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11145,7 +11142,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" hidden="1">
+    <row r="108" spans="1:9" ht="32">
       <c r="A108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11178,7 +11175,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="48" hidden="1">
+    <row r="109" spans="1:9" ht="48">
       <c r="A109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11211,7 +11208,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="48" hidden="1">
+    <row r="110" spans="1:9" ht="48">
       <c r="A110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11244,7 +11241,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="48" hidden="1">
+    <row r="111" spans="1:9" ht="48">
       <c r="A111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11277,7 +11274,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="48" hidden="1">
+    <row r="112" spans="1:9" ht="48">
       <c r="A112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11310,7 +11307,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="48" hidden="1">
+    <row r="113" spans="1:9" ht="48">
       <c r="A113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11343,7 +11340,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="48" hidden="1">
+    <row r="114" spans="1:9" ht="48">
       <c r="A114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11376,7 +11373,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="48" hidden="1">
+    <row r="115" spans="1:9" ht="48">
       <c r="A115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11408,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="48" hidden="1">
+    <row r="116" spans="1:9" ht="48">
       <c r="A116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11441,7 +11438,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="48" hidden="1">
+    <row r="117" spans="1:9" ht="48">
       <c r="A117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11473,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48" hidden="1">
+    <row r="118" spans="1:9" ht="48">
       <c r="A118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11539,7 +11536,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="48" hidden="1">
+    <row r="120" spans="1:9" ht="48">
       <c r="A120" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11572,7 +11569,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="48" hidden="1">
+    <row r="121" spans="1:9" ht="48">
       <c r="A121" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11605,7 +11602,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32" hidden="1">
+    <row r="122" spans="1:9" ht="32">
       <c r="A122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11638,7 +11635,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48" hidden="1">
+    <row r="123" spans="1:9" ht="48">
       <c r="A123" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11671,7 +11668,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32" hidden="1">
+    <row r="124" spans="1:9" ht="32">
       <c r="A124" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11704,7 +11701,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="32" hidden="1">
+    <row r="125" spans="1:9" ht="32">
       <c r="A125" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11737,7 +11734,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="48" hidden="1">
+    <row r="126" spans="1:9" ht="48">
       <c r="A126" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11770,7 +11767,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="48" hidden="1">
+    <row r="127" spans="1:9" ht="48">
       <c r="A127" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11803,7 +11800,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="48" hidden="1">
+    <row r="128" spans="1:9" ht="48">
       <c r="A128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11836,7 +11833,7 @@
         <v>267.85714285714357</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="48" hidden="1">
+    <row r="129" spans="1:9" ht="48">
       <c r="A129" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12126,18 +12123,6 @@
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L129" xr:uid="{6FA4CCEF-026B-E44B-89F3-D945F0CFA0FA}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:L129">
     <sortCondition ref="F2:F129"/>
   </sortState>
@@ -12153,7 +12138,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross3\Repos\k01\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA3BDD-34C1-F247-B931-BFF032FF2112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA349A2-841F-423C-8734-5ECB45D36951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,18 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="301">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -956,6 +964,57 @@
   </si>
   <si>
     <t>Percentage of pop LTBI</t>
+  </si>
+  <si>
+    <t>Excess mortality rate HIV+ CD4 &lt;200 (No active TB) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality rate HIV+ CD4 &lt;200 (No active TB) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality HIV+ CD4 &gt;200 (No active TB) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality HIV+ CD4 &gt;200 (No active TB) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality HIV+ on ART (No active TB) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality HIV+ on ART (No active TB) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV negative) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV negative) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + CD4 &lt;200) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + CD4 &lt;200) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + CD4 &gt;200) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + CD4 &gt;200) - Female</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + on ART) - Male</t>
+  </si>
+  <si>
+    <t>Excess mortality due to active TB (HIV + on ART) - Female</t>
+  </si>
+  <si>
+    <t>Background mortality rate (HIV negative and no active TB)-Male</t>
+  </si>
+  <si>
+    <t>Background mortality rate (HIV negative and no active TB)- Female</t>
+  </si>
+  <si>
+    <t>Jen to input these as proportion of the population in the compartment</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1168,6 +1227,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,32 +1510,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="10"/>
+    <col min="16" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="9" t="str">
-        <f>CONCATENATE(C2, "_", E2, IF(E2&lt;&gt;"",",",""), F2, IF(F2&lt;&gt;"",",",""),  G2, IF(G2&lt;&gt;"",",",""),  H2, IF(I2&lt;&gt;"","(",""), I2, IF(I2&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J2:J33" si="0">CONCATENATE(C2, "_", E2, IF(E2&lt;&gt;"",",",""), F2, IF(F2&lt;&gt;"",",",""),  G2, IF(G2&lt;&gt;"",",",""),  H2, IF(I2&lt;&gt;"","(",""), I2, IF(I2&lt;&gt;"",")",""))</f>
         <v>beta_1</v>
       </c>
       <c r="K2" s="9">
@@ -1550,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f>CONCATENATE(C3, "_", E3, IF(E3&lt;&gt;"",",",""), F3, IF(F3&lt;&gt;"",",",""),  G3, IF(G3&lt;&gt;"",",",""),  H3, IF(I3&lt;&gt;"","(",""), I3, IF(I3&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>beta_2</v>
       </c>
       <c r="K3" s="9">
@@ -1578,7 +1638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f>CONCATENATE(C4, "_", E4, IF(E4&lt;&gt;"",",",""), F4, IF(F4&lt;&gt;"",",",""),  G4, IF(G4&lt;&gt;"",",",""),  H4, IF(I4&lt;&gt;"","(",""), I4, IF(I4&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>varepsilon_1</v>
       </c>
       <c r="K4" s="9">
@@ -1606,7 +1666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f>CONCATENATE(C5, "_", E5, IF(E5&lt;&gt;"",",",""), F5, IF(F5&lt;&gt;"",",",""),  G5, IF(G5&lt;&gt;"",",",""),  H5, IF(I5&lt;&gt;"","(",""), I5, IF(I5&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>varepsilon_2</v>
       </c>
       <c r="K5" s="9">
@@ -1634,7 +1694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f>CONCATENATE(C6, "_", E6, IF(E6&lt;&gt;"",",",""), F6, IF(F6&lt;&gt;"",",",""),  G6, IF(G6&lt;&gt;"",",",""),  H6, IF(I6&lt;&gt;"","(",""), I6, IF(I6&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>iota_1,</v>
       </c>
       <c r="K6" s="9">
@@ -1662,7 +1722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f>CONCATENATE(C7, "_", E7, IF(E7&lt;&gt;"",",",""), F7, IF(F7&lt;&gt;"",",",""),  G7, IF(G7&lt;&gt;"",",",""),  H7, IF(I7&lt;&gt;"","(",""), I7, IF(I7&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>iota_2,</v>
       </c>
       <c r="K7" s="9">
@@ -1690,7 +1750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f>CONCATENATE(C8, "_", E8, IF(E8&lt;&gt;"",",",""), F8, IF(F8&lt;&gt;"",",",""),  G8, IF(G8&lt;&gt;"",",",""),  H8, IF(I8&lt;&gt;"","(",""), I8, IF(I8&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_1,</v>
       </c>
       <c r="K8" s="9">
@@ -1721,7 +1781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f>CONCATENATE(C9, "_", E9, IF(E9&lt;&gt;"",",",""), F9, IF(F9&lt;&gt;"",",",""),  G9, IF(G9&lt;&gt;"",",",""),  H9, IF(I9&lt;&gt;"","(",""), I9, IF(I9&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_2,</v>
       </c>
       <c r="K9" s="9">
@@ -1753,7 +1813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f>CONCATENATE(C10, "_", E10, IF(E10&lt;&gt;"",",",""), F10, IF(F10&lt;&gt;"",",",""),  G10, IF(G10&lt;&gt;"",",",""),  H10, IF(I10&lt;&gt;"","(",""), I10, IF(I10&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_3,</v>
       </c>
       <c r="K10" s="9">
@@ -1785,7 +1845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f>CONCATENATE(C11, "_", E11, IF(E11&lt;&gt;"",",",""), F11, IF(F11&lt;&gt;"",",",""),  G11, IF(G11&lt;&gt;"",",",""),  H11, IF(I11&lt;&gt;"","(",""), I11, IF(I11&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_4,</v>
       </c>
       <c r="K11" s="9">
@@ -1817,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1892,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="J12" s="9" t="str">
-        <f>CONCATENATE(C12, "_", E12, IF(E12&lt;&gt;"",",",""), F12, IF(F12&lt;&gt;"",",",""),  G12, IF(G12&lt;&gt;"",",",""),  H12, IF(I12&lt;&gt;"","(",""), I12, IF(I12&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>upsilon_</v>
       </c>
       <c r="K12" s="9">
@@ -1845,7 +1905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1860,19 +1920,19 @@
       </c>
       <c r="E13" s="8"/>
       <c r="J13" s="9" t="str">
-        <f>CONCATENATE(C13, "_", E13, IF(E13&lt;&gt;"",",",""), F13, IF(F13&lt;&gt;"",",",""),  G13, IF(G13&lt;&gt;"",",",""),  H13, IF(I13&lt;&gt;"","(",""), I13, IF(I13&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>zeta_</v>
       </c>
       <c r="K13" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E14,TB_SET,2)," and HIV compartment ",VLOOKUP(G14,HIV_SET,2)," for gender ",VLOOKUP(H14,G_SET,2), " under policy ", VLOOKUP(I14, P_SET,2))</f>
+        <f t="shared" ref="B14:B45" si="1">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E14,TB_SET,2)," and HIV compartment ",VLOOKUP(G14,HIV_SET,2)," for gender ",VLOOKUP(H14,G_SET,2), " under policy ", VLOOKUP(I14, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1894,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f>CONCATENATE(C14, "_", E14, IF(E14&lt;&gt;"",",",""), F14, IF(F14&lt;&gt;"",",",""),  G14, IF(G14&lt;&gt;"",",",""),  H14, IF(I14&lt;&gt;"","(",""), I14, IF(I14&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,1,1(3)</v>
       </c>
       <c r="K14" s="30">
@@ -1904,12 +1964,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E15,TB_SET,2)," and HIV compartment ",VLOOKUP(G15,HIV_SET,2)," for gender ",VLOOKUP(H15,G_SET,2), " under policy ", VLOOKUP(I15, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1931,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f>CONCATENATE(C15, "_", E15, IF(E15&lt;&gt;"",",",""), F15, IF(F15&lt;&gt;"",",",""),  G15, IF(G15&lt;&gt;"",",",""),  H15, IF(I15&lt;&gt;"","(",""), I15, IF(I15&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,1,2(3)</v>
       </c>
       <c r="K15" s="30">
@@ -1941,12 +2001,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E16,TB_SET,2)," and HIV compartment ",VLOOKUP(G16,HIV_SET,2)," for gender ",VLOOKUP(H16,G_SET,2), " under policy ", VLOOKUP(I16, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1968,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f>CONCATENATE(C16, "_", E16, IF(E16&lt;&gt;"",",",""), F16, IF(F16&lt;&gt;"",",",""),  G16, IF(G16&lt;&gt;"",",",""),  H16, IF(I16&lt;&gt;"","(",""), I16, IF(I16&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,2,1(3)</v>
       </c>
       <c r="K16" s="9">
@@ -1981,12 +2041,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E17,TB_SET,2)," and HIV compartment ",VLOOKUP(G17,HIV_SET,2)," for gender ",VLOOKUP(H17,G_SET,2), " under policy ", VLOOKUP(I17, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2008,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f>CONCATENATE(C17, "_", E17, IF(E17&lt;&gt;"",",",""), F17, IF(F17&lt;&gt;"",",",""),  G17, IF(G17&lt;&gt;"",",",""),  H17, IF(I17&lt;&gt;"","(",""), I17, IF(I17&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,2,2(3)</v>
       </c>
       <c r="K17" s="9">
@@ -2021,12 +2081,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E18,TB_SET,2)," and HIV compartment ",VLOOKUP(G18,HIV_SET,2)," for gender ",VLOOKUP(H18,G_SET,2), " under policy ", VLOOKUP(I18, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2048,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f>CONCATENATE(C18, "_", E18, IF(E18&lt;&gt;"",",",""), F18, IF(F18&lt;&gt;"",",",""),  G18, IF(G18&lt;&gt;"",",",""),  H18, IF(I18&lt;&gt;"","(",""), I18, IF(I18&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,3,1(3)</v>
       </c>
       <c r="K18" s="9">
@@ -2061,12 +2121,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E19,TB_SET,2)," and HIV compartment ",VLOOKUP(G19,HIV_SET,2)," for gender ",VLOOKUP(H19,G_SET,2), " under policy ", VLOOKUP(I19, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2088,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f>CONCATENATE(C19, "_", E19, IF(E19&lt;&gt;"",",",""), F19, IF(F19&lt;&gt;"",",",""),  G19, IF(G19&lt;&gt;"",",",""),  H19, IF(I19&lt;&gt;"","(",""), I19, IF(I19&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,3,2(3)</v>
       </c>
       <c r="K19" s="9">
@@ -2101,12 +2161,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E20,TB_SET,2)," and HIV compartment ",VLOOKUP(G20,HIV_SET,2)," for gender ",VLOOKUP(H20,G_SET,2), " under policy ", VLOOKUP(I20, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2128,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f>CONCATENATE(C20, "_", E20, IF(E20&lt;&gt;"",",",""), F20, IF(F20&lt;&gt;"",",",""),  G20, IF(G20&lt;&gt;"",",",""),  H20, IF(I20&lt;&gt;"","(",""), I20, IF(I20&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K20" s="9">
@@ -2141,12 +2201,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E21,TB_SET,2)," and HIV compartment ",VLOOKUP(G21,HIV_SET,2)," for gender ",VLOOKUP(H21,G_SET,2), " under policy ", VLOOKUP(I21, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2168,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f>CONCATENATE(C21, "_", E21, IF(E21&lt;&gt;"",",",""), F21, IF(F21&lt;&gt;"",",",""),  G21, IF(G21&lt;&gt;"",",",""),  H21, IF(I21&lt;&gt;"","(",""), I21, IF(I21&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K21" s="9">
@@ -2181,12 +2241,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E22,TB_SET,2)," and HIV compartment ",VLOOKUP(G22,HIV_SET,2)," for gender ",VLOOKUP(H22,G_SET,2), " under policy ", VLOOKUP(I22, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2208,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f>CONCATENATE(C22, "_", E22, IF(E22&lt;&gt;"",",",""), F22, IF(F22&lt;&gt;"",",",""),  G22, IF(G22&lt;&gt;"",",",""),  H22, IF(I22&lt;&gt;"","(",""), I22, IF(I22&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,1,1(3)</v>
       </c>
       <c r="K22" s="9">
@@ -2218,12 +2278,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E23,TB_SET,2)," and HIV compartment ",VLOOKUP(G23,HIV_SET,2)," for gender ",VLOOKUP(H23,G_SET,2), " under policy ", VLOOKUP(I23, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2245,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f>CONCATENATE(C23, "_", E23, IF(E23&lt;&gt;"",",",""), F23, IF(F23&lt;&gt;"",",",""),  G23, IF(G23&lt;&gt;"",",",""),  H23, IF(I23&lt;&gt;"","(",""), I23, IF(I23&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,1,2(3)</v>
       </c>
       <c r="K23" s="9">
@@ -2255,12 +2315,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E24,TB_SET,2)," and HIV compartment ",VLOOKUP(G24,HIV_SET,2)," for gender ",VLOOKUP(H24,G_SET,2), " under policy ", VLOOKUP(I24, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2282,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f>CONCATENATE(C24, "_", E24, IF(E24&lt;&gt;"",",",""), F24, IF(F24&lt;&gt;"",",",""),  G24, IF(G24&lt;&gt;"",",",""),  H24, IF(I24&lt;&gt;"","(",""), I24, IF(I24&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,2,1(3)</v>
       </c>
       <c r="K24" s="9">
@@ -2295,12 +2355,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E25,TB_SET,2)," and HIV compartment ",VLOOKUP(G25,HIV_SET,2)," for gender ",VLOOKUP(H25,G_SET,2), " under policy ", VLOOKUP(I25, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2322,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f>CONCATENATE(C25, "_", E25, IF(E25&lt;&gt;"",",",""), F25, IF(F25&lt;&gt;"",",",""),  G25, IF(G25&lt;&gt;"",",",""),  H25, IF(I25&lt;&gt;"","(",""), I25, IF(I25&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,2,2(3)</v>
       </c>
       <c r="K25" s="9">
@@ -2335,12 +2395,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E26,TB_SET,2)," and HIV compartment ",VLOOKUP(G26,HIV_SET,2)," for gender ",VLOOKUP(H26,G_SET,2), " under policy ", VLOOKUP(I26, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2362,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f>CONCATENATE(C26, "_", E26, IF(E26&lt;&gt;"",",",""), F26, IF(F26&lt;&gt;"",",",""),  G26, IF(G26&lt;&gt;"",",",""),  H26, IF(I26&lt;&gt;"","(",""), I26, IF(I26&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K26" s="9">
@@ -2375,12 +2435,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E27,TB_SET,2)," and HIV compartment ",VLOOKUP(G27,HIV_SET,2)," for gender ",VLOOKUP(H27,G_SET,2), " under policy ", VLOOKUP(I27, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2402,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f>CONCATENATE(C27, "_", E27, IF(E27&lt;&gt;"",",",""), F27, IF(F27&lt;&gt;"",",",""),  G27, IF(G27&lt;&gt;"",",",""),  H27, IF(I27&lt;&gt;"","(",""), I27, IF(I27&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K27" s="9">
@@ -2415,12 +2475,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E28,TB_SET,2)," and HIV compartment ",VLOOKUP(G28,HIV_SET,2)," for gender ",VLOOKUP(H28,G_SET,2), " under policy ", VLOOKUP(I28, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2442,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f>CONCATENATE(C28, "_", E28, IF(E28&lt;&gt;"",",",""), F28, IF(F28&lt;&gt;"",",",""),  G28, IF(G28&lt;&gt;"",",",""),  H28, IF(I28&lt;&gt;"","(",""), I28, IF(I28&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K28" s="9">
@@ -2452,12 +2512,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E29,TB_SET,2)," and HIV compartment ",VLOOKUP(G29,HIV_SET,2)," for gender ",VLOOKUP(H29,G_SET,2), " under policy ", VLOOKUP(I29, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2479,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f>CONCATENATE(C29, "_", E29, IF(E29&lt;&gt;"",",",""), F29, IF(F29&lt;&gt;"",",",""),  G29, IF(G29&lt;&gt;"",",",""),  H29, IF(I29&lt;&gt;"","(",""), I29, IF(I29&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K29" s="9">
@@ -2489,12 +2549,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E30,TB_SET,2)," and HIV compartment ",VLOOKUP(G30,HIV_SET,2)," for gender ",VLOOKUP(H30,G_SET,2), " under policy ", VLOOKUP(I30, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2516,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f>CONCATENATE(C30, "_", E30, IF(E30&lt;&gt;"",",",""), F30, IF(F30&lt;&gt;"",",",""),  G30, IF(G30&lt;&gt;"",",",""),  H30, IF(I30&lt;&gt;"","(",""), I30, IF(I30&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K30" s="9">
@@ -2526,12 +2586,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E31,TB_SET,2)," and HIV compartment ",VLOOKUP(G31,HIV_SET,2)," for gender ",VLOOKUP(H31,G_SET,2), " under policy ", VLOOKUP(I31, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2553,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f>CONCATENATE(C31, "_", E31, IF(E31&lt;&gt;"",",",""), F31, IF(F31&lt;&gt;"",",",""),  G31, IF(G31&lt;&gt;"",",",""),  H31, IF(I31&lt;&gt;"","(",""), I31, IF(I31&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,1,2(3)</v>
       </c>
       <c r="K31" s="9">
@@ -2563,12 +2623,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E32,TB_SET,2)," and HIV compartment ",VLOOKUP(G32,HIV_SET,2)," for gender ",VLOOKUP(H32,G_SET,2), " under policy ", VLOOKUP(I32, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2590,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f>CONCATENATE(C32, "_", E32, IF(E32&lt;&gt;"",",",""), F32, IF(F32&lt;&gt;"",",",""),  G32, IF(G32&lt;&gt;"",",",""),  H32, IF(I32&lt;&gt;"","(",""), I32, IF(I32&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,2,1(3)</v>
       </c>
       <c r="K32" s="9">
@@ -2600,12 +2660,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E33,TB_SET,2)," and HIV compartment ",VLOOKUP(G33,HIV_SET,2)," for gender ",VLOOKUP(H33,G_SET,2), " under policy ", VLOOKUP(I33, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2627,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f>CONCATENATE(C33, "_", E33, IF(E33&lt;&gt;"",",",""), F33, IF(F33&lt;&gt;"",",",""),  G33, IF(G33&lt;&gt;"",",",""),  H33, IF(I33&lt;&gt;"","(",""), I33, IF(I33&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,2,2(3)</v>
       </c>
       <c r="K33" s="9">
@@ -2637,12 +2697,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E34,TB_SET,2)," and HIV compartment ",VLOOKUP(G34,HIV_SET,2)," for gender ",VLOOKUP(H34,G_SET,2), " under policy ", VLOOKUP(I34, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2664,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f>CONCATENATE(C34, "_", E34, IF(E34&lt;&gt;"",",",""), F34, IF(F34&lt;&gt;"",",",""),  G34, IF(G34&lt;&gt;"",",",""),  H34, IF(I34&lt;&gt;"","(",""), I34, IF(I34&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J34:J65" si="2">CONCATENATE(C34, "_", E34, IF(E34&lt;&gt;"",",",""), F34, IF(F34&lt;&gt;"",",",""),  G34, IF(G34&lt;&gt;"",",",""),  H34, IF(I34&lt;&gt;"","(",""), I34, IF(I34&lt;&gt;"",")",""))</f>
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K34" s="9">
@@ -2674,12 +2734,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E35,TB_SET,2)," and HIV compartment ",VLOOKUP(G35,HIV_SET,2)," for gender ",VLOOKUP(H35,G_SET,2), " under policy ", VLOOKUP(I35, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2701,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f>CONCATENATE(C35, "_", E35, IF(E35&lt;&gt;"",",",""), F35, IF(F35&lt;&gt;"",",",""),  G35, IF(G35&lt;&gt;"",",",""),  H35, IF(I35&lt;&gt;"","(",""), I35, IF(I35&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K35" s="9">
@@ -2711,12 +2771,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E36,TB_SET,2)," and HIV compartment ",VLOOKUP(G36,HIV_SET,2)," for gender ",VLOOKUP(H36,G_SET,2), " under policy ", VLOOKUP(I36, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -2738,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f>CONCATENATE(C36, "_", E36, IF(E36&lt;&gt;"",",",""), F36, IF(F36&lt;&gt;"",",",""),  G36, IF(G36&lt;&gt;"",",",""),  H36, IF(I36&lt;&gt;"","(",""), I36, IF(I36&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K36" s="9">
@@ -2748,12 +2808,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E37,TB_SET,2)," and HIV compartment ",VLOOKUP(G37,HIV_SET,2)," for gender ",VLOOKUP(H37,G_SET,2), " under policy ", VLOOKUP(I37, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2775,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f>CONCATENATE(C37, "_", E37, IF(E37&lt;&gt;"",",",""), F37, IF(F37&lt;&gt;"",",",""),  G37, IF(G37&lt;&gt;"",",",""),  H37, IF(I37&lt;&gt;"","(",""), I37, IF(I37&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K37" s="9">
@@ -2785,12 +2845,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E38,TB_SET,2)," and HIV compartment ",VLOOKUP(G38,HIV_SET,2)," for gender ",VLOOKUP(H38,G_SET,2), " under policy ", VLOOKUP(I38, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2812,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f>CONCATENATE(C38, "_", E38, IF(E38&lt;&gt;"",",",""), F38, IF(F38&lt;&gt;"",",",""),  G38, IF(G38&lt;&gt;"",",",""),  H38, IF(I38&lt;&gt;"","(",""), I38, IF(I38&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,1(2)</v>
       </c>
       <c r="K38" s="9">
@@ -2822,12 +2882,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E39,TB_SET,2)," and HIV compartment ",VLOOKUP(G39,HIV_SET,2)," for gender ",VLOOKUP(H39,G_SET,2), " under policy ", VLOOKUP(I39, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2849,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f>CONCATENATE(C39, "_", E39, IF(E39&lt;&gt;"",",",""), F39, IF(F39&lt;&gt;"",",",""),  G39, IF(G39&lt;&gt;"",",",""),  H39, IF(I39&lt;&gt;"","(",""), I39, IF(I39&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,2(2)</v>
       </c>
       <c r="K39" s="9">
@@ -2859,12 +2919,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E40,TB_SET,2)," and HIV compartment ",VLOOKUP(G40,HIV_SET,2)," for gender ",VLOOKUP(H40,G_SET,2), " under policy ", VLOOKUP(I40, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2886,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f>CONCATENATE(C40, "_", E40, IF(E40&lt;&gt;"",",",""), F40, IF(F40&lt;&gt;"",",",""),  G40, IF(G40&lt;&gt;"",",",""),  H40, IF(I40&lt;&gt;"","(",""), I40, IF(I40&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,1(2)</v>
       </c>
       <c r="K40" s="9">
@@ -2899,12 +2959,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E41,TB_SET,2)," and HIV compartment ",VLOOKUP(G41,HIV_SET,2)," for gender ",VLOOKUP(H41,G_SET,2), " under policy ", VLOOKUP(I41, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2926,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="9" t="str">
-        <f>CONCATENATE(C41, "_", E41, IF(E41&lt;&gt;"",",",""), F41, IF(F41&lt;&gt;"",",",""),  G41, IF(G41&lt;&gt;"",",",""),  H41, IF(I41&lt;&gt;"","(",""), I41, IF(I41&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,2(2)</v>
       </c>
       <c r="K41" s="9">
@@ -2939,12 +2999,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E42,TB_SET,2)," and HIV compartment ",VLOOKUP(G42,HIV_SET,2)," for gender ",VLOOKUP(H42,G_SET,2), " under policy ", VLOOKUP(I42, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2966,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f>CONCATENATE(C42, "_", E42, IF(E42&lt;&gt;"",",",""), F42, IF(F42&lt;&gt;"",",",""),  G42, IF(G42&lt;&gt;"",",",""),  H42, IF(I42&lt;&gt;"","(",""), I42, IF(I42&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,3,1(2)</v>
       </c>
       <c r="K42" s="9">
@@ -2979,12 +3039,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E43,TB_SET,2)," and HIV compartment ",VLOOKUP(G43,HIV_SET,2)," for gender ",VLOOKUP(H43,G_SET,2), " under policy ", VLOOKUP(I43, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -3006,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f>CONCATENATE(C43, "_", E43, IF(E43&lt;&gt;"",",",""), F43, IF(F43&lt;&gt;"",",",""),  G43, IF(G43&lt;&gt;"",",",""),  H43, IF(I43&lt;&gt;"","(",""), I43, IF(I43&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,3,2(2)</v>
       </c>
       <c r="K43" s="9">
@@ -3019,12 +3079,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E44,TB_SET,2)," and HIV compartment ",VLOOKUP(G44,HIV_SET,2)," for gender ",VLOOKUP(H44,G_SET,2), " under policy ", VLOOKUP(I44, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3046,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f>CONCATENATE(C44, "_", E44, IF(E44&lt;&gt;"",",",""), F44, IF(F44&lt;&gt;"",",",""),  G44, IF(G44&lt;&gt;"",",",""),  H44, IF(I44&lt;&gt;"","(",""), I44, IF(I44&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K44" s="9">
@@ -3059,12 +3119,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E45,TB_SET,2)," and HIV compartment ",VLOOKUP(G45,HIV_SET,2)," for gender ",VLOOKUP(H45,G_SET,2), " under policy ", VLOOKUP(I45, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3086,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f>CONCATENATE(C45, "_", E45, IF(E45&lt;&gt;"",",",""), F45, IF(F45&lt;&gt;"",",",""),  G45, IF(G45&lt;&gt;"",",",""),  H45, IF(I45&lt;&gt;"","(",""), I45, IF(I45&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K45" s="9">
@@ -3099,12 +3159,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E46,TB_SET,2)," and HIV compartment ",VLOOKUP(G46,HIV_SET,2)," for gender ",VLOOKUP(H46,G_SET,2), " under policy ", VLOOKUP(I46, P_SET,2))</f>
+        <f t="shared" ref="B46:B77" si="3">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E46,TB_SET,2)," and HIV compartment ",VLOOKUP(G46,HIV_SET,2)," for gender ",VLOOKUP(H46,G_SET,2), " under policy ", VLOOKUP(I46, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3126,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f>CONCATENATE(C46, "_", E46, IF(E46&lt;&gt;"",",",""), F46, IF(F46&lt;&gt;"",",",""),  G46, IF(G46&lt;&gt;"",",",""),  H46, IF(I46&lt;&gt;"","(",""), I46, IF(I46&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,1,1(2)</v>
       </c>
       <c r="K46" s="9">
@@ -3139,12 +3199,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E47,TB_SET,2)," and HIV compartment ",VLOOKUP(G47,HIV_SET,2)," for gender ",VLOOKUP(H47,G_SET,2), " under policy ", VLOOKUP(I47, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3166,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f>CONCATENATE(C47, "_", E47, IF(E47&lt;&gt;"",",",""), F47, IF(F47&lt;&gt;"",",",""),  G47, IF(G47&lt;&gt;"",",",""),  H47, IF(I47&lt;&gt;"","(",""), I47, IF(I47&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,1,2(2)</v>
       </c>
       <c r="K47" s="9">
@@ -3179,12 +3239,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E48,TB_SET,2)," and HIV compartment ",VLOOKUP(G48,HIV_SET,2)," for gender ",VLOOKUP(H48,G_SET,2), " under policy ", VLOOKUP(I48, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -3206,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f>CONCATENATE(C48, "_", E48, IF(E48&lt;&gt;"",",",""), F48, IF(F48&lt;&gt;"",",",""),  G48, IF(G48&lt;&gt;"",",",""),  H48, IF(I48&lt;&gt;"","(",""), I48, IF(I48&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,2,1(2)</v>
       </c>
       <c r="K48" s="9">
@@ -3216,12 +3276,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E49,TB_SET,2)," and HIV compartment ",VLOOKUP(G49,HIV_SET,2)," for gender ",VLOOKUP(H49,G_SET,2), " under policy ", VLOOKUP(I49, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -3243,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f>CONCATENATE(C49, "_", E49, IF(E49&lt;&gt;"",",",""), F49, IF(F49&lt;&gt;"",",",""),  G49, IF(G49&lt;&gt;"",",",""),  H49, IF(I49&lt;&gt;"","(",""), I49, IF(I49&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,2,2(2)</v>
       </c>
       <c r="K49" s="9">
@@ -3253,12 +3313,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E50,TB_SET,2)," and HIV compartment ",VLOOKUP(G50,HIV_SET,2)," for gender ",VLOOKUP(H50,G_SET,2), " under policy ", VLOOKUP(I50, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -3280,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="9" t="str">
-        <f>CONCATENATE(C50, "_", E50, IF(E50&lt;&gt;"",",",""), F50, IF(F50&lt;&gt;"",",",""),  G50, IF(G50&lt;&gt;"",",",""),  H50, IF(I50&lt;&gt;"","(",""), I50, IF(I50&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,3,1(2)</v>
       </c>
       <c r="K50" s="9">
@@ -3290,12 +3350,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E51,TB_SET,2)," and HIV compartment ",VLOOKUP(G51,HIV_SET,2)," for gender ",VLOOKUP(H51,G_SET,2), " under policy ", VLOOKUP(I51, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3317,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f>CONCATENATE(C51, "_", E51, IF(E51&lt;&gt;"",",",""), F51, IF(F51&lt;&gt;"",",",""),  G51, IF(G51&lt;&gt;"",",",""),  H51, IF(I51&lt;&gt;"","(",""), I51, IF(I51&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,3,2(2)</v>
       </c>
       <c r="K51" s="9">
@@ -3327,12 +3387,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E52,TB_SET,2)," and HIV compartment ",VLOOKUP(G52,HIV_SET,2)," for gender ",VLOOKUP(H52,G_SET,2), " under policy ", VLOOKUP(I52, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3354,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f>CONCATENATE(C52, "_", E52, IF(E52&lt;&gt;"",",",""), F52, IF(F52&lt;&gt;"",",",""),  G52, IF(G52&lt;&gt;"",",",""),  H52, IF(I52&lt;&gt;"","(",""), I52, IF(I52&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K52" s="9">
@@ -3364,12 +3424,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E53,TB_SET,2)," and HIV compartment ",VLOOKUP(G53,HIV_SET,2)," for gender ",VLOOKUP(H53,G_SET,2), " under policy ", VLOOKUP(I53, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3391,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="9" t="str">
-        <f>CONCATENATE(C53, "_", E53, IF(E53&lt;&gt;"",",",""), F53, IF(F53&lt;&gt;"",",",""),  G53, IF(G53&lt;&gt;"",",",""),  H53, IF(I53&lt;&gt;"","(",""), I53, IF(I53&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K53" s="9">
@@ -3401,12 +3461,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E54,TB_SET,2)," and HIV compartment ",VLOOKUP(G54,HIV_SET,2)," for gender ",VLOOKUP(H54,G_SET,2), " under policy ", VLOOKUP(I54, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -3428,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f>CONCATENATE(C54, "_", E54, IF(E54&lt;&gt;"",",",""), F54, IF(F54&lt;&gt;"",",",""),  G54, IF(G54&lt;&gt;"",",",""),  H54, IF(I54&lt;&gt;"","(",""), I54, IF(I54&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,1,1(2)</v>
       </c>
       <c r="K54" s="9">
@@ -3438,12 +3498,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E55,TB_SET,2)," and HIV compartment ",VLOOKUP(G55,HIV_SET,2)," for gender ",VLOOKUP(H55,G_SET,2), " under policy ", VLOOKUP(I55, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -3465,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="9" t="str">
-        <f>CONCATENATE(C55, "_", E55, IF(E55&lt;&gt;"",",",""), F55, IF(F55&lt;&gt;"",",",""),  G55, IF(G55&lt;&gt;"",",",""),  H55, IF(I55&lt;&gt;"","(",""), I55, IF(I55&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,1,2(2)</v>
       </c>
       <c r="K55" s="9">
@@ -3475,12 +3535,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E56,TB_SET,2)," and HIV compartment ",VLOOKUP(G56,HIV_SET,2)," for gender ",VLOOKUP(H56,G_SET,2), " under policy ", VLOOKUP(I56, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3502,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f>CONCATENATE(C56, "_", E56, IF(E56&lt;&gt;"",",",""), F56, IF(F56&lt;&gt;"",",",""),  G56, IF(G56&lt;&gt;"",",",""),  H56, IF(I56&lt;&gt;"","(",""), I56, IF(I56&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,2,1(2)</v>
       </c>
       <c r="K56" s="9">
@@ -3512,12 +3572,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B57" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E57,TB_SET,2)," and HIV compartment ",VLOOKUP(G57,HIV_SET,2)," for gender ",VLOOKUP(H57,G_SET,2), " under policy ", VLOOKUP(I57, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -3539,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="9" t="str">
-        <f>CONCATENATE(C57, "_", E57, IF(E57&lt;&gt;"",",",""), F57, IF(F57&lt;&gt;"",",",""),  G57, IF(G57&lt;&gt;"",",",""),  H57, IF(I57&lt;&gt;"","(",""), I57, IF(I57&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,2,2(2)</v>
       </c>
       <c r="K57" s="9">
@@ -3549,12 +3609,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E58,TB_SET,2)," and HIV compartment ",VLOOKUP(G58,HIV_SET,2)," for gender ",VLOOKUP(H58,G_SET,2), " under policy ", VLOOKUP(I58, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -3576,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="9" t="str">
-        <f>CONCATENATE(C58, "_", E58, IF(E58&lt;&gt;"",",",""), F58, IF(F58&lt;&gt;"",",",""),  G58, IF(G58&lt;&gt;"",",",""),  H58, IF(I58&lt;&gt;"","(",""), I58, IF(I58&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,1(2)</v>
       </c>
       <c r="K58" s="9">
@@ -3586,12 +3646,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E59,TB_SET,2)," and HIV compartment ",VLOOKUP(G59,HIV_SET,2)," for gender ",VLOOKUP(H59,G_SET,2), " under policy ", VLOOKUP(I59, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3613,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="9" t="str">
-        <f>CONCATENATE(C59, "_", E59, IF(E59&lt;&gt;"",",",""), F59, IF(F59&lt;&gt;"",",",""),  G59, IF(G59&lt;&gt;"",",",""),  H59, IF(I59&lt;&gt;"","(",""), I59, IF(I59&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,2(2)</v>
       </c>
       <c r="K59" s="9">
@@ -3623,12 +3683,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E60,TB_SET,2)," and HIV compartment ",VLOOKUP(G60,HIV_SET,2)," for gender ",VLOOKUP(H60,G_SET,2), " under policy ", VLOOKUP(I60, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3650,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="9" t="str">
-        <f>CONCATENATE(C60, "_", E60, IF(E60&lt;&gt;"",",",""), F60, IF(F60&lt;&gt;"",",",""),  G60, IF(G60&lt;&gt;"",",",""),  H60, IF(I60&lt;&gt;"","(",""), I60, IF(I60&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K60" s="9">
@@ -3660,12 +3720,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E61,TB_SET,2)," and HIV compartment ",VLOOKUP(G61,HIV_SET,2)," for gender ",VLOOKUP(H61,G_SET,2), " under policy ", VLOOKUP(I61, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -3687,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="9" t="str">
-        <f>CONCATENATE(C61, "_", E61, IF(E61&lt;&gt;"",",",""), F61, IF(F61&lt;&gt;"",",",""),  G61, IF(G61&lt;&gt;"",",",""),  H61, IF(I61&lt;&gt;"","(",""), I61, IF(I61&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K61" s="9">
@@ -3697,12 +3757,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B62" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E62,TB_SET,2)," and HIV compartment ",VLOOKUP(G62,HIV_SET,2)," for gender ",VLOOKUP(H62,G_SET,2), " under policy ", VLOOKUP(I62, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3724,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="str">
-        <f>CONCATENATE(C62, "_", E62, IF(E62&lt;&gt;"",",",""), F62, IF(F62&lt;&gt;"",",",""),  G62, IF(G62&lt;&gt;"",",",""),  H62, IF(I62&lt;&gt;"","(",""), I62, IF(I62&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,1(1)</v>
       </c>
       <c r="K62" s="9">
@@ -3734,12 +3794,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E63,TB_SET,2)," and HIV compartment ",VLOOKUP(G63,HIV_SET,2)," for gender ",VLOOKUP(H63,G_SET,2), " under policy ", VLOOKUP(I63, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3761,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="str">
-        <f>CONCATENATE(C63, "_", E63, IF(E63&lt;&gt;"",",",""), F63, IF(F63&lt;&gt;"",",",""),  G63, IF(G63&lt;&gt;"",",",""),  H63, IF(I63&lt;&gt;"","(",""), I63, IF(I63&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,2(1)</v>
       </c>
       <c r="K63" s="9">
@@ -3771,12 +3831,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E64,TB_SET,2)," and HIV compartment ",VLOOKUP(G64,HIV_SET,2)," for gender ",VLOOKUP(H64,G_SET,2), " under policy ", VLOOKUP(I64, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -3798,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="str">
-        <f>CONCATENATE(C64, "_", E64, IF(E64&lt;&gt;"",",",""), F64, IF(F64&lt;&gt;"",",",""),  G64, IF(G64&lt;&gt;"",",",""),  H64, IF(I64&lt;&gt;"","(",""), I64, IF(I64&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,1(1)</v>
       </c>
       <c r="K64" s="9">
@@ -3808,12 +3868,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E65,TB_SET,2)," and HIV compartment ",VLOOKUP(G65,HIV_SET,2)," for gender ",VLOOKUP(H65,G_SET,2), " under policy ", VLOOKUP(I65, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -3835,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f>CONCATENATE(C65, "_", E65, IF(E65&lt;&gt;"",",",""), F65, IF(F65&lt;&gt;"",",",""),  G65, IF(G65&lt;&gt;"",",",""),  H65, IF(I65&lt;&gt;"","(",""), I65, IF(I65&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,2(1)</v>
       </c>
       <c r="K65" s="9">
@@ -3845,12 +3905,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B66" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E66,TB_SET,2)," and HIV compartment ",VLOOKUP(G66,HIV_SET,2)," for gender ",VLOOKUP(H66,G_SET,2), " under policy ", VLOOKUP(I66, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3872,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f>CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J66:J97" si="4">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
         <v>kappa_1,3,1(1)</v>
       </c>
       <c r="K66" s="9">
@@ -3882,12 +3942,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E67,TB_SET,2)," and HIV compartment ",VLOOKUP(G67,HIV_SET,2)," for gender ",VLOOKUP(H67,G_SET,2), " under policy ", VLOOKUP(I67, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3909,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f>CONCATENATE(C67, "_", E67, IF(E67&lt;&gt;"",",",""), F67, IF(F67&lt;&gt;"",",",""),  G67, IF(G67&lt;&gt;"",",",""),  H67, IF(I67&lt;&gt;"","(",""), I67, IF(I67&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,3,2(1)</v>
       </c>
       <c r="K67" s="9">
@@ -3919,12 +3979,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E68,TB_SET,2)," and HIV compartment ",VLOOKUP(G68,HIV_SET,2)," for gender ",VLOOKUP(H68,G_SET,2), " under policy ", VLOOKUP(I68, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3946,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f>CONCATENATE(C68, "_", E68, IF(E68&lt;&gt;"",",",""), F68, IF(F68&lt;&gt;"",",",""),  G68, IF(G68&lt;&gt;"",",",""),  H68, IF(I68&lt;&gt;"","(",""), I68, IF(I68&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K68" s="9">
@@ -3956,12 +4016,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B69" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E69,TB_SET,2)," and HIV compartment ",VLOOKUP(G69,HIV_SET,2)," for gender ",VLOOKUP(H69,G_SET,2), " under policy ", VLOOKUP(I69, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -3983,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="str">
-        <f>CONCATENATE(C69, "_", E69, IF(E69&lt;&gt;"",",",""), F69, IF(F69&lt;&gt;"",",",""),  G69, IF(G69&lt;&gt;"",",",""),  H69, IF(I69&lt;&gt;"","(",""), I69, IF(I69&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K69" s="9">
@@ -3993,12 +4053,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E70,TB_SET,2)," and HIV compartment ",VLOOKUP(G70,HIV_SET,2)," for gender ",VLOOKUP(H70,G_SET,2), " under policy ", VLOOKUP(I70, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -4020,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f>CONCATENATE(C70, "_", E70, IF(E70&lt;&gt;"",",",""), F70, IF(F70&lt;&gt;"",",",""),  G70, IF(G70&lt;&gt;"",",",""),  H70, IF(I70&lt;&gt;"","(",""), I70, IF(I70&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,1,1(1)</v>
       </c>
       <c r="K70" s="9">
@@ -4030,12 +4090,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B71" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E71,TB_SET,2)," and HIV compartment ",VLOOKUP(G71,HIV_SET,2)," for gender ",VLOOKUP(H71,G_SET,2), " under policy ", VLOOKUP(I71, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -4057,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f>CONCATENATE(C71, "_", E71, IF(E71&lt;&gt;"",",",""), F71, IF(F71&lt;&gt;"",",",""),  G71, IF(G71&lt;&gt;"",",",""),  H71, IF(I71&lt;&gt;"","(",""), I71, IF(I71&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,1,2(1)</v>
       </c>
       <c r="K71" s="9">
@@ -4067,12 +4127,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E72,TB_SET,2)," and HIV compartment ",VLOOKUP(G72,HIV_SET,2)," for gender ",VLOOKUP(H72,G_SET,2), " under policy ", VLOOKUP(I72, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -4094,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f>CONCATENATE(C72, "_", E72, IF(E72&lt;&gt;"",",",""), F72, IF(F72&lt;&gt;"",",",""),  G72, IF(G72&lt;&gt;"",",",""),  H72, IF(I72&lt;&gt;"","(",""), I72, IF(I72&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,2,1(1)</v>
       </c>
       <c r="K72" s="9">
@@ -4104,12 +4164,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B73" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E73,TB_SET,2)," and HIV compartment ",VLOOKUP(G73,HIV_SET,2)," for gender ",VLOOKUP(H73,G_SET,2), " under policy ", VLOOKUP(I73, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -4131,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f>CONCATENATE(C73, "_", E73, IF(E73&lt;&gt;"",",",""), F73, IF(F73&lt;&gt;"",",",""),  G73, IF(G73&lt;&gt;"",",",""),  H73, IF(I73&lt;&gt;"","(",""), I73, IF(I73&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,2,2(1)</v>
       </c>
       <c r="K73" s="9">
@@ -4141,12 +4201,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E74,TB_SET,2)," and HIV compartment ",VLOOKUP(G74,HIV_SET,2)," for gender ",VLOOKUP(H74,G_SET,2), " under policy ", VLOOKUP(I74, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -4168,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f>CONCATENATE(C74, "_", E74, IF(E74&lt;&gt;"",",",""), F74, IF(F74&lt;&gt;"",",",""),  G74, IF(G74&lt;&gt;"",",",""),  H74, IF(I74&lt;&gt;"","(",""), I74, IF(I74&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,3,1(1)</v>
       </c>
       <c r="K74" s="9">
@@ -4178,12 +4238,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E75,TB_SET,2)," and HIV compartment ",VLOOKUP(G75,HIV_SET,2)," for gender ",VLOOKUP(H75,G_SET,2), " under policy ", VLOOKUP(I75, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -4205,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f>CONCATENATE(C75, "_", E75, IF(E75&lt;&gt;"",",",""), F75, IF(F75&lt;&gt;"",",",""),  G75, IF(G75&lt;&gt;"",",",""),  H75, IF(I75&lt;&gt;"","(",""), I75, IF(I75&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,3,2(1)</v>
       </c>
       <c r="K75" s="9">
@@ -4215,12 +4275,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B76" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E76,TB_SET,2)," and HIV compartment ",VLOOKUP(G76,HIV_SET,2)," for gender ",VLOOKUP(H76,G_SET,2), " under policy ", VLOOKUP(I76, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -4242,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f>CONCATENATE(C76, "_", E76, IF(E76&lt;&gt;"",",",""), F76, IF(F76&lt;&gt;"",",",""),  G76, IF(G76&lt;&gt;"",",",""),  H76, IF(I76&lt;&gt;"","(",""), I76, IF(I76&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K76" s="9">
@@ -4252,12 +4312,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B77" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E77,TB_SET,2)," and HIV compartment ",VLOOKUP(G77,HIV_SET,2)," for gender ",VLOOKUP(H77,G_SET,2), " under policy ", VLOOKUP(I77, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -4279,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f>CONCATENATE(C77, "_", E77, IF(E77&lt;&gt;"",",",""), F77, IF(F77&lt;&gt;"",",",""),  G77, IF(G77&lt;&gt;"",",",""),  H77, IF(I77&lt;&gt;"","(",""), I77, IF(I77&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K77" s="9">
@@ -4289,12 +4349,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B78" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E78,TB_SET,2)," and HIV compartment ",VLOOKUP(G78,HIV_SET,2)," for gender ",VLOOKUP(H78,G_SET,2), " under policy ", VLOOKUP(I78, P_SET,2))</f>
+        <f t="shared" ref="B78:B85" si="5">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E78,TB_SET,2)," and HIV compartment ",VLOOKUP(G78,HIV_SET,2)," for gender ",VLOOKUP(H78,G_SET,2), " under policy ", VLOOKUP(I78, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -4316,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f>CONCATENATE(C78, "_", E78, IF(E78&lt;&gt;"",",",""), F78, IF(F78&lt;&gt;"",",",""),  G78, IF(G78&lt;&gt;"",",",""),  H78, IF(I78&lt;&gt;"","(",""), I78, IF(I78&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,1,1(1)</v>
       </c>
       <c r="K78" s="9">
@@ -4326,12 +4386,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E79,TB_SET,2)," and HIV compartment ",VLOOKUP(G79,HIV_SET,2)," for gender ",VLOOKUP(H79,G_SET,2), " under policy ", VLOOKUP(I79, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4353,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f>CONCATENATE(C79, "_", E79, IF(E79&lt;&gt;"",",",""), F79, IF(F79&lt;&gt;"",",",""),  G79, IF(G79&lt;&gt;"",",",""),  H79, IF(I79&lt;&gt;"","(",""), I79, IF(I79&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,1,2(1)</v>
       </c>
       <c r="K79" s="9">
@@ -4363,12 +4423,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
       <c r="B80" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E80,TB_SET,2)," and HIV compartment ",VLOOKUP(G80,HIV_SET,2)," for gender ",VLOOKUP(H80,G_SET,2), " under policy ", VLOOKUP(I80, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -4390,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f>CONCATENATE(C80, "_", E80, IF(E80&lt;&gt;"",",",""), F80, IF(F80&lt;&gt;"",",",""),  G80, IF(G80&lt;&gt;"",",",""),  H80, IF(I80&lt;&gt;"","(",""), I80, IF(I80&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,2,1(1)</v>
       </c>
       <c r="K80" s="9">
@@ -4400,12 +4460,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E81,TB_SET,2)," and HIV compartment ",VLOOKUP(G81,HIV_SET,2)," for gender ",VLOOKUP(H81,G_SET,2), " under policy ", VLOOKUP(I81, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -4427,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f>CONCATENATE(C81, "_", E81, IF(E81&lt;&gt;"",",",""), F81, IF(F81&lt;&gt;"",",",""),  G81, IF(G81&lt;&gt;"",",",""),  H81, IF(I81&lt;&gt;"","(",""), I81, IF(I81&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,2,2(1)</v>
       </c>
       <c r="K81" s="9">
@@ -4437,12 +4497,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E82,TB_SET,2)," and HIV compartment ",VLOOKUP(G82,HIV_SET,2)," for gender ",VLOOKUP(H82,G_SET,2), " under policy ", VLOOKUP(I82, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -4464,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f>CONCATENATE(C82, "_", E82, IF(E82&lt;&gt;"",",",""), F82, IF(F82&lt;&gt;"",",",""),  G82, IF(G82&lt;&gt;"",",",""),  H82, IF(I82&lt;&gt;"","(",""), I82, IF(I82&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,3,1(1)</v>
       </c>
       <c r="K82" s="9">
@@ -4474,12 +4534,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B83" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E83,TB_SET,2)," and HIV compartment ",VLOOKUP(G83,HIV_SET,2)," for gender ",VLOOKUP(H83,G_SET,2), " under policy ", VLOOKUP(I83, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4501,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f>CONCATENATE(C83, "_", E83, IF(E83&lt;&gt;"",",",""), F83, IF(F83&lt;&gt;"",",",""),  G83, IF(G83&lt;&gt;"",",",""),  H83, IF(I83&lt;&gt;"","(",""), I83, IF(I83&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,3,2(1)</v>
       </c>
       <c r="K83" s="9">
@@ -4511,12 +4571,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B84" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E84,TB_SET,2)," and HIV compartment ",VLOOKUP(G84,HIV_SET,2)," for gender ",VLOOKUP(H84,G_SET,2), " under policy ", VLOOKUP(I84, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -4538,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f>CONCATENATE(C84, "_", E84, IF(E84&lt;&gt;"",",",""), F84, IF(F84&lt;&gt;"",",",""),  G84, IF(G84&lt;&gt;"",",",""),  H84, IF(I84&lt;&gt;"","(",""), I84, IF(I84&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K84" s="9">
@@ -4548,12 +4608,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E85,TB_SET,2)," and HIV compartment ",VLOOKUP(G85,HIV_SET,2)," for gender ",VLOOKUP(H85,G_SET,2), " under policy ", VLOOKUP(I85, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -4575,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f>CONCATENATE(C85, "_", E85, IF(E85&lt;&gt;"",",",""), F85, IF(F85&lt;&gt;"",",",""),  G85, IF(G85&lt;&gt;"",",",""),  H85, IF(I85&lt;&gt;"","(",""), I85, IF(I85&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K85" s="9">
@@ -4585,7 +4645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4603,14 +4663,14 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f>CONCATENATE(C86, "_", E86, IF(E86&lt;&gt;"",",",""), F86, IF(F86&lt;&gt;"",",",""),  G86, IF(G86&lt;&gt;"",",",""),  H86, IF(I86&lt;&gt;"","(",""), I86, IF(I86&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>gamma_1,</v>
       </c>
       <c r="K86" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4628,19 +4688,19 @@
         <v>2</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f>CONCATENATE(C87, "_", E87, IF(E87&lt;&gt;"",",",""), F87, IF(F87&lt;&gt;"",",",""),  G87, IF(G87&lt;&gt;"",",",""),  H87, IF(I87&lt;&gt;"","(",""), I87, IF(I87&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>gamma_2,</v>
       </c>
       <c r="K87" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B88" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E88, TB_SET, 2), " under policy ", VLOOKUP(I88, P_SET, 2))</f>
+        <f t="shared" ref="B88:B93" si="6">CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E88, TB_SET, 2), " under policy ", VLOOKUP(I88, P_SET, 2))</f>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Community ART + IPT</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -4656,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f>CONCATENATE(C88, "_", E88, IF(E88&lt;&gt;"",",",""), F88, IF(F88&lt;&gt;"",",",""),  G88, IF(G88&lt;&gt;"",",",""),  H88, IF(I88&lt;&gt;"","(",""), I88, IF(I88&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(3)</v>
       </c>
       <c r="K88" s="9">
@@ -4666,12 +4726,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E89, TB_SET, 2), " under policy ", VLOOKUP(I89, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Community ART + IPT</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -4687,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f>CONCATENATE(C89, "_", E89, IF(E89&lt;&gt;"",",",""), F89, IF(F89&lt;&gt;"",",",""),  G89, IF(G89&lt;&gt;"",",",""),  H89, IF(I89&lt;&gt;"","(",""), I89, IF(I89&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(3)</v>
       </c>
       <c r="K89" s="9">
@@ -4697,12 +4757,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B90" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E90, TB_SET, 2), " under policy ", VLOOKUP(I90, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Community ART</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -4718,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f>CONCATENATE(C90, "_", E90, IF(E90&lt;&gt;"",",",""), F90, IF(F90&lt;&gt;"",",",""),  G90, IF(G90&lt;&gt;"",",",""),  H90, IF(I90&lt;&gt;"","(",""), I90, IF(I90&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(2)</v>
       </c>
       <c r="K90" s="9">
@@ -4728,12 +4788,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B91" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E91, TB_SET, 2), " under policy ", VLOOKUP(I91, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Community ART</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -4749,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f>CONCATENATE(C91, "_", E91, IF(E91&lt;&gt;"",",",""), F91, IF(F91&lt;&gt;"",",",""),  G91, IF(G91&lt;&gt;"",",",""),  H91, IF(I91&lt;&gt;"","(",""), I91, IF(I91&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(2)</v>
       </c>
       <c r="K91" s="9">
@@ -4759,12 +4819,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B92" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E92, TB_SET, 2), " under policy ", VLOOKUP(I92, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Standard (baseline)</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -4780,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f>CONCATENATE(C92, "_", E92, IF(E92&lt;&gt;"",",",""), F92, IF(F92&lt;&gt;"",",",""),  G92, IF(G92&lt;&gt;"",",",""),  H92, IF(I92&lt;&gt;"","(",""), I92, IF(I92&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(1)</v>
       </c>
       <c r="K92" s="9">
@@ -4790,12 +4850,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B93" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E93, TB_SET, 2), " under policy ", VLOOKUP(I93, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Standard (baseline)</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -4811,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f>CONCATENATE(C93, "_", E93, IF(E93&lt;&gt;"",",",""), F93, IF(F93&lt;&gt;"",",",""),  G93, IF(G93&lt;&gt;"",",",""),  H93, IF(I93&lt;&gt;"","(",""), I93, IF(I93&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(1)</v>
       </c>
       <c r="K93" s="9">
@@ -4821,7 +4881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -4838,7 +4898,7 @@
         <v>34</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f>CONCATENATE(C94, "_", E94, IF(E94&lt;&gt;"",",",""), F94, IF(F94&lt;&gt;"",",",""),  G94, IF(G94&lt;&gt;"",",",""),  H94, IF(I94&lt;&gt;"","(",""), I94, IF(I94&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_34,</v>
       </c>
       <c r="K94" s="9">
@@ -4848,7 +4908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -4865,14 +4925,14 @@
         <v>36</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f>CONCATENATE(C95, "_", E95, IF(E95&lt;&gt;"",",",""), F95, IF(F95&lt;&gt;"",",",""),  G95, IF(G95&lt;&gt;"",",",""),  H95, IF(I95&lt;&gt;"","(",""), I95, IF(I95&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_36,</v>
       </c>
       <c r="K95" s="9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -4889,14 +4949,14 @@
         <v>46</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f>CONCATENATE(C96, "_", E96, IF(E96&lt;&gt;"",",",""), F96, IF(F96&lt;&gt;"",",",""),  G96, IF(G96&lt;&gt;"",",",""),  H96, IF(I96&lt;&gt;"","(",""), I96, IF(I96&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_46,</v>
       </c>
       <c r="K96" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -4913,14 +4973,14 @@
         <v>56</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f>CONCATENATE(C97, "_", E97, IF(E97&lt;&gt;"",",",""), F97, IF(F97&lt;&gt;"",",",""),  G97, IF(G97&lt;&gt;"",",",""),  H97, IF(I97&lt;&gt;"","(",""), I97, IF(I97&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_56,</v>
       </c>
       <c r="K97" s="9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -4939,14 +4999,14 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f>CONCATENATE(C98, "_", E98, IF(E98&lt;&gt;"",",",""), F98, IF(F98&lt;&gt;"",",",""),  G98, IF(G98&lt;&gt;"",",",""),  H98, IF(I98&lt;&gt;"","(",""), I98, IF(I98&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J98:J129" si="7">CONCATENATE(C98, "_", E98, IF(E98&lt;&gt;"",",",""), F98, IF(F98&lt;&gt;"",",",""),  G98, IF(G98&lt;&gt;"",",",""),  H98, IF(I98&lt;&gt;"","(",""), I98, IF(I98&lt;&gt;"",")",""))</f>
         <v>theta_1,</v>
       </c>
       <c r="K98" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -4965,14 +5025,14 @@
         <v>2</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f>CONCATENATE(C99, "_", E99, IF(E99&lt;&gt;"",",",""), F99, IF(F99&lt;&gt;"",",",""),  G99, IF(G99&lt;&gt;"",",",""),  H99, IF(I99&lt;&gt;"","(",""), I99, IF(I99&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_2,</v>
       </c>
       <c r="K99" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -4991,14 +5051,14 @@
         <v>3</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f>CONCATENATE(C100, "_", E100, IF(E100&lt;&gt;"",",",""), F100, IF(F100&lt;&gt;"",",",""),  G100, IF(G100&lt;&gt;"",",",""),  H100, IF(I100&lt;&gt;"","(",""), I100, IF(I100&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_3,</v>
       </c>
       <c r="K100" s="9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5017,14 +5077,14 @@
         <v>4</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f>CONCATENATE(C101, "_", E101, IF(E101&lt;&gt;"",",",""), F101, IF(F101&lt;&gt;"",",",""),  G101, IF(G101&lt;&gt;"",",",""),  H101, IF(I101&lt;&gt;"","(",""), I101, IF(I101&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_4,</v>
       </c>
       <c r="K101" s="9">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5041,14 +5101,14 @@
         <v>67</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f>CONCATENATE(C102, "_", E102, IF(E102&lt;&gt;"",",",""), F102, IF(F102&lt;&gt;"",",",""),  G102, IF(G102&lt;&gt;"",",",""),  H102, IF(I102&lt;&gt;"","(",""), I102, IF(I102&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>pi_67,</v>
       </c>
       <c r="K102" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5070,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f>CONCATENATE(C103, "_", E103, IF(E103&lt;&gt;"",",",""), F103, IF(F103&lt;&gt;"",",",""),  G103, IF(G103&lt;&gt;"",",",""),  H103, IF(I103&lt;&gt;"","(",""), I103, IF(I103&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(3)</v>
       </c>
       <c r="K103" s="9">
@@ -5080,7 +5140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5102,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f>CONCATENATE(C104, "_", E104, IF(E104&lt;&gt;"",",",""), F104, IF(F104&lt;&gt;"",",",""),  G104, IF(G104&lt;&gt;"",",",""),  H104, IF(I104&lt;&gt;"","(",""), I104, IF(I104&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(3)</v>
       </c>
       <c r="K104" s="9">
@@ -5112,7 +5172,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5134,7 +5194,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f>CONCATENATE(C105, "_", E105, IF(E105&lt;&gt;"",",",""), F105, IF(F105&lt;&gt;"",",",""),  G105, IF(G105&lt;&gt;"",",",""),  H105, IF(I105&lt;&gt;"","(",""), I105, IF(I105&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(3)</v>
       </c>
       <c r="K105" s="9">
@@ -5145,7 +5205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5167,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f>CONCATENATE(C106, "_", E106, IF(E106&lt;&gt;"",",",""), F106, IF(F106&lt;&gt;"",",",""),  G106, IF(G106&lt;&gt;"",",",""),  H106, IF(I106&lt;&gt;"","(",""), I106, IF(I106&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(3)</v>
       </c>
       <c r="K106" s="9">
@@ -5178,7 +5238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5200,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f>CONCATENATE(C107, "_", E107, IF(E107&lt;&gt;"",",",""), F107, IF(F107&lt;&gt;"",",",""),  G107, IF(G107&lt;&gt;"",",",""),  H107, IF(I107&lt;&gt;"","(",""), I107, IF(I107&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(2)</v>
       </c>
       <c r="K107" s="9">
@@ -5210,7 +5270,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5232,14 +5292,14 @@
         <v>2</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f>CONCATENATE(C108, "_", E108, IF(E108&lt;&gt;"",",",""), F108, IF(F108&lt;&gt;"",",",""),  G108, IF(G108&lt;&gt;"",",",""),  H108, IF(I108&lt;&gt;"","(",""), I108, IF(I108&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(2)</v>
       </c>
       <c r="K108" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5261,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f>CONCATENATE(C109, "_", E109, IF(E109&lt;&gt;"",",",""), F109, IF(F109&lt;&gt;"",",",""),  G109, IF(G109&lt;&gt;"",",",""),  H109, IF(I109&lt;&gt;"","(",""), I109, IF(I109&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(2)</v>
       </c>
       <c r="K109" s="9">
@@ -5269,7 +5329,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5291,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f>CONCATENATE(C110, "_", E110, IF(E110&lt;&gt;"",",",""), F110, IF(F110&lt;&gt;"",",",""),  G110, IF(G110&lt;&gt;"",",",""),  H110, IF(I110&lt;&gt;"","(",""), I110, IF(I110&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(2)</v>
       </c>
       <c r="K110" s="9">
@@ -5299,7 +5359,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5321,14 +5381,14 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f>CONCATENATE(C111, "_", E111, IF(E111&lt;&gt;"",",",""), F111, IF(F111&lt;&gt;"",",",""),  G111, IF(G111&lt;&gt;"",",",""),  H111, IF(I111&lt;&gt;"","(",""), I111, IF(I111&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(1)</v>
       </c>
       <c r="K111" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5350,14 +5410,14 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f>CONCATENATE(C112, "_", E112, IF(E112&lt;&gt;"",",",""), F112, IF(F112&lt;&gt;"",",",""),  G112, IF(G112&lt;&gt;"",",",""),  H112, IF(I112&lt;&gt;"","(",""), I112, IF(I112&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(1)</v>
       </c>
       <c r="K112" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5379,14 +5439,14 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f>CONCATENATE(C113, "_", E113, IF(E113&lt;&gt;"",",",""), F113, IF(F113&lt;&gt;"",",",""),  G113, IF(G113&lt;&gt;"",",",""),  H113, IF(I113&lt;&gt;"","(",""), I113, IF(I113&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(1)</v>
       </c>
       <c r="K113" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5408,19 +5468,19 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f>CONCATENATE(C114, "_", E114, IF(E114&lt;&gt;"",",",""), F114, IF(F114&lt;&gt;"",",",""),  G114, IF(G114&lt;&gt;"",",",""),  H114, IF(I114&lt;&gt;"","(",""), I114, IF(I114&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(1)</v>
       </c>
       <c r="K114" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B115" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E115,TB_SET,2)," and HIV compartment ",VLOOKUP(G115,HIV_SET,2)," and gender compartment ",VLOOKUP(H115,G_SET,2)," per year")</f>
+        <f t="shared" ref="B115:B146" si="8">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E115,TB_SET,2)," and HIV compartment ",VLOOKUP(G115,HIV_SET,2)," and gender compartment ",VLOOKUP(H115,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -5439,19 +5499,19 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f>CONCATENATE(C115, "_", E115, IF(E115&lt;&gt;"",",",""), F115, IF(F115&lt;&gt;"",",",""),  G115, IF(G115&lt;&gt;"",",",""),  H115, IF(I115&lt;&gt;"","(",""), I115, IF(I115&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,1,1</v>
       </c>
       <c r="K115" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E116,TB_SET,2)," and HIV compartment ",VLOOKUP(G116,HIV_SET,2)," and gender compartment ",VLOOKUP(H116,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -5470,19 +5530,19 @@
         <v>2</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f>CONCATENATE(C116, "_", E116, IF(E116&lt;&gt;"",",",""), F116, IF(F116&lt;&gt;"",",",""),  G116, IF(G116&lt;&gt;"",",",""),  H116, IF(I116&lt;&gt;"","(",""), I116, IF(I116&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,1,2</v>
       </c>
       <c r="K116" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B117" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E117,TB_SET,2)," and HIV compartment ",VLOOKUP(G117,HIV_SET,2)," and gender compartment ",VLOOKUP(H117,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -5501,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f>CONCATENATE(C117, "_", E117, IF(E117&lt;&gt;"",",",""), F117, IF(F117&lt;&gt;"",",",""),  G117, IF(G117&lt;&gt;"",",",""),  H117, IF(I117&lt;&gt;"","(",""), I117, IF(I117&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,2,1</v>
       </c>
       <c r="K117" s="23">
@@ -5509,12 +5569,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E118,TB_SET,2)," and HIV compartment ",VLOOKUP(G118,HIV_SET,2)," and gender compartment ",VLOOKUP(H118,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -5533,20 +5593,20 @@
         <v>2</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f>CONCATENATE(C118, "_", E118, IF(E118&lt;&gt;"",",",""), F118, IF(F118&lt;&gt;"",",",""),  G118, IF(G118&lt;&gt;"",",",""),  H118, IF(I118&lt;&gt;"","(",""), I118, IF(I118&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,2,2</v>
       </c>
       <c r="K118" s="23">
-        <f t="shared" ref="K118:K122" si="0">K116*1.05</f>
+        <f t="shared" ref="K118:K122" si="9">K116*1.05</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B119" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E119,TB_SET,2)," and HIV compartment ",VLOOKUP(G119,HIV_SET,2)," and gender compartment ",VLOOKUP(H119,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -5565,20 +5625,20 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f>CONCATENATE(C119, "_", E119, IF(E119&lt;&gt;"",",",""), F119, IF(F119&lt;&gt;"",",",""),  G119, IF(G119&lt;&gt;"",",",""),  H119, IF(I119&lt;&gt;"","(",""), I119, IF(I119&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,3,1</v>
       </c>
       <c r="K119" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B120" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E120,TB_SET,2)," and HIV compartment ",VLOOKUP(G120,HIV_SET,2)," and gender compartment ",VLOOKUP(H120,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -5597,20 +5657,20 @@
         <v>2</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f>CONCATENATE(C120, "_", E120, IF(E120&lt;&gt;"",",",""), F120, IF(F120&lt;&gt;"",",",""),  G120, IF(G120&lt;&gt;"",",",""),  H120, IF(I120&lt;&gt;"","(",""), I120, IF(I120&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,3,2</v>
       </c>
       <c r="K120" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E121,TB_SET,2)," and HIV compartment ",VLOOKUP(G121,HIV_SET,2)," and gender compartment ",VLOOKUP(H121,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -5629,20 +5689,20 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f>CONCATENATE(C121, "_", E121, IF(E121&lt;&gt;"",",",""), F121, IF(F121&lt;&gt;"",",",""),  G121, IF(G121&lt;&gt;"",",",""),  H121, IF(I121&lt;&gt;"","(",""), I121, IF(I121&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,4,1</v>
       </c>
       <c r="K121" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B122" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E122,TB_SET,2)," and HIV compartment ",VLOOKUP(G122,HIV_SET,2)," and gender compartment ",VLOOKUP(H122,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -5661,20 +5721,20 @@
         <v>2</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f>CONCATENATE(C122, "_", E122, IF(E122&lt;&gt;"",",",""), F122, IF(F122&lt;&gt;"",",",""),  G122, IF(G122&lt;&gt;"",",",""),  H122, IF(I122&lt;&gt;"","(",""), I122, IF(I122&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,4,2</v>
       </c>
       <c r="K122" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B123" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E123,TB_SET,2)," and HIV compartment ",VLOOKUP(G123,HIV_SET,2)," and gender compartment ",VLOOKUP(H123,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -5693,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f>CONCATENATE(C123, "_", E123, IF(E123&lt;&gt;"",",",""), F123, IF(F123&lt;&gt;"",",",""),  G123, IF(G123&lt;&gt;"",",",""),  H123, IF(I123&lt;&gt;"","(",""), I123, IF(I123&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,1,1</v>
       </c>
       <c r="K123" s="23">
@@ -5701,12 +5761,12 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E124,TB_SET,2)," and HIV compartment ",VLOOKUP(G124,HIV_SET,2)," and gender compartment ",VLOOKUP(H124,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -5725,20 +5785,20 @@
         <v>2</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f>CONCATENATE(C124, "_", E124, IF(E124&lt;&gt;"",",",""), F124, IF(F124&lt;&gt;"",",",""),  G124, IF(G124&lt;&gt;"",",",""),  H124, IF(I124&lt;&gt;"","(",""), I124, IF(I124&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,1,2</v>
       </c>
       <c r="K124" s="23">
-        <f t="shared" ref="K124:K125" si="1">K116*1.1</f>
+        <f t="shared" ref="K124:K125" si="10">K116*1.1</f>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B125" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E125,TB_SET,2)," and HIV compartment ",VLOOKUP(G125,HIV_SET,2)," and gender compartment ",VLOOKUP(H125,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -5757,20 +5817,20 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f>CONCATENATE(C125, "_", E125, IF(E125&lt;&gt;"",",",""), F125, IF(F125&lt;&gt;"",",",""),  G125, IF(G125&lt;&gt;"",",",""),  H125, IF(I125&lt;&gt;"","(",""), I125, IF(I125&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,2,1</v>
       </c>
       <c r="K125" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
       <c r="B126" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E126,TB_SET,2)," and HIV compartment ",VLOOKUP(G126,HIV_SET,2)," and gender compartment ",VLOOKUP(H126,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -5789,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f>CONCATENATE(C126, "_", E126, IF(E126&lt;&gt;"",",",""), F126, IF(F126&lt;&gt;"",",",""),  G126, IF(G126&lt;&gt;"",",",""),  H126, IF(I126&lt;&gt;"","(",""), I126, IF(I126&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,2,2</v>
       </c>
       <c r="K126" s="23">
@@ -5797,12 +5857,12 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B127" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E127,TB_SET,2)," and HIV compartment ",VLOOKUP(G127,HIV_SET,2)," and gender compartment ",VLOOKUP(H127,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -5821,20 +5881,20 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f>CONCATENATE(C127, "_", E127, IF(E127&lt;&gt;"",",",""), F127, IF(F127&lt;&gt;"",",",""),  G127, IF(G127&lt;&gt;"",",",""),  H127, IF(I127&lt;&gt;"","(",""), I127, IF(I127&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,3,1</v>
       </c>
       <c r="K127" s="23">
-        <f t="shared" ref="K119:K178" si="2">K125*1.1</f>
+        <f t="shared" ref="K127:K154" si="11">K125*1.1</f>
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A128" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B128" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E128,TB_SET,2)," and HIV compartment ",VLOOKUP(G128,HIV_SET,2)," and gender compartment ",VLOOKUP(H128,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -5853,20 +5913,20 @@
         <v>2</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f>CONCATENATE(C128, "_", E128, IF(E128&lt;&gt;"",",",""), F128, IF(F128&lt;&gt;"",",",""),  G128, IF(G128&lt;&gt;"",",",""),  H128, IF(I128&lt;&gt;"","(",""), I128, IF(I128&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,3,2</v>
       </c>
       <c r="K128" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E129,TB_SET,2)," and HIV compartment ",VLOOKUP(G129,HIV_SET,2)," and gender compartment ",VLOOKUP(H129,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -5885,20 +5945,20 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f>CONCATENATE(C129, "_", E129, IF(E129&lt;&gt;"",",",""), F129, IF(F129&lt;&gt;"",",",""),  G129, IF(G129&lt;&gt;"",",",""),  H129, IF(I129&lt;&gt;"","(",""), I129, IF(I129&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,4,1</v>
       </c>
       <c r="K129" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E130,TB_SET,2)," and HIV compartment ",VLOOKUP(G130,HIV_SET,2)," and gender compartment ",VLOOKUP(H130,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -5917,20 +5977,20 @@
         <v>2</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f>CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J130:J161" si="12">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
         <v>mu_2,4,2</v>
       </c>
       <c r="K130" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E131,TB_SET,2)," and HIV compartment ",VLOOKUP(G131,HIV_SET,2)," and gender compartment ",VLOOKUP(H131,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -5949,19 +6009,19 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f>CONCATENATE(C131, "_", E131, IF(E131&lt;&gt;"",",",""), F131, IF(F131&lt;&gt;"",",",""),  G131, IF(G131&lt;&gt;"",",",""),  H131, IF(I131&lt;&gt;"","(",""), I131, IF(I131&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,1,1</v>
       </c>
       <c r="K131" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
       <c r="B132" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E132,TB_SET,2)," and HIV compartment ",VLOOKUP(G132,HIV_SET,2)," and gender compartment ",VLOOKUP(H132,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -5980,20 +6040,20 @@
         <v>2</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f>CONCATENATE(C132, "_", E132, IF(E132&lt;&gt;"",",",""), F132, IF(F132&lt;&gt;"",",",""),  G132, IF(G132&lt;&gt;"",",",""),  H132, IF(I132&lt;&gt;"","(",""), I132, IF(I132&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,1,2</v>
       </c>
       <c r="K132" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.0746100000000009E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B133" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E133,TB_SET,2)," and HIV compartment ",VLOOKUP(G133,HIV_SET,2)," and gender compartment ",VLOOKUP(H133,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -6012,20 +6072,20 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f>CONCATENATE(C133, "_", E133, IF(E133&lt;&gt;"",",",""), F133, IF(F133&lt;&gt;"",",",""),  G133, IF(G133&lt;&gt;"",",",""),  H133, IF(I133&lt;&gt;"","(",""), I133, IF(I133&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,2,1</v>
       </c>
       <c r="K133" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B134" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E134,TB_SET,2)," and HIV compartment ",VLOOKUP(G134,HIV_SET,2)," and gender compartment ",VLOOKUP(H134,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -6044,20 +6104,20 @@
         <v>2</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f>CONCATENATE(C134, "_", E134, IF(E134&lt;&gt;"",",",""), F134, IF(F134&lt;&gt;"",",",""),  G134, IF(G134&lt;&gt;"",",",""),  H134, IF(I134&lt;&gt;"","(",""), I134, IF(I134&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,2,2</v>
       </c>
       <c r="K134" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.3820710000000011E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
       <c r="B135" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E135,TB_SET,2)," and HIV compartment ",VLOOKUP(G135,HIV_SET,2)," and gender compartment ",VLOOKUP(H135,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -6076,20 +6136,20 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f>CONCATENATE(C135, "_", E135, IF(E135&lt;&gt;"",",",""), F135, IF(F135&lt;&gt;"",",",""),  G135, IF(G135&lt;&gt;"",",",""),  H135, IF(I135&lt;&gt;"","(",""), I135, IF(I135&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,3,1</v>
       </c>
       <c r="K135" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B136" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E136,TB_SET,2)," and HIV compartment ",VLOOKUP(G136,HIV_SET,2)," and gender compartment ",VLOOKUP(H136,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -6108,20 +6168,20 @@
         <v>2</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f>CONCATENATE(C136, "_", E136, IF(E136&lt;&gt;"",",",""), F136, IF(F136&lt;&gt;"",",",""),  G136, IF(G136&lt;&gt;"",",",""),  H136, IF(I136&lt;&gt;"","(",""), I136, IF(I136&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,3,2</v>
       </c>
       <c r="K136" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.7202781000000018E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B137" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E137,TB_SET,2)," and HIV compartment ",VLOOKUP(G137,HIV_SET,2)," and gender compartment ",VLOOKUP(H137,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -6140,20 +6200,20 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f>CONCATENATE(C137, "_", E137, IF(E137&lt;&gt;"",",",""), F137, IF(F137&lt;&gt;"",",",""),  G137, IF(G137&lt;&gt;"",",",""),  H137, IF(I137&lt;&gt;"","(",""), I137, IF(I137&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,4,1</v>
       </c>
       <c r="K137" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.6620000000000005E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B138" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E138,TB_SET,2)," and HIV compartment ",VLOOKUP(G138,HIV_SET,2)," and gender compartment ",VLOOKUP(H138,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -6172,20 +6232,20 @@
         <v>2</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f>CONCATENATE(C138, "_", E138, IF(E138&lt;&gt;"",",",""), F138, IF(F138&lt;&gt;"",",",""),  G138, IF(G138&lt;&gt;"",",",""),  H138, IF(I138&lt;&gt;"","(",""), I138, IF(I138&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,4,2</v>
       </c>
       <c r="K138" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
       <c r="B139" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E139,TB_SET,2)," and HIV compartment ",VLOOKUP(G139,HIV_SET,2)," and gender compartment ",VLOOKUP(H139,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -6204,20 +6264,20 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f>CONCATENATE(C139, "_", E139, IF(E139&lt;&gt;"",",",""), F139, IF(F139&lt;&gt;"",",",""),  G139, IF(G139&lt;&gt;"",",",""),  H139, IF(I139&lt;&gt;"","(",""), I139, IF(I139&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,1,1</v>
       </c>
       <c r="K139" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9282000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B140" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E140,TB_SET,2)," and HIV compartment ",VLOOKUP(G140,HIV_SET,2)," and gender compartment ",VLOOKUP(H140,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -6236,20 +6296,20 @@
         <v>2</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f>CONCATENATE(C140, "_", E140, IF(E140&lt;&gt;"",",",""), F140, IF(F140&lt;&gt;"",",",""),  G140, IF(G140&lt;&gt;"",",",""),  H140, IF(I140&lt;&gt;"","(",""), I140, IF(I140&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,1,2</v>
       </c>
       <c r="K140" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.5015365010000023E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B141" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E141,TB_SET,2)," and HIV compartment ",VLOOKUP(G141,HIV_SET,2)," and gender compartment ",VLOOKUP(H141,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -6268,20 +6328,20 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f>CONCATENATE(C141, "_", E141, IF(E141&lt;&gt;"",",",""), F141, IF(F141&lt;&gt;"",",",""),  G141, IF(G141&lt;&gt;"",",",""),  H141, IF(I141&lt;&gt;"","(",""), I141, IF(I141&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,2,1</v>
       </c>
       <c r="K141" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.2210200000000008E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
       <c r="B142" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E142,TB_SET,2)," and HIV compartment ",VLOOKUP(G142,HIV_SET,2)," and gender compartment ",VLOOKUP(H142,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -6300,20 +6360,20 @@
         <v>2</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f>CONCATENATE(C142, "_", E142, IF(E142&lt;&gt;"",",",""), F142, IF(F142&lt;&gt;"",",",""),  G142, IF(G142&lt;&gt;"",",",""),  H142, IF(I142&lt;&gt;"","(",""), I142, IF(I142&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,2,2</v>
       </c>
       <c r="K142" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.9516901511000029E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
       <c r="B143" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E143,TB_SET,2)," and HIV compartment ",VLOOKUP(G143,HIV_SET,2)," and gender compartment ",VLOOKUP(H143,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -6332,20 +6392,20 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f>CONCATENATE(C143, "_", E143, IF(E143&lt;&gt;"",",",""), F143, IF(F143&lt;&gt;"",",",""),  G143, IF(G143&lt;&gt;"",",",""),  H143, IF(I143&lt;&gt;"","(",""), I143, IF(I143&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,3,1</v>
       </c>
       <c r="K143" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.5431220000000013E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B144" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E144,TB_SET,2)," and HIV compartment ",VLOOKUP(G144,HIV_SET,2)," and gender compartment ",VLOOKUP(H144,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -6364,20 +6424,20 @@
         <v>2</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f>CONCATENATE(C144, "_", E144, IF(E144&lt;&gt;"",",",""), F144, IF(F144&lt;&gt;"",",",""),  G144, IF(G144&lt;&gt;"",",",""),  H144, IF(I144&lt;&gt;"","(",""), I144, IF(I144&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,3,2</v>
       </c>
       <c r="K144" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.4468591662100038E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
       <c r="B145" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E145,TB_SET,2)," and HIV compartment ",VLOOKUP(G145,HIV_SET,2)," and gender compartment ",VLOOKUP(H145,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -6396,20 +6456,20 @@
         <v>1</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f>CONCATENATE(C145, "_", E145, IF(E145&lt;&gt;"",",",""), F145, IF(F145&lt;&gt;"",",",""),  G145, IF(G145&lt;&gt;"",",",""),  H145, IF(I145&lt;&gt;"","(",""), I145, IF(I145&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,4,1</v>
       </c>
       <c r="K145" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.8974342000000016E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B146" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E146,TB_SET,2)," and HIV compartment ",VLOOKUP(G146,HIV_SET,2)," and gender compartment ",VLOOKUP(H146,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -6428,20 +6488,20 @@
         <v>2</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f>CONCATENATE(C146, "_", E146, IF(E146&lt;&gt;"",",",""), F146, IF(F146&lt;&gt;"",",",""),  G146, IF(G146&lt;&gt;"",",",""),  H146, IF(I146&lt;&gt;"","(",""), I146, IF(I146&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,4,2</v>
       </c>
       <c r="K146" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.9915450828310048E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B147" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
+        <f t="shared" ref="B147:B178" si="13">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -6460,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f>CONCATENATE(C147, "_", E147, IF(E147&lt;&gt;"",",",""), F147, IF(F147&lt;&gt;"",",",""),  G147, IF(G147&lt;&gt;"",",",""),  H147, IF(I147&lt;&gt;"","(",""), I147, IF(I147&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,1,1</v>
       </c>
       <c r="K147" s="23">
@@ -6468,12 +6528,12 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B148" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E148,TB_SET,2)," and HIV compartment ",VLOOKUP(G148,HIV_SET,2)," and gender compartment ",VLOOKUP(H148,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -6492,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f>CONCATENATE(C148, "_", E148, IF(E148&lt;&gt;"",",",""), F148, IF(F148&lt;&gt;"",",",""),  G148, IF(G148&lt;&gt;"",",",""),  H148, IF(I148&lt;&gt;"","(",""), I148, IF(I148&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,1,2</v>
       </c>
       <c r="K148" s="23">
@@ -6500,12 +6560,12 @@
         <v>6.2911223369725558E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B149" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E149,TB_SET,2)," and HIV compartment ",VLOOKUP(G149,HIV_SET,2)," and gender compartment ",VLOOKUP(H149,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -6524,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f>CONCATENATE(C149, "_", E149, IF(E149&lt;&gt;"",",",""), F149, IF(F149&lt;&gt;"",",",""),  G149, IF(G149&lt;&gt;"",",",""),  H149, IF(I149&lt;&gt;"","(",""), I149, IF(I149&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,2,1</v>
       </c>
       <c r="K149" s="23">
@@ -6532,12 +6592,12 @@
         <v>4.2969212055000025E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B150" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E150,TB_SET,2)," and HIV compartment ",VLOOKUP(G150,HIV_SET,2)," and gender compartment ",VLOOKUP(H150,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -6556,20 +6616,20 @@
         <v>2</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f>CONCATENATE(C150, "_", E150, IF(E150&lt;&gt;"",",",""), F150, IF(F150&lt;&gt;"",",",""),  G150, IF(G150&lt;&gt;"",",",""),  H150, IF(I150&lt;&gt;"","(",""), I150, IF(I150&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,2,2</v>
       </c>
       <c r="K150" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.9202345706698115E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B151" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E151,TB_SET,2)," and HIV compartment ",VLOOKUP(G151,HIV_SET,2)," and gender compartment ",VLOOKUP(H151,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -6588,20 +6648,20 @@
         <v>1</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f>CONCATENATE(C151, "_", E151, IF(E151&lt;&gt;"",",",""), F151, IF(F151&lt;&gt;"",",",""),  G151, IF(G151&lt;&gt;"",",",""),  H151, IF(I151&lt;&gt;"","(",""), I151, IF(I151&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,3,1</v>
       </c>
       <c r="K151" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.7266133260500033E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
       <c r="B152" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E152,TB_SET,2)," and HIV compartment ",VLOOKUP(G152,HIV_SET,2)," and gender compartment ",VLOOKUP(H152,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -6620,20 +6680,20 @@
         <v>2</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f>CONCATENATE(C152, "_", E152, IF(E152&lt;&gt;"",",",""), F152, IF(F152&lt;&gt;"",",",""),  G152, IF(G152&lt;&gt;"",",",""),  H152, IF(I152&lt;&gt;"","(",""), I152, IF(I152&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,3,2</v>
       </c>
       <c r="K152" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.6122580277367929E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B153" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E153,TB_SET,2)," and HIV compartment ",VLOOKUP(G153,HIV_SET,2)," and gender compartment ",VLOOKUP(H153,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -6652,20 +6712,20 @@
         <v>1</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f>CONCATENATE(C153, "_", E153, IF(E153&lt;&gt;"",",",""), F153, IF(F153&lt;&gt;"",",",""),  G153, IF(G153&lt;&gt;"",",",""),  H153, IF(I153&lt;&gt;"","(",""), I153, IF(I153&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,4,1</v>
       </c>
       <c r="K153" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.1992746586550044E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B154" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E154,TB_SET,2)," and HIV compartment ",VLOOKUP(G154,HIV_SET,2)," and gender compartment ",VLOOKUP(H154,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -6684,20 +6744,20 @@
         <v>2</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f>CONCATENATE(C154, "_", E154, IF(E154&lt;&gt;"",",",""), F154, IF(F154&lt;&gt;"",",",""),  G154, IF(G154&lt;&gt;"",",",""),  H154, IF(I154&lt;&gt;"","(",""), I154, IF(I154&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,4,2</v>
       </c>
       <c r="K154" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.3734838305104725E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B155" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E155,TB_SET,2)," and HIV compartment ",VLOOKUP(G155,HIV_SET,2)," and gender compartment ",VLOOKUP(H155,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -6716,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f>CONCATENATE(C155, "_", E155, IF(E155&lt;&gt;"",",",""), F155, IF(F155&lt;&gt;"",",",""),  G155, IF(G155&lt;&gt;"",",",""),  H155, IF(I155&lt;&gt;"","(",""), I155, IF(I155&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,1,1</v>
       </c>
       <c r="K155" s="23">
@@ -6724,12 +6784,12 @@
         <v>6.7590570562515065E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B156" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E156,TB_SET,2)," and HIV compartment ",VLOOKUP(G156,HIV_SET,2)," and gender compartment ",VLOOKUP(H156,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -6748,20 +6808,20 @@
         <v>2</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f>CONCATENATE(C156, "_", E156, IF(E156&lt;&gt;"",",",""), F156, IF(F156&lt;&gt;"",",",""),  G156, IF(G156&lt;&gt;"",",",""),  H156, IF(I156&lt;&gt;"","(",""), I156, IF(I156&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,1,2</v>
       </c>
       <c r="K156" s="23">
-        <f t="shared" ref="K156:K162" si="3">K154*1.3</f>
+        <f t="shared" ref="K156:K162" si="14">K154*1.3</f>
         <v>0.10885528979663614</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B157" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E157,TB_SET,2)," and HIV compartment ",VLOOKUP(G157,HIV_SET,2)," and gender compartment ",VLOOKUP(H157,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -6780,20 +6840,20 @@
         <v>1</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f>CONCATENATE(C157, "_", E157, IF(E157&lt;&gt;"",",",""), F157, IF(F157&lt;&gt;"",",",""),  G157, IF(G157&lt;&gt;"",",",""),  H157, IF(I157&lt;&gt;"","(",""), I157, IF(I157&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,2,1</v>
       </c>
       <c r="K157" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.7867741731269586E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
       <c r="B158" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E158,TB_SET,2)," and HIV compartment ",VLOOKUP(G158,HIV_SET,2)," and gender compartment ",VLOOKUP(H158,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -6812,20 +6872,20 @@
         <v>2</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f>CONCATENATE(C158, "_", E158, IF(E158&lt;&gt;"",",",""), F158, IF(F158&lt;&gt;"",",",""),  G158, IF(G158&lt;&gt;"",",",""),  H158, IF(I158&lt;&gt;"","(",""), I158, IF(I158&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,2,2</v>
       </c>
       <c r="K158" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.14151187673562698</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B159" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E159,TB_SET,2)," and HIV compartment ",VLOOKUP(G159,HIV_SET,2)," and gender compartment ",VLOOKUP(H159,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -6844,20 +6904,20 @@
         <v>1</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f>CONCATENATE(C159, "_", E159, IF(E159&lt;&gt;"",",",""), F159, IF(F159&lt;&gt;"",",",""),  G159, IF(G159&lt;&gt;"",",",""),  H159, IF(I159&lt;&gt;"","(",""), I159, IF(I159&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,3,1</v>
       </c>
       <c r="K159" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.11422806425065046</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B160" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -6876,20 +6936,20 @@
         <v>2</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f>CONCATENATE(C160, "_", E160, IF(E160&lt;&gt;"",",",""), F160, IF(F160&lt;&gt;"",",",""),  G160, IF(G160&lt;&gt;"",",",""),  H160, IF(I160&lt;&gt;"","(",""), I160, IF(I160&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,3,2</v>
       </c>
       <c r="K160" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.18396543975631507</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E161,TB_SET,2)," and HIV compartment ",VLOOKUP(G161,HIV_SET,2)," and gender compartment ",VLOOKUP(H161,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -6908,20 +6968,20 @@
         <v>1</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f>CONCATENATE(C161, "_", E161, IF(E161&lt;&gt;"",",",""), F161, IF(F161&lt;&gt;"",",",""),  G161, IF(G161&lt;&gt;"",",",""),  H161, IF(I161&lt;&gt;"","(",""), I161, IF(I161&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,4,1</v>
       </c>
       <c r="K161" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.1484964835258456</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B162" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E162,TB_SET,2)," and HIV compartment ",VLOOKUP(G162,HIV_SET,2)," and gender compartment ",VLOOKUP(H162,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -6940,20 +7000,20 @@
         <v>2</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f>CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J162:J193" si="15">CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
         <v>mu_6,4,2</v>
       </c>
       <c r="K162" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.2391550716832096</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B163" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E163,TB_SET,2)," and HIV compartment ",VLOOKUP(G163,HIV_SET,2)," and gender compartment ",VLOOKUP(H163,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -6972,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f>CONCATENATE(C163, "_", E163, IF(E163&lt;&gt;"",",",""), F163, IF(F163&lt;&gt;"",",",""),  G163, IF(G163&lt;&gt;"",",",""),  H163, IF(I163&lt;&gt;"","(",""), I163, IF(I163&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,1,1</v>
       </c>
       <c r="K163" s="23">
@@ -6980,12 +7040,12 @@
         <v>0.11879718682067648</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
       <c r="B164" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E164,TB_SET,2)," and HIV compartment ",VLOOKUP(G164,HIV_SET,2)," and gender compartment ",VLOOKUP(H164,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -7004,20 +7064,20 @@
         <v>2</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f>CONCATENATE(C164, "_", E164, IF(E164&lt;&gt;"",",",""), F164, IF(F164&lt;&gt;"",",",""),  G164, IF(G164&lt;&gt;"",",",""),  H164, IF(I164&lt;&gt;"","(",""), I164, IF(I164&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,1,2</v>
       </c>
       <c r="K164" s="23">
-        <f t="shared" ref="K164:K170" si="4">K162*0.8</f>
+        <f t="shared" ref="K164:K170" si="16">K162*0.8</f>
         <v>0.19132405734656768</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
       <c r="B165" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E165,TB_SET,2)," and HIV compartment ",VLOOKUP(G165,HIV_SET,2)," and gender compartment ",VLOOKUP(H165,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -7036,20 +7096,20 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f>CONCATENATE(C165, "_", E165, IF(E165&lt;&gt;"",",",""), F165, IF(F165&lt;&gt;"",",",""),  G165, IF(G165&lt;&gt;"",",",""),  H165, IF(I165&lt;&gt;"","(",""), I165, IF(I165&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,2,1</v>
       </c>
       <c r="K165" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9.5037749456541198E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B166" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E166,TB_SET,2)," and HIV compartment ",VLOOKUP(G166,HIV_SET,2)," and gender compartment ",VLOOKUP(H166,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -7068,20 +7128,20 @@
         <v>2</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f>CONCATENATE(C166, "_", E166, IF(E166&lt;&gt;"",",",""), F166, IF(F166&lt;&gt;"",",",""),  G166, IF(G166&lt;&gt;"",",",""),  H166, IF(I166&lt;&gt;"","(",""), I166, IF(I166&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,2,2</v>
       </c>
       <c r="K166" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.15305924587725417</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
       <c r="B167" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E167,TB_SET,2)," and HIV compartment ",VLOOKUP(G167,HIV_SET,2)," and gender compartment ",VLOOKUP(H167,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -7100,20 +7160,20 @@
         <v>1</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f>CONCATENATE(C167, "_", E167, IF(E167&lt;&gt;"",",",""), F167, IF(F167&lt;&gt;"",",",""),  G167, IF(G167&lt;&gt;"",",",""),  H167, IF(I167&lt;&gt;"","(",""), I167, IF(I167&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,3,1</v>
       </c>
       <c r="K167" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7.6030199565232964E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B168" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E168,TB_SET,2)," and HIV compartment ",VLOOKUP(G168,HIV_SET,2)," and gender compartment ",VLOOKUP(H168,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -7132,20 +7192,20 @@
         <v>2</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f>CONCATENATE(C168, "_", E168, IF(E168&lt;&gt;"",",",""), F168, IF(F168&lt;&gt;"",",",""),  G168, IF(G168&lt;&gt;"",",",""),  H168, IF(I168&lt;&gt;"","(",""), I168, IF(I168&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,3,2</v>
       </c>
       <c r="K168" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.12244739670180334</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
       <c r="B169" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E169,TB_SET,2)," and HIV compartment ",VLOOKUP(G169,HIV_SET,2)," and gender compartment ",VLOOKUP(H169,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -7164,20 +7224,20 @@
         <v>1</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f>CONCATENATE(C169, "_", E169, IF(E169&lt;&gt;"",",",""), F169, IF(F169&lt;&gt;"",",",""),  G169, IF(G169&lt;&gt;"",",",""),  H169, IF(I169&lt;&gt;"","(",""), I169, IF(I169&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,4,1</v>
       </c>
       <c r="K169" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6.0824159652186377E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E170,TB_SET,2)," and HIV compartment ",VLOOKUP(G170,HIV_SET,2)," and gender compartment ",VLOOKUP(H170,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -7196,20 +7256,20 @@
         <v>2</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f>CONCATENATE(C170, "_", E170, IF(E170&lt;&gt;"",",",""), F170, IF(F170&lt;&gt;"",",",""),  G170, IF(G170&lt;&gt;"",",",""),  H170, IF(I170&lt;&gt;"","(",""), I170, IF(I170&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,4,2</v>
       </c>
       <c r="K170" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9.7957917361442673E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E171,TB_SET,2)," and HIV compartment ",VLOOKUP(G171,HIV_SET,2)," and gender compartment ",VLOOKUP(H171,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -7228,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f>CONCATENATE(C171, "_", E171, IF(E171&lt;&gt;"",",",""), F171, IF(F171&lt;&gt;"",",",""),  G171, IF(G171&lt;&gt;"",",",""),  H171, IF(I171&lt;&gt;"","(",""), I171, IF(I171&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,1,1</v>
       </c>
       <c r="K171" s="23">
@@ -7236,12 +7296,12 @@
         <v>4.2576911756530458E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E172,TB_SET,2)," and HIV compartment ",VLOOKUP(G172,HIV_SET,2)," and gender compartment ",VLOOKUP(H172,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -7260,20 +7320,20 @@
         <v>2</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f>CONCATENATE(C172, "_", E172, IF(E172&lt;&gt;"",",",""), F172, IF(F172&lt;&gt;"",",",""),  G172, IF(G172&lt;&gt;"",",",""),  H172, IF(I172&lt;&gt;"","(",""), I172, IF(I172&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,1,2</v>
       </c>
       <c r="K172" s="23">
-        <f t="shared" ref="K172:K178" si="5">K170*0.7</f>
+        <f t="shared" ref="K172:K178" si="17">K170*0.7</f>
         <v>6.8570542153009867E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E173,TB_SET,2)," and HIV compartment ",VLOOKUP(G173,HIV_SET,2)," and gender compartment ",VLOOKUP(H173,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -7292,20 +7352,20 @@
         <v>1</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f>CONCATENATE(C173, "_", E173, IF(E173&lt;&gt;"",",",""), F173, IF(F173&lt;&gt;"",",",""),  G173, IF(G173&lt;&gt;"",",",""),  H173, IF(I173&lt;&gt;"","(",""), I173, IF(I173&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,2,1</v>
       </c>
       <c r="K173" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9803838229571319E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E174,TB_SET,2)," and HIV compartment ",VLOOKUP(G174,HIV_SET,2)," and gender compartment ",VLOOKUP(H174,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -7324,20 +7384,20 @@
         <v>2</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f>CONCATENATE(C174, "_", E174, IF(E174&lt;&gt;"",",",""), F174, IF(F174&lt;&gt;"",",",""),  G174, IF(G174&lt;&gt;"",",",""),  H174, IF(I174&lt;&gt;"","(",""), I174, IF(I174&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,2,2</v>
       </c>
       <c r="K174" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.7999379507106907E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E175,TB_SET,2)," and HIV compartment ",VLOOKUP(G175,HIV_SET,2)," and gender compartment ",VLOOKUP(H175,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -7356,20 +7416,20 @@
         <v>1</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f>CONCATENATE(C175, "_", E175, IF(E175&lt;&gt;"",",",""), F175, IF(F175&lt;&gt;"",",",""),  G175, IF(G175&lt;&gt;"",",",""),  H175, IF(I175&lt;&gt;"","(",""), I175, IF(I175&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,3,1</v>
       </c>
       <c r="K175" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0862686760699922E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E176,TB_SET,2)," and HIV compartment ",VLOOKUP(G176,HIV_SET,2)," and gender compartment ",VLOOKUP(H176,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -7388,20 +7448,20 @@
         <v>2</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f>CONCATENATE(C176, "_", E176, IF(E176&lt;&gt;"",",",""), F176, IF(F176&lt;&gt;"",",",""),  G176, IF(G176&lt;&gt;"",",",""),  H176, IF(I176&lt;&gt;"","(",""), I176, IF(I176&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,3,2</v>
       </c>
       <c r="K176" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.3599565654974829E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E177,TB_SET,2)," and HIV compartment ",VLOOKUP(G177,HIV_SET,2)," and gender compartment ",VLOOKUP(H177,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -7420,20 +7480,20 @@
         <v>1</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f>CONCATENATE(C177, "_", E177, IF(E177&lt;&gt;"",",",""), F177, IF(F177&lt;&gt;"",",",""),  G177, IF(G177&lt;&gt;"",",",""),  H177, IF(I177&lt;&gt;"","(",""), I177, IF(I177&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,4,1</v>
       </c>
       <c r="K177" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4603880732489943E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E178,TB_SET,2)," and HIV compartment ",VLOOKUP(G178,HIV_SET,2)," and gender compartment ",VLOOKUP(H178,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -7452,20 +7512,20 @@
         <v>2</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f>CONCATENATE(C178, "_", E178, IF(E178&lt;&gt;"",",",""), F178, IF(F178&lt;&gt;"",",",""),  G178, IF(G178&lt;&gt;"",",",""),  H178, IF(I178&lt;&gt;"","(",""), I178, IF(I178&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,4,2</v>
       </c>
       <c r="K178" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.351969595848238E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B179:B194" si="18">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -7484,19 +7544,19 @@
         <v>1</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f>CONCATENATE(C179, "_", E179, IF(E179&lt;&gt;"",",",""), F179, IF(F179&lt;&gt;"",",",""),  G179, IF(G179&lt;&gt;"",",",""),  H179, IF(I179&lt;&gt;"","(",""), I179, IF(I179&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,1,1</v>
       </c>
       <c r="K179" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G180, HIV_SET, 2), " and gender compartment ", VLOOKUP(H180, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -7515,19 +7575,19 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f>CONCATENATE(C180, "_", E180, IF(E180&lt;&gt;"",",",""), F180, IF(F180&lt;&gt;"",",",""),  G180, IF(G180&lt;&gt;"",",",""),  H180, IF(I180&lt;&gt;"","(",""), I180, IF(I180&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,1,1</v>
       </c>
       <c r="K180" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G181, HIV_SET, 2), " and gender compartment ", VLOOKUP(H181, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -7546,19 +7606,19 @@
         <v>1</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f>CONCATENATE(C181, "_", E181, IF(E181&lt;&gt;"",",",""), F181, IF(F181&lt;&gt;"",",",""),  G181, IF(G181&lt;&gt;"",",",""),  H181, IF(I181&lt;&gt;"","(",""), I181, IF(I181&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,1,1</v>
       </c>
       <c r="K181" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G182, HIV_SET, 2), " and gender compartment ", VLOOKUP(H182, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -7577,19 +7637,19 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f>CONCATENATE(C182, "_", E182, IF(E182&lt;&gt;"",",",""), F182, IF(F182&lt;&gt;"",",",""),  G182, IF(G182&lt;&gt;"",",",""),  H182, IF(I182&lt;&gt;"","(",""), I182, IF(I182&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_5,1,1</v>
       </c>
       <c r="K182" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G183, HIV_SET, 2), " and gender compartment ", VLOOKUP(H183, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -7608,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f>CONCATENATE(C183, "_", E183, IF(E183&lt;&gt;"",",",""), F183, IF(F183&lt;&gt;"",",",""),  G183, IF(G183&lt;&gt;"",",",""),  H183, IF(I183&lt;&gt;"","(",""), I183, IF(I183&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,2,1</v>
       </c>
       <c r="K183" s="23">
@@ -7616,12 +7676,12 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G184, HIV_SET, 2), " and gender compartment ", VLOOKUP(H184, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -7640,20 +7700,20 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f>CONCATENATE(C184, "_", E184, IF(E184&lt;&gt;"",",",""), F184, IF(F184&lt;&gt;"",",",""),  G184, IF(G184&lt;&gt;"",",",""),  H184, IF(I184&lt;&gt;"","(",""), I184, IF(I184&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,2,1</v>
       </c>
       <c r="K184" s="23">
-        <f t="shared" ref="K184:K186" si="6">K180*0.01</f>
+        <f t="shared" ref="K184:K186" si="19">K180*0.01</f>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G185, HIV_SET, 2), " and gender compartment ", VLOOKUP(H185, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -7672,20 +7732,20 @@
         <v>1</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f>CONCATENATE(C185, "_", E185, IF(E185&lt;&gt;"",",",""), F185, IF(F185&lt;&gt;"",",",""),  G185, IF(G185&lt;&gt;"",",",""),  H185, IF(I185&lt;&gt;"","(",""), I185, IF(I185&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,2,1</v>
       </c>
       <c r="K185" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G186, HIV_SET, 2), " and gender compartment ", VLOOKUP(H186, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -7704,20 +7764,20 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f>CONCATENATE(C186, "_", E186, IF(E186&lt;&gt;"",",",""), F186, IF(F186&lt;&gt;"",",",""),  G186, IF(G186&lt;&gt;"",",",""),  H186, IF(I186&lt;&gt;"","(",""), I186, IF(I186&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_5,2,1</v>
       </c>
       <c r="K186" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G187, HIV_SET, 2), " and gender compartment ", VLOOKUP(H187, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -7736,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f>CONCATENATE(C187, "_", E187, IF(E187&lt;&gt;"",",",""), F187, IF(F187&lt;&gt;"",",",""),  G187, IF(G187&lt;&gt;"",",",""),  H187, IF(I187&lt;&gt;"","(",""), I187, IF(I187&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,1,2</v>
       </c>
       <c r="K187" s="23">
@@ -7744,12 +7804,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G188, HIV_SET, 2), " and gender compartment ", VLOOKUP(H188, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -7768,20 +7828,20 @@
         <v>2</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f>CONCATENATE(C188, "_", E188, IF(E188&lt;&gt;"",",",""), F188, IF(F188&lt;&gt;"",",",""),  G188, IF(G188&lt;&gt;"",",",""),  H188, IF(I188&lt;&gt;"","(",""), I188, IF(I188&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,1,2</v>
       </c>
       <c r="K188" s="23">
-        <f t="shared" ref="K188:K194" si="7">K180*0.95</f>
+        <f t="shared" ref="K188:K194" si="20">K180*0.95</f>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G189, HIV_SET, 2), " and gender compartment ", VLOOKUP(H189, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -7800,20 +7860,20 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f>CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,1,2</v>
       </c>
       <c r="K189" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G190, HIV_SET, 2), " and gender compartment ", VLOOKUP(H190, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -7832,20 +7892,20 @@
         <v>2</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f>CONCATENATE(C190, "_", E190, IF(E190&lt;&gt;"",",",""), F190, IF(F190&lt;&gt;"",",",""),  G190, IF(G190&lt;&gt;"",",",""),  H190, IF(I190&lt;&gt;"","(",""), I190, IF(I190&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_5,1,2</v>
       </c>
       <c r="K190" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G191, HIV_SET, 2), " and gender compartment ", VLOOKUP(H191, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -7864,20 +7924,20 @@
         <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f>CONCATENATE(C191, "_", E191, IF(E191&lt;&gt;"",",",""), F191, IF(F191&lt;&gt;"",",",""),  G191, IF(G191&lt;&gt;"",",",""),  H191, IF(I191&lt;&gt;"","(",""), I191, IF(I191&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,2,2</v>
       </c>
       <c r="K191" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G192, HIV_SET, 2), " and gender compartment ", VLOOKUP(H192, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -7896,20 +7956,20 @@
         <v>2</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f>CONCATENATE(C192, "_", E192, IF(E192&lt;&gt;"",",",""), F192, IF(F192&lt;&gt;"",",",""),  G192, IF(G192&lt;&gt;"",",",""),  H192, IF(I192&lt;&gt;"","(",""), I192, IF(I192&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,2,2</v>
       </c>
       <c r="K192" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G193, HIV_SET, 2), " and gender compartment ", VLOOKUP(H193, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -7928,20 +7988,20 @@
         <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f>CONCATENATE(C193, "_", E193, IF(E193&lt;&gt;"",",",""), F193, IF(F193&lt;&gt;"",",",""),  G193, IF(G193&lt;&gt;"",",",""),  H193, IF(I193&lt;&gt;"","(",""), I193, IF(I193&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,2,2</v>
       </c>
       <c r="K193" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G194, HIV_SET, 2), " and gender compartment ", VLOOKUP(H194, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -7960,16 +8020,16 @@
         <v>2</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f>CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J194:J225" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
         <v>rho_5,2,2</v>
       </c>
       <c r="K194" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.7500000000000003E-5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O194">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7986,21 +8046,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.1328125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="20.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8038,7 +8098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8070,7 +8130,7 @@
         <v>32693.093583980408</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8102,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8135,7 +8195,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8167,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8200,7 +8260,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8233,7 +8293,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8266,7 +8326,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8299,7 +8359,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8332,7 +8392,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8365,7 +8425,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8398,7 +8458,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8431,7 +8491,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8464,7 +8524,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8497,7 +8557,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8530,7 +8590,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8563,7 +8623,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8596,7 +8656,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8628,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8661,7 +8721,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -8693,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8726,7 +8786,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8759,7 +8819,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8792,7 +8852,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8825,7 +8885,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8858,7 +8918,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8891,7 +8951,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8924,7 +8984,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8957,7 +9017,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8990,7 +9050,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9023,7 +9083,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9056,7 +9116,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9089,7 +9149,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9122,7 +9182,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -9154,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9187,7 +9247,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -9219,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9252,7 +9312,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9285,7 +9345,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9318,7 +9378,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9351,7 +9411,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9384,7 +9444,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9417,7 +9477,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9450,7 +9510,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9483,7 +9543,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9516,7 +9576,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9549,7 +9609,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9582,7 +9642,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9615,7 +9675,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9648,7 +9708,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -9680,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9713,7 +9773,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -9745,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9778,7 +9838,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9811,7 +9871,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9844,7 +9904,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9877,7 +9937,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9910,7 +9970,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9943,7 +10003,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9976,7 +10036,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10009,7 +10069,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10042,7 +10102,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10075,7 +10135,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10108,7 +10168,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10141,7 +10201,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10174,7 +10234,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -10206,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10239,7 +10299,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10271,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10304,7 +10364,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10337,7 +10397,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10370,7 +10430,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10403,7 +10463,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10436,7 +10496,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10469,7 +10529,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10502,7 +10562,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10535,7 +10595,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10568,7 +10628,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10601,7 +10661,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10634,7 +10694,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10667,7 +10727,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10700,7 +10760,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10732,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10765,7 +10825,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10797,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10830,7 +10890,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10863,7 +10923,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10896,7 +10956,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10929,7 +10989,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10962,7 +11022,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10995,7 +11055,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11028,7 +11088,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11061,7 +11121,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11094,7 +11154,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11127,7 +11187,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11160,7 +11220,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11193,7 +11253,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11226,7 +11286,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -11258,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11291,7 +11351,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11323,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11356,7 +11416,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11389,7 +11449,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11422,7 +11482,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11455,7 +11515,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11488,7 +11548,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11521,7 +11581,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11554,7 +11614,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11587,7 +11647,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11620,7 +11680,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11653,7 +11713,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11686,7 +11746,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11719,7 +11779,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11752,7 +11812,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11784,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11817,7 +11877,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11849,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11882,7 +11942,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11915,7 +11975,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11948,7 +12008,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11981,7 +12041,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12014,7 +12074,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12047,7 +12107,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12080,7 +12140,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12113,7 +12173,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12146,7 +12206,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12179,7 +12239,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12212,7 +12272,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12245,264 +12305,264 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12511,28 +12571,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12558,7 +12618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -12569,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -12580,7 +12640,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -12591,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -12602,7 +12662,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -12613,7 +12673,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -12624,7 +12684,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -12635,7 +12695,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
@@ -12646,7 +12706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -12654,7 +12714,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>278</v>
       </c>
@@ -12662,7 +12722,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="25" t="s">
         <v>279</v>
       </c>
@@ -12670,7 +12730,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="25" t="s">
         <v>280</v>
       </c>
@@ -12678,7 +12738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="27" t="s">
         <v>282</v>
       </c>
@@ -12686,223 +12746,294 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A29" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A30" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A31" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A34" s="18"/>
     </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="18"/>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="18"/>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="18"/>
     </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A42" s="18"/>
     </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" s="18"/>
     </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A44" s="18"/>
     </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A46" s="18"/>
     </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="18"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A89" s="18"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A91" s="18"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A93" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12918,14 +13049,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12933,7 +13064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12941,7 +13072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12949,7 +13080,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12957,7 +13088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12965,7 +13096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12973,7 +13104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12981,7 +13112,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12989,12 +13120,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13002,7 +13133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -13010,12 +13141,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13023,7 +13154,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13031,7 +13162,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -13039,7 +13170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13047,12 +13178,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -13060,7 +13191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13068,12 +13199,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13081,7 +13212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13089,7 +13220,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA3BDD-34C1-F247-B931-BFF032FF2112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E5EC3-5704-AF44-A963-6F257CEC4171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,24 +1448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="69.33203125" style="11" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" customWidth="1"/>
+    <col min="6" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
@@ -1522,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="9" t="str">
-        <f>CONCATENATE(C2, "_", E2, IF(E2&lt;&gt;"",",",""), F2, IF(F2&lt;&gt;"",",",""),  G2, IF(G2&lt;&gt;"",",",""),  H2, IF(I2&lt;&gt;"","(",""), I2, IF(I2&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J2:J33" si="0">CONCATENATE(C2, "_", E2, IF(E2&lt;&gt;"",",",""), F2, IF(F2&lt;&gt;"",",",""),  G2, IF(G2&lt;&gt;"",",",""),  H2, IF(I2&lt;&gt;"","(",""), I2, IF(I2&lt;&gt;"",")",""))</f>
         <v>beta_1</v>
       </c>
       <c r="K2" s="9">
@@ -1550,7 +1551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f>CONCATENATE(C3, "_", E3, IF(E3&lt;&gt;"",",",""), F3, IF(F3&lt;&gt;"",",",""),  G3, IF(G3&lt;&gt;"",",",""),  H3, IF(I3&lt;&gt;"","(",""), I3, IF(I3&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>beta_2</v>
       </c>
       <c r="K3" s="9">
@@ -1578,7 +1579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f>CONCATENATE(C4, "_", E4, IF(E4&lt;&gt;"",",",""), F4, IF(F4&lt;&gt;"",",",""),  G4, IF(G4&lt;&gt;"",",",""),  H4, IF(I4&lt;&gt;"","(",""), I4, IF(I4&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>varepsilon_1</v>
       </c>
       <c r="K4" s="9">
@@ -1606,7 +1607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f>CONCATENATE(C5, "_", E5, IF(E5&lt;&gt;"",",",""), F5, IF(F5&lt;&gt;"",",",""),  G5, IF(G5&lt;&gt;"",",",""),  H5, IF(I5&lt;&gt;"","(",""), I5, IF(I5&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>varepsilon_2</v>
       </c>
       <c r="K5" s="9">
@@ -1634,7 +1635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f>CONCATENATE(C6, "_", E6, IF(E6&lt;&gt;"",",",""), F6, IF(F6&lt;&gt;"",",",""),  G6, IF(G6&lt;&gt;"",",",""),  H6, IF(I6&lt;&gt;"","(",""), I6, IF(I6&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>iota_1,</v>
       </c>
       <c r="K6" s="9">
@@ -1662,7 +1663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f>CONCATENATE(C7, "_", E7, IF(E7&lt;&gt;"",",",""), F7, IF(F7&lt;&gt;"",",",""),  G7, IF(G7&lt;&gt;"",",",""),  H7, IF(I7&lt;&gt;"","(",""), I7, IF(I7&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>iota_2,</v>
       </c>
       <c r="K7" s="9">
@@ -1690,7 +1691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f>CONCATENATE(C8, "_", E8, IF(E8&lt;&gt;"",",",""), F8, IF(F8&lt;&gt;"",",",""),  G8, IF(G8&lt;&gt;"",",",""),  H8, IF(I8&lt;&gt;"","(",""), I8, IF(I8&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_1,</v>
       </c>
       <c r="K8" s="9">
@@ -1721,7 +1722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f>CONCATENATE(C9, "_", E9, IF(E9&lt;&gt;"",",",""), F9, IF(F9&lt;&gt;"",",",""),  G9, IF(G9&lt;&gt;"",",",""),  H9, IF(I9&lt;&gt;"","(",""), I9, IF(I9&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_2,</v>
       </c>
       <c r="K9" s="9">
@@ -1753,7 +1754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f>CONCATENATE(C10, "_", E10, IF(E10&lt;&gt;"",",",""), F10, IF(F10&lt;&gt;"",",",""),  G10, IF(G10&lt;&gt;"",",",""),  H10, IF(I10&lt;&gt;"","(",""), I10, IF(I10&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_3,</v>
       </c>
       <c r="K10" s="9">
@@ -1785,7 +1786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f>CONCATENATE(C11, "_", E11, IF(E11&lt;&gt;"",",",""), F11, IF(F11&lt;&gt;"",",",""),  G11, IF(G11&lt;&gt;"",",",""),  H11, IF(I11&lt;&gt;"","(",""), I11, IF(I11&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>phi_4,</v>
       </c>
       <c r="K11" s="9">
@@ -1817,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="J12" s="9" t="str">
-        <f>CONCATENATE(C12, "_", E12, IF(E12&lt;&gt;"",",",""), F12, IF(F12&lt;&gt;"",",",""),  G12, IF(G12&lt;&gt;"",",",""),  H12, IF(I12&lt;&gt;"","(",""), I12, IF(I12&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>upsilon_</v>
       </c>
       <c r="K12" s="9">
@@ -1845,7 +1846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1860,19 +1861,19 @@
       </c>
       <c r="E13" s="8"/>
       <c r="J13" s="9" t="str">
-        <f>CONCATENATE(C13, "_", E13, IF(E13&lt;&gt;"",",",""), F13, IF(F13&lt;&gt;"",",",""),  G13, IF(G13&lt;&gt;"",",",""),  H13, IF(I13&lt;&gt;"","(",""), I13, IF(I13&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>zeta_</v>
       </c>
       <c r="K13" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E14,TB_SET,2)," and HIV compartment ",VLOOKUP(G14,HIV_SET,2)," for gender ",VLOOKUP(H14,G_SET,2), " under policy ", VLOOKUP(I14, P_SET,2))</f>
+        <f t="shared" ref="B14:B45" si="1">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E14,TB_SET,2)," and HIV compartment ",VLOOKUP(G14,HIV_SET,2)," for gender ",VLOOKUP(H14,G_SET,2), " under policy ", VLOOKUP(I14, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1894,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f>CONCATENATE(C14, "_", E14, IF(E14&lt;&gt;"",",",""), F14, IF(F14&lt;&gt;"",",",""),  G14, IF(G14&lt;&gt;"",",",""),  H14, IF(I14&lt;&gt;"","(",""), I14, IF(I14&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,1,1(3)</v>
       </c>
       <c r="K14" s="30">
@@ -1904,12 +1905,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E15,TB_SET,2)," and HIV compartment ",VLOOKUP(G15,HIV_SET,2)," for gender ",VLOOKUP(H15,G_SET,2), " under policy ", VLOOKUP(I15, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1931,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f>CONCATENATE(C15, "_", E15, IF(E15&lt;&gt;"",",",""), F15, IF(F15&lt;&gt;"",",",""),  G15, IF(G15&lt;&gt;"",",",""),  H15, IF(I15&lt;&gt;"","(",""), I15, IF(I15&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,1,2(3)</v>
       </c>
       <c r="K15" s="30">
@@ -1941,12 +1942,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E16,TB_SET,2)," and HIV compartment ",VLOOKUP(G16,HIV_SET,2)," for gender ",VLOOKUP(H16,G_SET,2), " under policy ", VLOOKUP(I16, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1968,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f>CONCATENATE(C16, "_", E16, IF(E16&lt;&gt;"",",",""), F16, IF(F16&lt;&gt;"",",",""),  G16, IF(G16&lt;&gt;"",",",""),  H16, IF(I16&lt;&gt;"","(",""), I16, IF(I16&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,2,1(3)</v>
       </c>
       <c r="K16" s="9">
@@ -1981,12 +1982,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E17,TB_SET,2)," and HIV compartment ",VLOOKUP(G17,HIV_SET,2)," for gender ",VLOOKUP(H17,G_SET,2), " under policy ", VLOOKUP(I17, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2008,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f>CONCATENATE(C17, "_", E17, IF(E17&lt;&gt;"",",",""), F17, IF(F17&lt;&gt;"",",",""),  G17, IF(G17&lt;&gt;"",",",""),  H17, IF(I17&lt;&gt;"","(",""), I17, IF(I17&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,2,2(3)</v>
       </c>
       <c r="K17" s="9">
@@ -2021,12 +2022,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E18,TB_SET,2)," and HIV compartment ",VLOOKUP(G18,HIV_SET,2)," for gender ",VLOOKUP(H18,G_SET,2), " under policy ", VLOOKUP(I18, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2048,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f>CONCATENATE(C18, "_", E18, IF(E18&lt;&gt;"",",",""), F18, IF(F18&lt;&gt;"",",",""),  G18, IF(G18&lt;&gt;"",",",""),  H18, IF(I18&lt;&gt;"","(",""), I18, IF(I18&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,3,1(3)</v>
       </c>
       <c r="K18" s="9">
@@ -2061,12 +2062,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E19,TB_SET,2)," and HIV compartment ",VLOOKUP(G19,HIV_SET,2)," for gender ",VLOOKUP(H19,G_SET,2), " under policy ", VLOOKUP(I19, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2088,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f>CONCATENATE(C19, "_", E19, IF(E19&lt;&gt;"",",",""), F19, IF(F19&lt;&gt;"",",",""),  G19, IF(G19&lt;&gt;"",",",""),  H19, IF(I19&lt;&gt;"","(",""), I19, IF(I19&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,3,2(3)</v>
       </c>
       <c r="K19" s="9">
@@ -2101,12 +2102,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E20,TB_SET,2)," and HIV compartment ",VLOOKUP(G20,HIV_SET,2)," for gender ",VLOOKUP(H20,G_SET,2), " under policy ", VLOOKUP(I20, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2128,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f>CONCATENATE(C20, "_", E20, IF(E20&lt;&gt;"",",",""), F20, IF(F20&lt;&gt;"",",",""),  G20, IF(G20&lt;&gt;"",",",""),  H20, IF(I20&lt;&gt;"","(",""), I20, IF(I20&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,4,1(3)</v>
       </c>
       <c r="K20" s="9">
@@ -2141,12 +2142,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E21,TB_SET,2)," and HIV compartment ",VLOOKUP(G21,HIV_SET,2)," for gender ",VLOOKUP(H21,G_SET,2), " under policy ", VLOOKUP(I21, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2168,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f>CONCATENATE(C21, "_", E21, IF(E21&lt;&gt;"",",",""), F21, IF(F21&lt;&gt;"",",",""),  G21, IF(G21&lt;&gt;"",",",""),  H21, IF(I21&lt;&gt;"","(",""), I21, IF(I21&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_1,4,2(3)</v>
       </c>
       <c r="K21" s="9">
@@ -2181,12 +2182,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E22,TB_SET,2)," and HIV compartment ",VLOOKUP(G22,HIV_SET,2)," for gender ",VLOOKUP(H22,G_SET,2), " under policy ", VLOOKUP(I22, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2208,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f>CONCATENATE(C22, "_", E22, IF(E22&lt;&gt;"",",",""), F22, IF(F22&lt;&gt;"",",",""),  G22, IF(G22&lt;&gt;"",",",""),  H22, IF(I22&lt;&gt;"","(",""), I22, IF(I22&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,1,1(3)</v>
       </c>
       <c r="K22" s="9">
@@ -2218,12 +2219,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E23,TB_SET,2)," and HIV compartment ",VLOOKUP(G23,HIV_SET,2)," for gender ",VLOOKUP(H23,G_SET,2), " under policy ", VLOOKUP(I23, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2245,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f>CONCATENATE(C23, "_", E23, IF(E23&lt;&gt;"",",",""), F23, IF(F23&lt;&gt;"",",",""),  G23, IF(G23&lt;&gt;"",",",""),  H23, IF(I23&lt;&gt;"","(",""), I23, IF(I23&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,1,2(3)</v>
       </c>
       <c r="K23" s="9">
@@ -2255,12 +2256,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E24,TB_SET,2)," and HIV compartment ",VLOOKUP(G24,HIV_SET,2)," for gender ",VLOOKUP(H24,G_SET,2), " under policy ", VLOOKUP(I24, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2282,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f>CONCATENATE(C24, "_", E24, IF(E24&lt;&gt;"",",",""), F24, IF(F24&lt;&gt;"",",",""),  G24, IF(G24&lt;&gt;"",",",""),  H24, IF(I24&lt;&gt;"","(",""), I24, IF(I24&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,2,1(3)</v>
       </c>
       <c r="K24" s="9">
@@ -2295,12 +2296,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E25,TB_SET,2)," and HIV compartment ",VLOOKUP(G25,HIV_SET,2)," for gender ",VLOOKUP(H25,G_SET,2), " under policy ", VLOOKUP(I25, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2322,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f>CONCATENATE(C25, "_", E25, IF(E25&lt;&gt;"",",",""), F25, IF(F25&lt;&gt;"",",",""),  G25, IF(G25&lt;&gt;"",",",""),  H25, IF(I25&lt;&gt;"","(",""), I25, IF(I25&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,2,2(3)</v>
       </c>
       <c r="K25" s="9">
@@ -2335,12 +2336,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E26,TB_SET,2)," and HIV compartment ",VLOOKUP(G26,HIV_SET,2)," for gender ",VLOOKUP(H26,G_SET,2), " under policy ", VLOOKUP(I26, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2362,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f>CONCATENATE(C26, "_", E26, IF(E26&lt;&gt;"",",",""), F26, IF(F26&lt;&gt;"",",",""),  G26, IF(G26&lt;&gt;"",",",""),  H26, IF(I26&lt;&gt;"","(",""), I26, IF(I26&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,3,1(3)</v>
       </c>
       <c r="K26" s="9">
@@ -2375,12 +2376,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E27,TB_SET,2)," and HIV compartment ",VLOOKUP(G27,HIV_SET,2)," for gender ",VLOOKUP(H27,G_SET,2), " under policy ", VLOOKUP(I27, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2402,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f>CONCATENATE(C27, "_", E27, IF(E27&lt;&gt;"",",",""), F27, IF(F27&lt;&gt;"",",",""),  G27, IF(G27&lt;&gt;"",",",""),  H27, IF(I27&lt;&gt;"","(",""), I27, IF(I27&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,3,2(3)</v>
       </c>
       <c r="K27" s="9">
@@ -2415,12 +2416,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E28,TB_SET,2)," and HIV compartment ",VLOOKUP(G28,HIV_SET,2)," for gender ",VLOOKUP(H28,G_SET,2), " under policy ", VLOOKUP(I28, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2442,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f>CONCATENATE(C28, "_", E28, IF(E28&lt;&gt;"",",",""), F28, IF(F28&lt;&gt;"",",",""),  G28, IF(G28&lt;&gt;"",",",""),  H28, IF(I28&lt;&gt;"","(",""), I28, IF(I28&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,4,1(3)</v>
       </c>
       <c r="K28" s="9">
@@ -2452,12 +2453,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E29,TB_SET,2)," and HIV compartment ",VLOOKUP(G29,HIV_SET,2)," for gender ",VLOOKUP(H29,G_SET,2), " under policy ", VLOOKUP(I29, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2479,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f>CONCATENATE(C29, "_", E29, IF(E29&lt;&gt;"",",",""), F29, IF(F29&lt;&gt;"",",",""),  G29, IF(G29&lt;&gt;"",",",""),  H29, IF(I29&lt;&gt;"","(",""), I29, IF(I29&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_3,4,2(3)</v>
       </c>
       <c r="K29" s="9">
@@ -2489,12 +2490,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E30,TB_SET,2)," and HIV compartment ",VLOOKUP(G30,HIV_SET,2)," for gender ",VLOOKUP(H30,G_SET,2), " under policy ", VLOOKUP(I30, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2516,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f>CONCATENATE(C30, "_", E30, IF(E30&lt;&gt;"",",",""), F30, IF(F30&lt;&gt;"",",",""),  G30, IF(G30&lt;&gt;"",",",""),  H30, IF(I30&lt;&gt;"","(",""), I30, IF(I30&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,1,1(3)</v>
       </c>
       <c r="K30" s="9">
@@ -2526,12 +2527,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E31,TB_SET,2)," and HIV compartment ",VLOOKUP(G31,HIV_SET,2)," for gender ",VLOOKUP(H31,G_SET,2), " under policy ", VLOOKUP(I31, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2553,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f>CONCATENATE(C31, "_", E31, IF(E31&lt;&gt;"",",",""), F31, IF(F31&lt;&gt;"",",",""),  G31, IF(G31&lt;&gt;"",",",""),  H31, IF(I31&lt;&gt;"","(",""), I31, IF(I31&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,1,2(3)</v>
       </c>
       <c r="K31" s="9">
@@ -2563,12 +2564,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E32,TB_SET,2)," and HIV compartment ",VLOOKUP(G32,HIV_SET,2)," for gender ",VLOOKUP(H32,G_SET,2), " under policy ", VLOOKUP(I32, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2590,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f>CONCATENATE(C32, "_", E32, IF(E32&lt;&gt;"",",",""), F32, IF(F32&lt;&gt;"",",",""),  G32, IF(G32&lt;&gt;"",",",""),  H32, IF(I32&lt;&gt;"","(",""), I32, IF(I32&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,2,1(3)</v>
       </c>
       <c r="K32" s="9">
@@ -2600,12 +2601,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E33,TB_SET,2)," and HIV compartment ",VLOOKUP(G33,HIV_SET,2)," for gender ",VLOOKUP(H33,G_SET,2), " under policy ", VLOOKUP(I33, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2627,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f>CONCATENATE(C33, "_", E33, IF(E33&lt;&gt;"",",",""), F33, IF(F33&lt;&gt;"",",",""),  G33, IF(G33&lt;&gt;"",",",""),  H33, IF(I33&lt;&gt;"","(",""), I33, IF(I33&lt;&gt;"",")",""))</f>
+        <f t="shared" si="0"/>
         <v>kappa_4,2,2(3)</v>
       </c>
       <c r="K33" s="9">
@@ -2637,12 +2638,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E34,TB_SET,2)," and HIV compartment ",VLOOKUP(G34,HIV_SET,2)," for gender ",VLOOKUP(H34,G_SET,2), " under policy ", VLOOKUP(I34, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2664,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f>CONCATENATE(C34, "_", E34, IF(E34&lt;&gt;"",",",""), F34, IF(F34&lt;&gt;"",",",""),  G34, IF(G34&lt;&gt;"",",",""),  H34, IF(I34&lt;&gt;"","(",""), I34, IF(I34&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J34:J65" si="2">CONCATENATE(C34, "_", E34, IF(E34&lt;&gt;"",",",""), F34, IF(F34&lt;&gt;"",",",""),  G34, IF(G34&lt;&gt;"",",",""),  H34, IF(I34&lt;&gt;"","(",""), I34, IF(I34&lt;&gt;"",")",""))</f>
         <v>kappa_4,3,1(3)</v>
       </c>
       <c r="K34" s="9">
@@ -2674,12 +2675,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E35,TB_SET,2)," and HIV compartment ",VLOOKUP(G35,HIV_SET,2)," for gender ",VLOOKUP(H35,G_SET,2), " under policy ", VLOOKUP(I35, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2701,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f>CONCATENATE(C35, "_", E35, IF(E35&lt;&gt;"",",",""), F35, IF(F35&lt;&gt;"",",",""),  G35, IF(G35&lt;&gt;"",",",""),  H35, IF(I35&lt;&gt;"","(",""), I35, IF(I35&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,2(3)</v>
       </c>
       <c r="K35" s="9">
@@ -2711,12 +2712,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E36,TB_SET,2)," and HIV compartment ",VLOOKUP(G36,HIV_SET,2)," for gender ",VLOOKUP(H36,G_SET,2), " under policy ", VLOOKUP(I36, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART + IPT</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -2738,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f>CONCATENATE(C36, "_", E36, IF(E36&lt;&gt;"",",",""), F36, IF(F36&lt;&gt;"",",",""),  G36, IF(G36&lt;&gt;"",",",""),  H36, IF(I36&lt;&gt;"","(",""), I36, IF(I36&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,1(3)</v>
       </c>
       <c r="K36" s="9">
@@ -2748,12 +2749,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E37,TB_SET,2)," and HIV compartment ",VLOOKUP(G37,HIV_SET,2)," for gender ",VLOOKUP(H37,G_SET,2), " under policy ", VLOOKUP(I37, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART + IPT</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2775,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f>CONCATENATE(C37, "_", E37, IF(E37&lt;&gt;"",",",""), F37, IF(F37&lt;&gt;"",",",""),  G37, IF(G37&lt;&gt;"",",",""),  H37, IF(I37&lt;&gt;"","(",""), I37, IF(I37&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,2(3)</v>
       </c>
       <c r="K37" s="9">
@@ -2785,12 +2786,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E38,TB_SET,2)," and HIV compartment ",VLOOKUP(G38,HIV_SET,2)," for gender ",VLOOKUP(H38,G_SET,2), " under policy ", VLOOKUP(I38, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2812,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f>CONCATENATE(C38, "_", E38, IF(E38&lt;&gt;"",",",""), F38, IF(F38&lt;&gt;"",",",""),  G38, IF(G38&lt;&gt;"",",",""),  H38, IF(I38&lt;&gt;"","(",""), I38, IF(I38&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,1(2)</v>
       </c>
       <c r="K38" s="9">
@@ -2822,12 +2823,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E39,TB_SET,2)," and HIV compartment ",VLOOKUP(G39,HIV_SET,2)," for gender ",VLOOKUP(H39,G_SET,2), " under policy ", VLOOKUP(I39, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2849,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f>CONCATENATE(C39, "_", E39, IF(E39&lt;&gt;"",",",""), F39, IF(F39&lt;&gt;"",",",""),  G39, IF(G39&lt;&gt;"",",",""),  H39, IF(I39&lt;&gt;"","(",""), I39, IF(I39&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,2(2)</v>
       </c>
       <c r="K39" s="9">
@@ -2859,12 +2860,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E40,TB_SET,2)," and HIV compartment ",VLOOKUP(G40,HIV_SET,2)," for gender ",VLOOKUP(H40,G_SET,2), " under policy ", VLOOKUP(I40, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2886,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f>CONCATENATE(C40, "_", E40, IF(E40&lt;&gt;"",",",""), F40, IF(F40&lt;&gt;"",",",""),  G40, IF(G40&lt;&gt;"",",",""),  H40, IF(I40&lt;&gt;"","(",""), I40, IF(I40&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,1(2)</v>
       </c>
       <c r="K40" s="9">
@@ -2899,12 +2900,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E41,TB_SET,2)," and HIV compartment ",VLOOKUP(G41,HIV_SET,2)," for gender ",VLOOKUP(H41,G_SET,2), " under policy ", VLOOKUP(I41, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2926,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="9" t="str">
-        <f>CONCATENATE(C41, "_", E41, IF(E41&lt;&gt;"",",",""), F41, IF(F41&lt;&gt;"",",",""),  G41, IF(G41&lt;&gt;"",",",""),  H41, IF(I41&lt;&gt;"","(",""), I41, IF(I41&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,2(2)</v>
       </c>
       <c r="K41" s="9">
@@ -2939,12 +2940,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E42,TB_SET,2)," and HIV compartment ",VLOOKUP(G42,HIV_SET,2)," for gender ",VLOOKUP(H42,G_SET,2), " under policy ", VLOOKUP(I42, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2966,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f>CONCATENATE(C42, "_", E42, IF(E42&lt;&gt;"",",",""), F42, IF(F42&lt;&gt;"",",",""),  G42, IF(G42&lt;&gt;"",",",""),  H42, IF(I42&lt;&gt;"","(",""), I42, IF(I42&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,3,1(2)</v>
       </c>
       <c r="K42" s="9">
@@ -2979,12 +2980,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E43,TB_SET,2)," and HIV compartment ",VLOOKUP(G43,HIV_SET,2)," for gender ",VLOOKUP(H43,G_SET,2), " under policy ", VLOOKUP(I43, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -3006,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f>CONCATENATE(C43, "_", E43, IF(E43&lt;&gt;"",",",""), F43, IF(F43&lt;&gt;"",",",""),  G43, IF(G43&lt;&gt;"",",",""),  H43, IF(I43&lt;&gt;"","(",""), I43, IF(I43&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,3,2(2)</v>
       </c>
       <c r="K43" s="9">
@@ -3019,12 +3020,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E44,TB_SET,2)," and HIV compartment ",VLOOKUP(G44,HIV_SET,2)," for gender ",VLOOKUP(H44,G_SET,2), " under policy ", VLOOKUP(I44, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3046,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f>CONCATENATE(C44, "_", E44, IF(E44&lt;&gt;"",",",""), F44, IF(F44&lt;&gt;"",",",""),  G44, IF(G44&lt;&gt;"",",",""),  H44, IF(I44&lt;&gt;"","(",""), I44, IF(I44&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,4,1(2)</v>
       </c>
       <c r="K44" s="9">
@@ -3059,12 +3060,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E45,TB_SET,2)," and HIV compartment ",VLOOKUP(G45,HIV_SET,2)," for gender ",VLOOKUP(H45,G_SET,2), " under policy ", VLOOKUP(I45, P_SET,2))</f>
+        <f t="shared" si="1"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3086,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f>CONCATENATE(C45, "_", E45, IF(E45&lt;&gt;"",",",""), F45, IF(F45&lt;&gt;"",",",""),  G45, IF(G45&lt;&gt;"",",",""),  H45, IF(I45&lt;&gt;"","(",""), I45, IF(I45&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,4,2(2)</v>
       </c>
       <c r="K45" s="9">
@@ -3099,12 +3100,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E46,TB_SET,2)," and HIV compartment ",VLOOKUP(G46,HIV_SET,2)," for gender ",VLOOKUP(H46,G_SET,2), " under policy ", VLOOKUP(I46, P_SET,2))</f>
+        <f t="shared" ref="B46:B77" si="3">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E46,TB_SET,2)," and HIV compartment ",VLOOKUP(G46,HIV_SET,2)," for gender ",VLOOKUP(H46,G_SET,2), " under policy ", VLOOKUP(I46, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3126,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f>CONCATENATE(C46, "_", E46, IF(E46&lt;&gt;"",",",""), F46, IF(F46&lt;&gt;"",",",""),  G46, IF(G46&lt;&gt;"",",",""),  H46, IF(I46&lt;&gt;"","(",""), I46, IF(I46&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,1,1(2)</v>
       </c>
       <c r="K46" s="9">
@@ -3139,12 +3140,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E47,TB_SET,2)," and HIV compartment ",VLOOKUP(G47,HIV_SET,2)," for gender ",VLOOKUP(H47,G_SET,2), " under policy ", VLOOKUP(I47, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3166,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f>CONCATENATE(C47, "_", E47, IF(E47&lt;&gt;"",",",""), F47, IF(F47&lt;&gt;"",",",""),  G47, IF(G47&lt;&gt;"",",",""),  H47, IF(I47&lt;&gt;"","(",""), I47, IF(I47&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,1,2(2)</v>
       </c>
       <c r="K47" s="9">
@@ -3179,12 +3180,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E48,TB_SET,2)," and HIV compartment ",VLOOKUP(G48,HIV_SET,2)," for gender ",VLOOKUP(H48,G_SET,2), " under policy ", VLOOKUP(I48, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -3206,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f>CONCATENATE(C48, "_", E48, IF(E48&lt;&gt;"",",",""), F48, IF(F48&lt;&gt;"",",",""),  G48, IF(G48&lt;&gt;"",",",""),  H48, IF(I48&lt;&gt;"","(",""), I48, IF(I48&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,2,1(2)</v>
       </c>
       <c r="K48" s="9">
@@ -3216,12 +3217,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E49,TB_SET,2)," and HIV compartment ",VLOOKUP(G49,HIV_SET,2)," for gender ",VLOOKUP(H49,G_SET,2), " under policy ", VLOOKUP(I49, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -3243,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f>CONCATENATE(C49, "_", E49, IF(E49&lt;&gt;"",",",""), F49, IF(F49&lt;&gt;"",",",""),  G49, IF(G49&lt;&gt;"",",",""),  H49, IF(I49&lt;&gt;"","(",""), I49, IF(I49&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,2,2(2)</v>
       </c>
       <c r="K49" s="9">
@@ -3253,12 +3254,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E50,TB_SET,2)," and HIV compartment ",VLOOKUP(G50,HIV_SET,2)," for gender ",VLOOKUP(H50,G_SET,2), " under policy ", VLOOKUP(I50, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -3280,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="9" t="str">
-        <f>CONCATENATE(C50, "_", E50, IF(E50&lt;&gt;"",",",""), F50, IF(F50&lt;&gt;"",",",""),  G50, IF(G50&lt;&gt;"",",",""),  H50, IF(I50&lt;&gt;"","(",""), I50, IF(I50&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,3,1(2)</v>
       </c>
       <c r="K50" s="9">
@@ -3290,12 +3291,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E51,TB_SET,2)," and HIV compartment ",VLOOKUP(G51,HIV_SET,2)," for gender ",VLOOKUP(H51,G_SET,2), " under policy ", VLOOKUP(I51, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3317,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f>CONCATENATE(C51, "_", E51, IF(E51&lt;&gt;"",",",""), F51, IF(F51&lt;&gt;"",",",""),  G51, IF(G51&lt;&gt;"",",",""),  H51, IF(I51&lt;&gt;"","(",""), I51, IF(I51&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,3,2(2)</v>
       </c>
       <c r="K51" s="9">
@@ -3327,12 +3328,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E52,TB_SET,2)," and HIV compartment ",VLOOKUP(G52,HIV_SET,2)," for gender ",VLOOKUP(H52,G_SET,2), " under policy ", VLOOKUP(I52, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3354,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f>CONCATENATE(C52, "_", E52, IF(E52&lt;&gt;"",",",""), F52, IF(F52&lt;&gt;"",",",""),  G52, IF(G52&lt;&gt;"",",",""),  H52, IF(I52&lt;&gt;"","(",""), I52, IF(I52&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,4,1(2)</v>
       </c>
       <c r="K52" s="9">
@@ -3364,12 +3365,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E53,TB_SET,2)," and HIV compartment ",VLOOKUP(G53,HIV_SET,2)," for gender ",VLOOKUP(H53,G_SET,2), " under policy ", VLOOKUP(I53, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3391,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="9" t="str">
-        <f>CONCATENATE(C53, "_", E53, IF(E53&lt;&gt;"",",",""), F53, IF(F53&lt;&gt;"",",",""),  G53, IF(G53&lt;&gt;"",",",""),  H53, IF(I53&lt;&gt;"","(",""), I53, IF(I53&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_3,4,2(2)</v>
       </c>
       <c r="K53" s="9">
@@ -3401,12 +3402,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E54,TB_SET,2)," and HIV compartment ",VLOOKUP(G54,HIV_SET,2)," for gender ",VLOOKUP(H54,G_SET,2), " under policy ", VLOOKUP(I54, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Community ART</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -3428,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f>CONCATENATE(C54, "_", E54, IF(E54&lt;&gt;"",",",""), F54, IF(F54&lt;&gt;"",",",""),  G54, IF(G54&lt;&gt;"",",",""),  H54, IF(I54&lt;&gt;"","(",""), I54, IF(I54&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,1,1(2)</v>
       </c>
       <c r="K54" s="9">
@@ -3438,12 +3439,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E55,TB_SET,2)," and HIV compartment ",VLOOKUP(G55,HIV_SET,2)," for gender ",VLOOKUP(H55,G_SET,2), " under policy ", VLOOKUP(I55, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Community ART</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -3465,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="9" t="str">
-        <f>CONCATENATE(C55, "_", E55, IF(E55&lt;&gt;"",",",""), F55, IF(F55&lt;&gt;"",",",""),  G55, IF(G55&lt;&gt;"",",",""),  H55, IF(I55&lt;&gt;"","(",""), I55, IF(I55&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,1,2(2)</v>
       </c>
       <c r="K55" s="9">
@@ -3475,12 +3476,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E56,TB_SET,2)," and HIV compartment ",VLOOKUP(G56,HIV_SET,2)," for gender ",VLOOKUP(H56,G_SET,2), " under policy ", VLOOKUP(I56, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Community ART</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3502,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f>CONCATENATE(C56, "_", E56, IF(E56&lt;&gt;"",",",""), F56, IF(F56&lt;&gt;"",",",""),  G56, IF(G56&lt;&gt;"",",",""),  H56, IF(I56&lt;&gt;"","(",""), I56, IF(I56&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,2,1(2)</v>
       </c>
       <c r="K56" s="9">
@@ -3512,12 +3513,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B57" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E57,TB_SET,2)," and HIV compartment ",VLOOKUP(G57,HIV_SET,2)," for gender ",VLOOKUP(H57,G_SET,2), " under policy ", VLOOKUP(I57, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Community ART</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -3539,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="9" t="str">
-        <f>CONCATENATE(C57, "_", E57, IF(E57&lt;&gt;"",",",""), F57, IF(F57&lt;&gt;"",",",""),  G57, IF(G57&lt;&gt;"",",",""),  H57, IF(I57&lt;&gt;"","(",""), I57, IF(I57&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,2,2(2)</v>
       </c>
       <c r="K57" s="9">
@@ -3549,12 +3550,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E58,TB_SET,2)," and HIV compartment ",VLOOKUP(G58,HIV_SET,2)," for gender ",VLOOKUP(H58,G_SET,2), " under policy ", VLOOKUP(I58, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Community ART</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -3576,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="9" t="str">
-        <f>CONCATENATE(C58, "_", E58, IF(E58&lt;&gt;"",",",""), F58, IF(F58&lt;&gt;"",",",""),  G58, IF(G58&lt;&gt;"",",",""),  H58, IF(I58&lt;&gt;"","(",""), I58, IF(I58&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,1(2)</v>
       </c>
       <c r="K58" s="9">
@@ -3586,12 +3587,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E59,TB_SET,2)," and HIV compartment ",VLOOKUP(G59,HIV_SET,2)," for gender ",VLOOKUP(H59,G_SET,2), " under policy ", VLOOKUP(I59, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Community ART</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3613,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="9" t="str">
-        <f>CONCATENATE(C59, "_", E59, IF(E59&lt;&gt;"",",",""), F59, IF(F59&lt;&gt;"",",",""),  G59, IF(G59&lt;&gt;"",",",""),  H59, IF(I59&lt;&gt;"","(",""), I59, IF(I59&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,3,2(2)</v>
       </c>
       <c r="K59" s="9">
@@ -3623,12 +3624,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E60,TB_SET,2)," and HIV compartment ",VLOOKUP(G60,HIV_SET,2)," for gender ",VLOOKUP(H60,G_SET,2), " under policy ", VLOOKUP(I60, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Community ART</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3650,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="9" t="str">
-        <f>CONCATENATE(C60, "_", E60, IF(E60&lt;&gt;"",",",""), F60, IF(F60&lt;&gt;"",",",""),  G60, IF(G60&lt;&gt;"",",",""),  H60, IF(I60&lt;&gt;"","(",""), I60, IF(I60&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,1(2)</v>
       </c>
       <c r="K60" s="9">
@@ -3660,12 +3661,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E61,TB_SET,2)," and HIV compartment ",VLOOKUP(G61,HIV_SET,2)," for gender ",VLOOKUP(H61,G_SET,2), " under policy ", VLOOKUP(I61, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Community ART</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -3687,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="9" t="str">
-        <f>CONCATENATE(C61, "_", E61, IF(E61&lt;&gt;"",",",""), F61, IF(F61&lt;&gt;"",",",""),  G61, IF(G61&lt;&gt;"",",",""),  H61, IF(I61&lt;&gt;"","(",""), I61, IF(I61&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_4,4,2(2)</v>
       </c>
       <c r="K61" s="9">
@@ -3697,12 +3698,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B62" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E62,TB_SET,2)," and HIV compartment ",VLOOKUP(G62,HIV_SET,2)," for gender ",VLOOKUP(H62,G_SET,2), " under policy ", VLOOKUP(I62, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3724,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="str">
-        <f>CONCATENATE(C62, "_", E62, IF(E62&lt;&gt;"",",",""), F62, IF(F62&lt;&gt;"",",",""),  G62, IF(G62&lt;&gt;"",",",""),  H62, IF(I62&lt;&gt;"","(",""), I62, IF(I62&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,1(1)</v>
       </c>
       <c r="K62" s="9">
@@ -3734,12 +3735,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E63,TB_SET,2)," and HIV compartment ",VLOOKUP(G63,HIV_SET,2)," for gender ",VLOOKUP(H63,G_SET,2), " under policy ", VLOOKUP(I63, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3761,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="str">
-        <f>CONCATENATE(C63, "_", E63, IF(E63&lt;&gt;"",",",""), F63, IF(F63&lt;&gt;"",",",""),  G63, IF(G63&lt;&gt;"",",",""),  H63, IF(I63&lt;&gt;"","(",""), I63, IF(I63&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,1,2(1)</v>
       </c>
       <c r="K63" s="9">
@@ -3771,12 +3772,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E64,TB_SET,2)," and HIV compartment ",VLOOKUP(G64,HIV_SET,2)," for gender ",VLOOKUP(H64,G_SET,2), " under policy ", VLOOKUP(I64, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -3798,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="str">
-        <f>CONCATENATE(C64, "_", E64, IF(E64&lt;&gt;"",",",""), F64, IF(F64&lt;&gt;"",",",""),  G64, IF(G64&lt;&gt;"",",",""),  H64, IF(I64&lt;&gt;"","(",""), I64, IF(I64&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,1(1)</v>
       </c>
       <c r="K64" s="9">
@@ -3808,12 +3809,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E65,TB_SET,2)," and HIV compartment ",VLOOKUP(G65,HIV_SET,2)," for gender ",VLOOKUP(H65,G_SET,2), " under policy ", VLOOKUP(I65, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -3835,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f>CONCATENATE(C65, "_", E65, IF(E65&lt;&gt;"",",",""), F65, IF(F65&lt;&gt;"",",",""),  G65, IF(G65&lt;&gt;"",",",""),  H65, IF(I65&lt;&gt;"","(",""), I65, IF(I65&lt;&gt;"",")",""))</f>
+        <f t="shared" si="2"/>
         <v>kappa_1,2,2(1)</v>
       </c>
       <c r="K65" s="9">
@@ -3845,12 +3846,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B66" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E66,TB_SET,2)," and HIV compartment ",VLOOKUP(G66,HIV_SET,2)," for gender ",VLOOKUP(H66,G_SET,2), " under policy ", VLOOKUP(I66, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3872,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f>CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J66:J97" si="4">CONCATENATE(C66, "_", E66, IF(E66&lt;&gt;"",",",""), F66, IF(F66&lt;&gt;"",",",""),  G66, IF(G66&lt;&gt;"",",",""),  H66, IF(I66&lt;&gt;"","(",""), I66, IF(I66&lt;&gt;"",")",""))</f>
         <v>kappa_1,3,1(1)</v>
       </c>
       <c r="K66" s="9">
@@ -3882,12 +3883,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E67,TB_SET,2)," and HIV compartment ",VLOOKUP(G67,HIV_SET,2)," for gender ",VLOOKUP(H67,G_SET,2), " under policy ", VLOOKUP(I67, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3909,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f>CONCATENATE(C67, "_", E67, IF(E67&lt;&gt;"",",",""), F67, IF(F67&lt;&gt;"",",",""),  G67, IF(G67&lt;&gt;"",",",""),  H67, IF(I67&lt;&gt;"","(",""), I67, IF(I67&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,3,2(1)</v>
       </c>
       <c r="K67" s="9">
@@ -3919,12 +3920,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E68,TB_SET,2)," and HIV compartment ",VLOOKUP(G68,HIV_SET,2)," for gender ",VLOOKUP(H68,G_SET,2), " under policy ", VLOOKUP(I68, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3946,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f>CONCATENATE(C68, "_", E68, IF(E68&lt;&gt;"",",",""), F68, IF(F68&lt;&gt;"",",",""),  G68, IF(G68&lt;&gt;"",",",""),  H68, IF(I68&lt;&gt;"","(",""), I68, IF(I68&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,4,1(1)</v>
       </c>
       <c r="K68" s="9">
@@ -3956,12 +3957,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B69" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E69,TB_SET,2)," and HIV compartment ",VLOOKUP(G69,HIV_SET,2)," for gender ",VLOOKUP(H69,G_SET,2), " under policy ", VLOOKUP(I69, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -3983,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="str">
-        <f>CONCATENATE(C69, "_", E69, IF(E69&lt;&gt;"",",",""), F69, IF(F69&lt;&gt;"",",",""),  G69, IF(G69&lt;&gt;"",",",""),  H69, IF(I69&lt;&gt;"","(",""), I69, IF(I69&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_1,4,2(1)</v>
       </c>
       <c r="K69" s="9">
@@ -3993,12 +3994,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E70,TB_SET,2)," and HIV compartment ",VLOOKUP(G70,HIV_SET,2)," for gender ",VLOOKUP(H70,G_SET,2), " under policy ", VLOOKUP(I70, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -4020,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f>CONCATENATE(C70, "_", E70, IF(E70&lt;&gt;"",",",""), F70, IF(F70&lt;&gt;"",",",""),  G70, IF(G70&lt;&gt;"",",",""),  H70, IF(I70&lt;&gt;"","(",""), I70, IF(I70&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,1,1(1)</v>
       </c>
       <c r="K70" s="9">
@@ -4030,12 +4031,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B71" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E71,TB_SET,2)," and HIV compartment ",VLOOKUP(G71,HIV_SET,2)," for gender ",VLOOKUP(H71,G_SET,2), " under policy ", VLOOKUP(I71, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -4057,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f>CONCATENATE(C71, "_", E71, IF(E71&lt;&gt;"",",",""), F71, IF(F71&lt;&gt;"",",",""),  G71, IF(G71&lt;&gt;"",",",""),  H71, IF(I71&lt;&gt;"","(",""), I71, IF(I71&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,1,2(1)</v>
       </c>
       <c r="K71" s="9">
@@ -4067,12 +4068,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E72,TB_SET,2)," and HIV compartment ",VLOOKUP(G72,HIV_SET,2)," for gender ",VLOOKUP(H72,G_SET,2), " under policy ", VLOOKUP(I72, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -4094,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f>CONCATENATE(C72, "_", E72, IF(E72&lt;&gt;"",",",""), F72, IF(F72&lt;&gt;"",",",""),  G72, IF(G72&lt;&gt;"",",",""),  H72, IF(I72&lt;&gt;"","(",""), I72, IF(I72&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,2,1(1)</v>
       </c>
       <c r="K72" s="9">
@@ -4104,12 +4105,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B73" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E73,TB_SET,2)," and HIV compartment ",VLOOKUP(G73,HIV_SET,2)," for gender ",VLOOKUP(H73,G_SET,2), " under policy ", VLOOKUP(I73, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -4131,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f>CONCATENATE(C73, "_", E73, IF(E73&lt;&gt;"",",",""), F73, IF(F73&lt;&gt;"",",",""),  G73, IF(G73&lt;&gt;"",",",""),  H73, IF(I73&lt;&gt;"","(",""), I73, IF(I73&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,2,2(1)</v>
       </c>
       <c r="K73" s="9">
@@ -4141,12 +4142,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E74,TB_SET,2)," and HIV compartment ",VLOOKUP(G74,HIV_SET,2)," for gender ",VLOOKUP(H74,G_SET,2), " under policy ", VLOOKUP(I74, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -4168,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f>CONCATENATE(C74, "_", E74, IF(E74&lt;&gt;"",",",""), F74, IF(F74&lt;&gt;"",",",""),  G74, IF(G74&lt;&gt;"",",",""),  H74, IF(I74&lt;&gt;"","(",""), I74, IF(I74&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,3,1(1)</v>
       </c>
       <c r="K74" s="9">
@@ -4178,12 +4179,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E75,TB_SET,2)," and HIV compartment ",VLOOKUP(G75,HIV_SET,2)," for gender ",VLOOKUP(H75,G_SET,2), " under policy ", VLOOKUP(I75, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -4205,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f>CONCATENATE(C75, "_", E75, IF(E75&lt;&gt;"",",",""), F75, IF(F75&lt;&gt;"",",",""),  G75, IF(G75&lt;&gt;"",",",""),  H75, IF(I75&lt;&gt;"","(",""), I75, IF(I75&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,3,2(1)</v>
       </c>
       <c r="K75" s="9">
@@ -4215,12 +4216,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B76" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E76,TB_SET,2)," and HIV compartment ",VLOOKUP(G76,HIV_SET,2)," for gender ",VLOOKUP(H76,G_SET,2), " under policy ", VLOOKUP(I76, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -4242,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f>CONCATENATE(C76, "_", E76, IF(E76&lt;&gt;"",",",""), F76, IF(F76&lt;&gt;"",",",""),  G76, IF(G76&lt;&gt;"",",",""),  H76, IF(I76&lt;&gt;"","(",""), I76, IF(I76&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,4,1(1)</v>
       </c>
       <c r="K76" s="9">
@@ -4252,12 +4253,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B77" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E77,TB_SET,2)," and HIV compartment ",VLOOKUP(G77,HIV_SET,2)," for gender ",VLOOKUP(H77,G_SET,2), " under policy ", VLOOKUP(I77, P_SET,2))</f>
+        <f t="shared" si="3"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -4279,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f>CONCATENATE(C77, "_", E77, IF(E77&lt;&gt;"",",",""), F77, IF(F77&lt;&gt;"",",",""),  G77, IF(G77&lt;&gt;"",",",""),  H77, IF(I77&lt;&gt;"","(",""), I77, IF(I77&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_3,4,2(1)</v>
       </c>
       <c r="K77" s="9">
@@ -4289,12 +4290,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B78" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E78,TB_SET,2)," and HIV compartment ",VLOOKUP(G78,HIV_SET,2)," for gender ",VLOOKUP(H78,G_SET,2), " under policy ", VLOOKUP(I78, P_SET,2))</f>
+        <f t="shared" ref="B78:B85" si="5">CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E78,TB_SET,2)," and HIV compartment ",VLOOKUP(G78,HIV_SET,2)," for gender ",VLOOKUP(H78,G_SET,2), " under policy ", VLOOKUP(I78, P_SET,2))</f>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -4316,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f>CONCATENATE(C78, "_", E78, IF(E78&lt;&gt;"",",",""), F78, IF(F78&lt;&gt;"",",",""),  G78, IF(G78&lt;&gt;"",",",""),  H78, IF(I78&lt;&gt;"","(",""), I78, IF(I78&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,1,1(1)</v>
       </c>
       <c r="K78" s="9">
@@ -4326,12 +4327,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E79,TB_SET,2)," and HIV compartment ",VLOOKUP(G79,HIV_SET,2)," for gender ",VLOOKUP(H79,G_SET,2), " under policy ", VLOOKUP(I79, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4353,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f>CONCATENATE(C79, "_", E79, IF(E79&lt;&gt;"",",",""), F79, IF(F79&lt;&gt;"",",",""),  G79, IF(G79&lt;&gt;"",",",""),  H79, IF(I79&lt;&gt;"","(",""), I79, IF(I79&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,1,2(1)</v>
       </c>
       <c r="K79" s="9">
@@ -4363,12 +4364,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
       <c r="B80" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E80,TB_SET,2)," and HIV compartment ",VLOOKUP(G80,HIV_SET,2)," for gender ",VLOOKUP(H80,G_SET,2), " under policy ", VLOOKUP(I80, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -4390,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f>CONCATENATE(C80, "_", E80, IF(E80&lt;&gt;"",",",""), F80, IF(F80&lt;&gt;"",",",""),  G80, IF(G80&lt;&gt;"",",",""),  H80, IF(I80&lt;&gt;"","(",""), I80, IF(I80&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,2,1(1)</v>
       </c>
       <c r="K80" s="9">
@@ -4400,12 +4401,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E81,TB_SET,2)," and HIV compartment ",VLOOKUP(G81,HIV_SET,2)," for gender ",VLOOKUP(H81,G_SET,2), " under policy ", VLOOKUP(I81, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -4427,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f>CONCATENATE(C81, "_", E81, IF(E81&lt;&gt;"",",",""), F81, IF(F81&lt;&gt;"",",",""),  G81, IF(G81&lt;&gt;"",",",""),  H81, IF(I81&lt;&gt;"","(",""), I81, IF(I81&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,2,2(1)</v>
       </c>
       <c r="K81" s="9">
@@ -4437,12 +4438,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E82,TB_SET,2)," and HIV compartment ",VLOOKUP(G82,HIV_SET,2)," for gender ",VLOOKUP(H82,G_SET,2), " under policy ", VLOOKUP(I82, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -4464,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f>CONCATENATE(C82, "_", E82, IF(E82&lt;&gt;"",",",""), F82, IF(F82&lt;&gt;"",",",""),  G82, IF(G82&lt;&gt;"",",",""),  H82, IF(I82&lt;&gt;"","(",""), I82, IF(I82&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,3,1(1)</v>
       </c>
       <c r="K82" s="9">
@@ -4474,12 +4475,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B83" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E83,TB_SET,2)," and HIV compartment ",VLOOKUP(G83,HIV_SET,2)," for gender ",VLOOKUP(H83,G_SET,2), " under policy ", VLOOKUP(I83, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4501,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f>CONCATENATE(C83, "_", E83, IF(E83&lt;&gt;"",",",""), F83, IF(F83&lt;&gt;"",",",""),  G83, IF(G83&lt;&gt;"",",",""),  H83, IF(I83&lt;&gt;"","(",""), I83, IF(I83&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,3,2(1)</v>
       </c>
       <c r="K83" s="9">
@@ -4511,12 +4512,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B84" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E84,TB_SET,2)," and HIV compartment ",VLOOKUP(G84,HIV_SET,2)," for gender ",VLOOKUP(H84,G_SET,2), " under policy ", VLOOKUP(I84, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Male under policy Standard (baseline)</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -4538,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f>CONCATENATE(C84, "_", E84, IF(E84&lt;&gt;"",",",""), F84, IF(F84&lt;&gt;"",",",""),  G84, IF(G84&lt;&gt;"",",",""),  H84, IF(I84&lt;&gt;"","(",""), I84, IF(I84&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,4,1(1)</v>
       </c>
       <c r="K84" s="9">
@@ -4548,12 +4549,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="21" t="str">
-        <f>CONCATENATE("Rate of IPT initiation from TB compartment ",VLOOKUP(E85,TB_SET,2)," and HIV compartment ",VLOOKUP(G85,HIV_SET,2)," for gender ",VLOOKUP(H85,G_SET,2), " under policy ", VLOOKUP(I85, P_SET,2))</f>
+        <f t="shared" si="5"/>
         <v>Rate of IPT initiation from TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART for gender Female under policy Standard (baseline)</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -4575,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f>CONCATENATE(C85, "_", E85, IF(E85&lt;&gt;"",",",""), F85, IF(F85&lt;&gt;"",",",""),  G85, IF(G85&lt;&gt;"",",",""),  H85, IF(I85&lt;&gt;"","(",""), I85, IF(I85&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>kappa_4,4,2(1)</v>
       </c>
       <c r="K85" s="9">
@@ -4585,7 +4586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4603,14 +4604,14 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f>CONCATENATE(C86, "_", E86, IF(E86&lt;&gt;"",",",""), F86, IF(F86&lt;&gt;"",",",""),  G86, IF(G86&lt;&gt;"",",",""),  H86, IF(I86&lt;&gt;"","(",""), I86, IF(I86&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>gamma_1,</v>
       </c>
       <c r="K86" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4628,19 +4629,19 @@
         <v>2</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f>CONCATENATE(C87, "_", E87, IF(E87&lt;&gt;"",",",""), F87, IF(F87&lt;&gt;"",",",""),  G87, IF(G87&lt;&gt;"",",",""),  H87, IF(I87&lt;&gt;"","(",""), I87, IF(I87&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>gamma_2,</v>
       </c>
       <c r="K87" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B88" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E88, TB_SET, 2), " under policy ", VLOOKUP(I88, P_SET, 2))</f>
+        <f t="shared" ref="B88:B93" si="6">CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E88, TB_SET, 2), " under policy ", VLOOKUP(I88, P_SET, 2))</f>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Community ART + IPT</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -4656,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f>CONCATENATE(C88, "_", E88, IF(E88&lt;&gt;"",",",""), F88, IF(F88&lt;&gt;"",",",""),  G88, IF(G88&lt;&gt;"",",",""),  H88, IF(I88&lt;&gt;"","(",""), I88, IF(I88&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(3)</v>
       </c>
       <c r="K88" s="9">
@@ -4666,12 +4667,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E89, TB_SET, 2), " under policy ", VLOOKUP(I89, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Community ART + IPT</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -4687,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f>CONCATENATE(C89, "_", E89, IF(E89&lt;&gt;"",",",""), F89, IF(F89&lt;&gt;"",",",""),  G89, IF(G89&lt;&gt;"",",",""),  H89, IF(I89&lt;&gt;"","(",""), I89, IF(I89&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(3)</v>
       </c>
       <c r="K89" s="9">
@@ -4697,12 +4698,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B90" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E90, TB_SET, 2), " under policy ", VLOOKUP(I90, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Community ART</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -4718,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f>CONCATENATE(C90, "_", E90, IF(E90&lt;&gt;"",",",""), F90, IF(F90&lt;&gt;"",",",""),  G90, IF(G90&lt;&gt;"",",",""),  H90, IF(I90&lt;&gt;"","(",""), I90, IF(I90&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(2)</v>
       </c>
       <c r="K90" s="9">
@@ -4728,12 +4729,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B91" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E91, TB_SET, 2), " under policy ", VLOOKUP(I91, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Community ART</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -4749,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f>CONCATENATE(C91, "_", E91, IF(E91&lt;&gt;"",",",""), F91, IF(F91&lt;&gt;"",",",""),  G91, IF(G91&lt;&gt;"",",",""),  H91, IF(I91&lt;&gt;"","(",""), I91, IF(I91&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(2)</v>
       </c>
       <c r="K91" s="9">
@@ -4759,12 +4760,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B92" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E92, TB_SET, 2), " under policy ", VLOOKUP(I92, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  Uninfected, on IPT under policy Standard (baseline)</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -4780,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f>CONCATENATE(C92, "_", E92, IF(E92&lt;&gt;"",",",""), F92, IF(F92&lt;&gt;"",",",""),  G92, IF(G92&lt;&gt;"",",",""),  H92, IF(I92&lt;&gt;"","(",""), I92, IF(I92&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_2,(1)</v>
       </c>
       <c r="K92" s="9">
@@ -4790,12 +4791,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B93" s="9" t="str">
-        <f>CONCATENATE("Rate of moving off of IPT from TB compartment ", VLOOKUP(E93, TB_SET, 2), " under policy ", VLOOKUP(I93, P_SET, 2))</f>
+        <f t="shared" si="6"/>
         <v>Rate of moving off of IPT from TB compartment  LTBI, on IPT under policy Standard (baseline)</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -4811,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f>CONCATENATE(C93, "_", E93, IF(E93&lt;&gt;"",",",""), F93, IF(F93&lt;&gt;"",",",""),  G93, IF(G93&lt;&gt;"",",",""),  H93, IF(I93&lt;&gt;"","(",""), I93, IF(I93&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>omega_5,(1)</v>
       </c>
       <c r="K93" s="9">
@@ -4821,7 +4822,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>34</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f>CONCATENATE(C94, "_", E94, IF(E94&lt;&gt;"",",",""), F94, IF(F94&lt;&gt;"",",",""),  G94, IF(G94&lt;&gt;"",",",""),  H94, IF(I94&lt;&gt;"","(",""), I94, IF(I94&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_34,</v>
       </c>
       <c r="K94" s="9">
@@ -4848,7 +4849,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -4865,14 +4866,14 @@
         <v>36</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f>CONCATENATE(C95, "_", E95, IF(E95&lt;&gt;"",",",""), F95, IF(F95&lt;&gt;"",",",""),  G95, IF(G95&lt;&gt;"",",",""),  H95, IF(I95&lt;&gt;"","(",""), I95, IF(I95&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_36,</v>
       </c>
       <c r="K95" s="9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -4889,14 +4890,14 @@
         <v>46</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f>CONCATENATE(C96, "_", E96, IF(E96&lt;&gt;"",",",""), F96, IF(F96&lt;&gt;"",",",""),  G96, IF(G96&lt;&gt;"",",",""),  H96, IF(I96&lt;&gt;"","(",""), I96, IF(I96&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_46,</v>
       </c>
       <c r="K96" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -4913,14 +4914,14 @@
         <v>56</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f>CONCATENATE(C97, "_", E97, IF(E97&lt;&gt;"",",",""), F97, IF(F97&lt;&gt;"",",",""),  G97, IF(G97&lt;&gt;"",",",""),  H97, IF(I97&lt;&gt;"","(",""), I97, IF(I97&lt;&gt;"",")",""))</f>
+        <f t="shared" si="4"/>
         <v>pi_56,</v>
       </c>
       <c r="K97" s="9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -4939,14 +4940,14 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f>CONCATENATE(C98, "_", E98, IF(E98&lt;&gt;"",",",""), F98, IF(F98&lt;&gt;"",",",""),  G98, IF(G98&lt;&gt;"",",",""),  H98, IF(I98&lt;&gt;"","(",""), I98, IF(I98&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J98:J129" si="7">CONCATENATE(C98, "_", E98, IF(E98&lt;&gt;"",",",""), F98, IF(F98&lt;&gt;"",",",""),  G98, IF(G98&lt;&gt;"",",",""),  H98, IF(I98&lt;&gt;"","(",""), I98, IF(I98&lt;&gt;"",")",""))</f>
         <v>theta_1,</v>
       </c>
       <c r="K98" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -4965,14 +4966,14 @@
         <v>2</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f>CONCATENATE(C99, "_", E99, IF(E99&lt;&gt;"",",",""), F99, IF(F99&lt;&gt;"",",",""),  G99, IF(G99&lt;&gt;"",",",""),  H99, IF(I99&lt;&gt;"","(",""), I99, IF(I99&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_2,</v>
       </c>
       <c r="K99" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -4991,14 +4992,14 @@
         <v>3</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f>CONCATENATE(C100, "_", E100, IF(E100&lt;&gt;"",",",""), F100, IF(F100&lt;&gt;"",",",""),  G100, IF(G100&lt;&gt;"",",",""),  H100, IF(I100&lt;&gt;"","(",""), I100, IF(I100&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_3,</v>
       </c>
       <c r="K100" s="9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5017,14 +5018,14 @@
         <v>4</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f>CONCATENATE(C101, "_", E101, IF(E101&lt;&gt;"",",",""), F101, IF(F101&lt;&gt;"",",",""),  G101, IF(G101&lt;&gt;"",",",""),  H101, IF(I101&lt;&gt;"","(",""), I101, IF(I101&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>theta_4,</v>
       </c>
       <c r="K101" s="9">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5041,14 +5042,14 @@
         <v>67</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f>CONCATENATE(C102, "_", E102, IF(E102&lt;&gt;"",",",""), F102, IF(F102&lt;&gt;"",",",""),  G102, IF(G102&lt;&gt;"",",",""),  H102, IF(I102&lt;&gt;"","(",""), I102, IF(I102&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>pi_67,</v>
       </c>
       <c r="K102" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f>CONCATENATE(C103, "_", E103, IF(E103&lt;&gt;"",",",""), F103, IF(F103&lt;&gt;"",",",""),  G103, IF(G103&lt;&gt;"",",",""),  H103, IF(I103&lt;&gt;"","(",""), I103, IF(I103&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(3)</v>
       </c>
       <c r="K103" s="9">
@@ -5080,7 +5081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f>CONCATENATE(C104, "_", E104, IF(E104&lt;&gt;"",",",""), F104, IF(F104&lt;&gt;"",",",""),  G104, IF(G104&lt;&gt;"",",",""),  H104, IF(I104&lt;&gt;"","(",""), I104, IF(I104&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(3)</v>
       </c>
       <c r="K104" s="9">
@@ -5112,7 +5113,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f>CONCATENATE(C105, "_", E105, IF(E105&lt;&gt;"",",",""), F105, IF(F105&lt;&gt;"",",",""),  G105, IF(G105&lt;&gt;"",",",""),  H105, IF(I105&lt;&gt;"","(",""), I105, IF(I105&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(3)</v>
       </c>
       <c r="K105" s="9">
@@ -5145,7 +5146,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f>CONCATENATE(C106, "_", E106, IF(E106&lt;&gt;"",",",""), F106, IF(F106&lt;&gt;"",",",""),  G106, IF(G106&lt;&gt;"",",",""),  H106, IF(I106&lt;&gt;"","(",""), I106, IF(I106&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(3)</v>
       </c>
       <c r="K106" s="9">
@@ -5178,7 +5179,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f>CONCATENATE(C107, "_", E107, IF(E107&lt;&gt;"",",",""), F107, IF(F107&lt;&gt;"",",",""),  G107, IF(G107&lt;&gt;"",",",""),  H107, IF(I107&lt;&gt;"","(",""), I107, IF(I107&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(2)</v>
       </c>
       <c r="K107" s="9">
@@ -5210,7 +5211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5232,14 +5233,14 @@
         <v>2</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f>CONCATENATE(C108, "_", E108, IF(E108&lt;&gt;"",",",""), F108, IF(F108&lt;&gt;"",",",""),  G108, IF(G108&lt;&gt;"",",",""),  H108, IF(I108&lt;&gt;"","(",""), I108, IF(I108&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(2)</v>
       </c>
       <c r="K108" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f>CONCATENATE(C109, "_", E109, IF(E109&lt;&gt;"",",",""), F109, IF(F109&lt;&gt;"",",",""),  G109, IF(G109&lt;&gt;"",",",""),  H109, IF(I109&lt;&gt;"","(",""), I109, IF(I109&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(2)</v>
       </c>
       <c r="K109" s="9">
@@ -5269,7 +5270,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f>CONCATENATE(C110, "_", E110, IF(E110&lt;&gt;"",",",""), F110, IF(F110&lt;&gt;"",",",""),  G110, IF(G110&lt;&gt;"",",",""),  H110, IF(I110&lt;&gt;"","(",""), I110, IF(I110&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(2)</v>
       </c>
       <c r="K110" s="9">
@@ -5299,7 +5300,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5321,14 +5322,14 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f>CONCATENATE(C111, "_", E111, IF(E111&lt;&gt;"",",",""), F111, IF(F111&lt;&gt;"",",",""),  G111, IF(G111&lt;&gt;"",",",""),  H111, IF(I111&lt;&gt;"","(",""), I111, IF(I111&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_12,(1)</v>
       </c>
       <c r="K111" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5350,14 +5351,14 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f>CONCATENATE(C112, "_", E112, IF(E112&lt;&gt;"",",",""), F112, IF(F112&lt;&gt;"",",",""),  G112, IF(G112&lt;&gt;"",",",""),  H112, IF(I112&lt;&gt;"","(",""), I112, IF(I112&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_23,(1)</v>
       </c>
       <c r="K112" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5379,14 +5380,14 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f>CONCATENATE(C113, "_", E113, IF(E113&lt;&gt;"",",",""), F113, IF(F113&lt;&gt;"",",",""),  G113, IF(G113&lt;&gt;"",",",""),  H113, IF(I113&lt;&gt;"","(",""), I113, IF(I113&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_24,(1)</v>
       </c>
       <c r="K113" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5408,19 +5409,19 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f>CONCATENATE(C114, "_", E114, IF(E114&lt;&gt;"",",",""), F114, IF(F114&lt;&gt;"",",",""),  G114, IF(G114&lt;&gt;"",",",""),  H114, IF(I114&lt;&gt;"","(",""), I114, IF(I114&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>eta_34,(1)</v>
       </c>
       <c r="K114" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B115" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E115,TB_SET,2)," and HIV compartment ",VLOOKUP(G115,HIV_SET,2)," and gender compartment ",VLOOKUP(H115,G_SET,2)," per year")</f>
+        <f t="shared" ref="B115:B146" si="8">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E115,TB_SET,2)," and HIV compartment ",VLOOKUP(G115,HIV_SET,2)," and gender compartment ",VLOOKUP(H115,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -5439,19 +5440,19 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f>CONCATENATE(C115, "_", E115, IF(E115&lt;&gt;"",",",""), F115, IF(F115&lt;&gt;"",",",""),  G115, IF(G115&lt;&gt;"",",",""),  H115, IF(I115&lt;&gt;"","(",""), I115, IF(I115&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,1,1</v>
       </c>
       <c r="K115" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E116,TB_SET,2)," and HIV compartment ",VLOOKUP(G116,HIV_SET,2)," and gender compartment ",VLOOKUP(H116,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -5470,19 +5471,19 @@
         <v>2</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f>CONCATENATE(C116, "_", E116, IF(E116&lt;&gt;"",",",""), F116, IF(F116&lt;&gt;"",",",""),  G116, IF(G116&lt;&gt;"",",",""),  H116, IF(I116&lt;&gt;"","(",""), I116, IF(I116&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,1,2</v>
       </c>
       <c r="K116" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B117" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E117,TB_SET,2)," and HIV compartment ",VLOOKUP(G117,HIV_SET,2)," and gender compartment ",VLOOKUP(H117,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -5501,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f>CONCATENATE(C117, "_", E117, IF(E117&lt;&gt;"",",",""), F117, IF(F117&lt;&gt;"",",",""),  G117, IF(G117&lt;&gt;"",",",""),  H117, IF(I117&lt;&gt;"","(",""), I117, IF(I117&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,2,1</v>
       </c>
       <c r="K117" s="23">
@@ -5509,12 +5510,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E118,TB_SET,2)," and HIV compartment ",VLOOKUP(G118,HIV_SET,2)," and gender compartment ",VLOOKUP(H118,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -5533,20 +5534,20 @@
         <v>2</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f>CONCATENATE(C118, "_", E118, IF(E118&lt;&gt;"",",",""), F118, IF(F118&lt;&gt;"",",",""),  G118, IF(G118&lt;&gt;"",",",""),  H118, IF(I118&lt;&gt;"","(",""), I118, IF(I118&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,2,2</v>
       </c>
       <c r="K118" s="23">
-        <f t="shared" ref="K118:K122" si="0">K116*1.05</f>
+        <f t="shared" ref="K118:K122" si="9">K116*1.05</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B119" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E119,TB_SET,2)," and HIV compartment ",VLOOKUP(G119,HIV_SET,2)," and gender compartment ",VLOOKUP(H119,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -5565,20 +5566,20 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f>CONCATENATE(C119, "_", E119, IF(E119&lt;&gt;"",",",""), F119, IF(F119&lt;&gt;"",",",""),  G119, IF(G119&lt;&gt;"",",",""),  H119, IF(I119&lt;&gt;"","(",""), I119, IF(I119&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,3,1</v>
       </c>
       <c r="K119" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B120" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E120,TB_SET,2)," and HIV compartment ",VLOOKUP(G120,HIV_SET,2)," and gender compartment ",VLOOKUP(H120,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -5597,20 +5598,20 @@
         <v>2</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f>CONCATENATE(C120, "_", E120, IF(E120&lt;&gt;"",",",""), F120, IF(F120&lt;&gt;"",",",""),  G120, IF(G120&lt;&gt;"",",",""),  H120, IF(I120&lt;&gt;"","(",""), I120, IF(I120&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,3,2</v>
       </c>
       <c r="K120" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E121,TB_SET,2)," and HIV compartment ",VLOOKUP(G121,HIV_SET,2)," and gender compartment ",VLOOKUP(H121,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -5629,20 +5630,20 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f>CONCATENATE(C121, "_", E121, IF(E121&lt;&gt;"",",",""), F121, IF(F121&lt;&gt;"",",",""),  G121, IF(G121&lt;&gt;"",",",""),  H121, IF(I121&lt;&gt;"","(",""), I121, IF(I121&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,4,1</v>
       </c>
       <c r="K121" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B122" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E122,TB_SET,2)," and HIV compartment ",VLOOKUP(G122,HIV_SET,2)," and gender compartment ",VLOOKUP(H122,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, not on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -5661,20 +5662,20 @@
         <v>2</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f>CONCATENATE(C122, "_", E122, IF(E122&lt;&gt;"",",",""), F122, IF(F122&lt;&gt;"",",",""),  G122, IF(G122&lt;&gt;"",",",""),  H122, IF(I122&lt;&gt;"","(",""), I122, IF(I122&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_1,4,2</v>
       </c>
       <c r="K122" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B123" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E123,TB_SET,2)," and HIV compartment ",VLOOKUP(G123,HIV_SET,2)," and gender compartment ",VLOOKUP(H123,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -5693,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f>CONCATENATE(C123, "_", E123, IF(E123&lt;&gt;"",",",""), F123, IF(F123&lt;&gt;"",",",""),  G123, IF(G123&lt;&gt;"",",",""),  H123, IF(I123&lt;&gt;"","(",""), I123, IF(I123&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,1,1</v>
       </c>
       <c r="K123" s="23">
@@ -5701,12 +5702,12 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E124,TB_SET,2)," and HIV compartment ",VLOOKUP(G124,HIV_SET,2)," and gender compartment ",VLOOKUP(H124,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -5725,20 +5726,20 @@
         <v>2</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f>CONCATENATE(C124, "_", E124, IF(E124&lt;&gt;"",",",""), F124, IF(F124&lt;&gt;"",",",""),  G124, IF(G124&lt;&gt;"",",",""),  H124, IF(I124&lt;&gt;"","(",""), I124, IF(I124&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,1,2</v>
       </c>
       <c r="K124" s="23">
-        <f t="shared" ref="K124:K125" si="1">K116*1.1</f>
+        <f t="shared" ref="K124:K125" si="10">K116*1.1</f>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B125" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E125,TB_SET,2)," and HIV compartment ",VLOOKUP(G125,HIV_SET,2)," and gender compartment ",VLOOKUP(H125,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -5757,20 +5758,20 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f>CONCATENATE(C125, "_", E125, IF(E125&lt;&gt;"",",",""), F125, IF(F125&lt;&gt;"",",",""),  G125, IF(G125&lt;&gt;"",",",""),  H125, IF(I125&lt;&gt;"","(",""), I125, IF(I125&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,2,1</v>
       </c>
       <c r="K125" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
       <c r="B126" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E126,TB_SET,2)," and HIV compartment ",VLOOKUP(G126,HIV_SET,2)," and gender compartment ",VLOOKUP(H126,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -5789,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f>CONCATENATE(C126, "_", E126, IF(E126&lt;&gt;"",",",""), F126, IF(F126&lt;&gt;"",",",""),  G126, IF(G126&lt;&gt;"",",",""),  H126, IF(I126&lt;&gt;"","(",""), I126, IF(I126&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,2,2</v>
       </c>
       <c r="K126" s="23">
@@ -5797,12 +5798,12 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B127" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E127,TB_SET,2)," and HIV compartment ",VLOOKUP(G127,HIV_SET,2)," and gender compartment ",VLOOKUP(H127,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -5821,20 +5822,20 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f>CONCATENATE(C127, "_", E127, IF(E127&lt;&gt;"",",",""), F127, IF(F127&lt;&gt;"",",",""),  G127, IF(G127&lt;&gt;"",",",""),  H127, IF(I127&lt;&gt;"","(",""), I127, IF(I127&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,3,1</v>
       </c>
       <c r="K127" s="23">
-        <f t="shared" ref="K119:K178" si="2">K125*1.1</f>
+        <f t="shared" ref="K127:K154" si="11">K125*1.1</f>
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B128" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E128,TB_SET,2)," and HIV compartment ",VLOOKUP(G128,HIV_SET,2)," and gender compartment ",VLOOKUP(H128,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -5853,20 +5854,20 @@
         <v>2</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f>CONCATENATE(C128, "_", E128, IF(E128&lt;&gt;"",",",""), F128, IF(F128&lt;&gt;"",",",""),  G128, IF(G128&lt;&gt;"",",",""),  H128, IF(I128&lt;&gt;"","(",""), I128, IF(I128&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,3,2</v>
       </c>
       <c r="K128" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E129,TB_SET,2)," and HIV compartment ",VLOOKUP(G129,HIV_SET,2)," and gender compartment ",VLOOKUP(H129,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -5885,20 +5886,20 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f>CONCATENATE(C129, "_", E129, IF(E129&lt;&gt;"",",",""), F129, IF(F129&lt;&gt;"",",",""),  G129, IF(G129&lt;&gt;"",",",""),  H129, IF(I129&lt;&gt;"","(",""), I129, IF(I129&lt;&gt;"",")",""))</f>
+        <f t="shared" si="7"/>
         <v>mu_2,4,1</v>
       </c>
       <c r="K129" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E130,TB_SET,2)," and HIV compartment ",VLOOKUP(G130,HIV_SET,2)," and gender compartment ",VLOOKUP(H130,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  Uninfected, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -5917,20 +5918,20 @@
         <v>2</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f>CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J130:J161" si="12">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
         <v>mu_2,4,2</v>
       </c>
       <c r="K130" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E131,TB_SET,2)," and HIV compartment ",VLOOKUP(G131,HIV_SET,2)," and gender compartment ",VLOOKUP(H131,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -5949,19 +5950,19 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f>CONCATENATE(C131, "_", E131, IF(E131&lt;&gt;"",",",""), F131, IF(F131&lt;&gt;"",",",""),  G131, IF(G131&lt;&gt;"",",",""),  H131, IF(I131&lt;&gt;"","(",""), I131, IF(I131&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,1,1</v>
       </c>
       <c r="K131" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
       <c r="B132" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E132,TB_SET,2)," and HIV compartment ",VLOOKUP(G132,HIV_SET,2)," and gender compartment ",VLOOKUP(H132,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -5980,20 +5981,20 @@
         <v>2</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f>CONCATENATE(C132, "_", E132, IF(E132&lt;&gt;"",",",""), F132, IF(F132&lt;&gt;"",",",""),  G132, IF(G132&lt;&gt;"",",",""),  H132, IF(I132&lt;&gt;"","(",""), I132, IF(I132&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,1,2</v>
       </c>
       <c r="K132" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.0746100000000009E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B133" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E133,TB_SET,2)," and HIV compartment ",VLOOKUP(G133,HIV_SET,2)," and gender compartment ",VLOOKUP(H133,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -6012,20 +6013,20 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f>CONCATENATE(C133, "_", E133, IF(E133&lt;&gt;"",",",""), F133, IF(F133&lt;&gt;"",",",""),  G133, IF(G133&lt;&gt;"",",",""),  H133, IF(I133&lt;&gt;"","(",""), I133, IF(I133&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,2,1</v>
       </c>
       <c r="K133" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B134" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E134,TB_SET,2)," and HIV compartment ",VLOOKUP(G134,HIV_SET,2)," and gender compartment ",VLOOKUP(H134,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -6044,20 +6045,20 @@
         <v>2</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f>CONCATENATE(C134, "_", E134, IF(E134&lt;&gt;"",",",""), F134, IF(F134&lt;&gt;"",",",""),  G134, IF(G134&lt;&gt;"",",",""),  H134, IF(I134&lt;&gt;"","(",""), I134, IF(I134&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,2,2</v>
       </c>
       <c r="K134" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.3820710000000011E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
       <c r="B135" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E135,TB_SET,2)," and HIV compartment ",VLOOKUP(G135,HIV_SET,2)," and gender compartment ",VLOOKUP(H135,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -6076,20 +6077,20 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f>CONCATENATE(C135, "_", E135, IF(E135&lt;&gt;"",",",""), F135, IF(F135&lt;&gt;"",",",""),  G135, IF(G135&lt;&gt;"",",",""),  H135, IF(I135&lt;&gt;"","(",""), I135, IF(I135&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,3,1</v>
       </c>
       <c r="K135" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B136" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E136,TB_SET,2)," and HIV compartment ",VLOOKUP(G136,HIV_SET,2)," and gender compartment ",VLOOKUP(H136,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -6108,20 +6109,20 @@
         <v>2</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f>CONCATENATE(C136, "_", E136, IF(E136&lt;&gt;"",",",""), F136, IF(F136&lt;&gt;"",",",""),  G136, IF(G136&lt;&gt;"",",",""),  H136, IF(I136&lt;&gt;"","(",""), I136, IF(I136&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,3,2</v>
       </c>
       <c r="K136" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.7202781000000018E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B137" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E137,TB_SET,2)," and HIV compartment ",VLOOKUP(G137,HIV_SET,2)," and gender compartment ",VLOOKUP(H137,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -6140,20 +6141,20 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f>CONCATENATE(C137, "_", E137, IF(E137&lt;&gt;"",",",""), F137, IF(F137&lt;&gt;"",",",""),  G137, IF(G137&lt;&gt;"",",",""),  H137, IF(I137&lt;&gt;"","(",""), I137, IF(I137&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,4,1</v>
       </c>
       <c r="K137" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.6620000000000005E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B138" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E138,TB_SET,2)," and HIV compartment ",VLOOKUP(G138,HIV_SET,2)," and gender compartment ",VLOOKUP(H138,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected recently (at risk for rapid progression) and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -6172,20 +6173,20 @@
         <v>2</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f>CONCATENATE(C138, "_", E138, IF(E138&lt;&gt;"",",",""), F138, IF(F138&lt;&gt;"",",",""),  G138, IF(G138&lt;&gt;"",",",""),  H138, IF(I138&lt;&gt;"","(",""), I138, IF(I138&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_3,4,2</v>
       </c>
       <c r="K138" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
       <c r="B139" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E139,TB_SET,2)," and HIV compartment ",VLOOKUP(G139,HIV_SET,2)," and gender compartment ",VLOOKUP(H139,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -6204,20 +6205,20 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f>CONCATENATE(C139, "_", E139, IF(E139&lt;&gt;"",",",""), F139, IF(F139&lt;&gt;"",",",""),  G139, IF(G139&lt;&gt;"",",",""),  H139, IF(I139&lt;&gt;"","(",""), I139, IF(I139&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,1,1</v>
       </c>
       <c r="K139" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9282000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B140" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E140,TB_SET,2)," and HIV compartment ",VLOOKUP(G140,HIV_SET,2)," and gender compartment ",VLOOKUP(H140,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -6236,20 +6237,20 @@
         <v>2</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f>CONCATENATE(C140, "_", E140, IF(E140&lt;&gt;"",",",""), F140, IF(F140&lt;&gt;"",",",""),  G140, IF(G140&lt;&gt;"",",",""),  H140, IF(I140&lt;&gt;"","(",""), I140, IF(I140&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,1,2</v>
       </c>
       <c r="K140" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.5015365010000023E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B141" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E141,TB_SET,2)," and HIV compartment ",VLOOKUP(G141,HIV_SET,2)," and gender compartment ",VLOOKUP(H141,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -6268,20 +6269,20 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f>CONCATENATE(C141, "_", E141, IF(E141&lt;&gt;"",",",""), F141, IF(F141&lt;&gt;"",",",""),  G141, IF(G141&lt;&gt;"",",",""),  H141, IF(I141&lt;&gt;"","(",""), I141, IF(I141&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,2,1</v>
       </c>
       <c r="K141" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.2210200000000008E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
       <c r="B142" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E142,TB_SET,2)," and HIV compartment ",VLOOKUP(G142,HIV_SET,2)," and gender compartment ",VLOOKUP(H142,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -6300,20 +6301,20 @@
         <v>2</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f>CONCATENATE(C142, "_", E142, IF(E142&lt;&gt;"",",",""), F142, IF(F142&lt;&gt;"",",",""),  G142, IF(G142&lt;&gt;"",",",""),  H142, IF(I142&lt;&gt;"","(",""), I142, IF(I142&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,2,2</v>
       </c>
       <c r="K142" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.9516901511000029E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
       <c r="B143" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E143,TB_SET,2)," and HIV compartment ",VLOOKUP(G143,HIV_SET,2)," and gender compartment ",VLOOKUP(H143,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -6332,20 +6333,20 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f>CONCATENATE(C143, "_", E143, IF(E143&lt;&gt;"",",",""), F143, IF(F143&lt;&gt;"",",",""),  G143, IF(G143&lt;&gt;"",",",""),  H143, IF(I143&lt;&gt;"","(",""), I143, IF(I143&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,3,1</v>
       </c>
       <c r="K143" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.5431220000000013E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B144" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E144,TB_SET,2)," and HIV compartment ",VLOOKUP(G144,HIV_SET,2)," and gender compartment ",VLOOKUP(H144,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -6364,20 +6365,20 @@
         <v>2</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f>CONCATENATE(C144, "_", E144, IF(E144&lt;&gt;"",",",""), F144, IF(F144&lt;&gt;"",",",""),  G144, IF(G144&lt;&gt;"",",",""),  H144, IF(I144&lt;&gt;"","(",""), I144, IF(I144&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,3,2</v>
       </c>
       <c r="K144" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.4468591662100038E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
       <c r="B145" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E145,TB_SET,2)," and HIV compartment ",VLOOKUP(G145,HIV_SET,2)," and gender compartment ",VLOOKUP(H145,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -6396,20 +6397,20 @@
         <v>1</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f>CONCATENATE(C145, "_", E145, IF(E145&lt;&gt;"",",",""), F145, IF(F145&lt;&gt;"",",",""),  G145, IF(G145&lt;&gt;"",",",""),  H145, IF(I145&lt;&gt;"","(",""), I145, IF(I145&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,4,1</v>
       </c>
       <c r="K145" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.8974342000000016E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B146" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E146,TB_SET,2)," and HIV compartment ",VLOOKUP(G146,HIV_SET,2)," and gender compartment ",VLOOKUP(H146,G_SET,2)," per year")</f>
+        <f t="shared" si="8"/>
         <v>Mortality rates from populations in TB compartment  LTBI, infected remotely and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -6428,20 +6429,20 @@
         <v>2</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f>CONCATENATE(C146, "_", E146, IF(E146&lt;&gt;"",",",""), F146, IF(F146&lt;&gt;"",",",""),  G146, IF(G146&lt;&gt;"",",",""),  H146, IF(I146&lt;&gt;"","(",""), I146, IF(I146&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_4,4,2</v>
       </c>
       <c r="K146" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.9915450828310048E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B147" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
+        <f t="shared" ref="B147:B178" si="13">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -6460,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f>CONCATENATE(C147, "_", E147, IF(E147&lt;&gt;"",",",""), F147, IF(F147&lt;&gt;"",",",""),  G147, IF(G147&lt;&gt;"",",",""),  H147, IF(I147&lt;&gt;"","(",""), I147, IF(I147&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,1,1</v>
       </c>
       <c r="K147" s="23">
@@ -6468,12 +6469,12 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B148" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E148,TB_SET,2)," and HIV compartment ",VLOOKUP(G148,HIV_SET,2)," and gender compartment ",VLOOKUP(H148,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -6492,7 +6493,7 @@
         <v>2</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f>CONCATENATE(C148, "_", E148, IF(E148&lt;&gt;"",",",""), F148, IF(F148&lt;&gt;"",",",""),  G148, IF(G148&lt;&gt;"",",",""),  H148, IF(I148&lt;&gt;"","(",""), I148, IF(I148&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,1,2</v>
       </c>
       <c r="K148" s="23">
@@ -6500,12 +6501,12 @@
         <v>6.2911223369725558E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B149" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E149,TB_SET,2)," and HIV compartment ",VLOOKUP(G149,HIV_SET,2)," and gender compartment ",VLOOKUP(H149,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -6524,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f>CONCATENATE(C149, "_", E149, IF(E149&lt;&gt;"",",",""), F149, IF(F149&lt;&gt;"",",",""),  G149, IF(G149&lt;&gt;"",",",""),  H149, IF(I149&lt;&gt;"","(",""), I149, IF(I149&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,2,1</v>
       </c>
       <c r="K149" s="23">
@@ -6532,12 +6533,12 @@
         <v>4.2969212055000025E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B150" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E150,TB_SET,2)," and HIV compartment ",VLOOKUP(G150,HIV_SET,2)," and gender compartment ",VLOOKUP(H150,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -6556,20 +6557,20 @@
         <v>2</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f>CONCATENATE(C150, "_", E150, IF(E150&lt;&gt;"",",",""), F150, IF(F150&lt;&gt;"",",",""),  G150, IF(G150&lt;&gt;"",",",""),  H150, IF(I150&lt;&gt;"","(",""), I150, IF(I150&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,2,2</v>
       </c>
       <c r="K150" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.9202345706698115E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B151" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E151,TB_SET,2)," and HIV compartment ",VLOOKUP(G151,HIV_SET,2)," and gender compartment ",VLOOKUP(H151,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -6588,20 +6589,20 @@
         <v>1</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f>CONCATENATE(C151, "_", E151, IF(E151&lt;&gt;"",",",""), F151, IF(F151&lt;&gt;"",",",""),  G151, IF(G151&lt;&gt;"",",",""),  H151, IF(I151&lt;&gt;"","(",""), I151, IF(I151&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,3,1</v>
       </c>
       <c r="K151" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.7266133260500033E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
       <c r="B152" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E152,TB_SET,2)," and HIV compartment ",VLOOKUP(G152,HIV_SET,2)," and gender compartment ",VLOOKUP(H152,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -6620,20 +6621,20 @@
         <v>2</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f>CONCATENATE(C152, "_", E152, IF(E152&lt;&gt;"",",",""), F152, IF(F152&lt;&gt;"",",",""),  G152, IF(G152&lt;&gt;"",",",""),  H152, IF(I152&lt;&gt;"","(",""), I152, IF(I152&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,3,2</v>
       </c>
       <c r="K152" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.6122580277367929E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B153" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E153,TB_SET,2)," and HIV compartment ",VLOOKUP(G153,HIV_SET,2)," and gender compartment ",VLOOKUP(H153,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -6652,20 +6653,20 @@
         <v>1</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f>CONCATENATE(C153, "_", E153, IF(E153&lt;&gt;"",",",""), F153, IF(F153&lt;&gt;"",",",""),  G153, IF(G153&lt;&gt;"",",",""),  H153, IF(I153&lt;&gt;"","(",""), I153, IF(I153&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,4,1</v>
       </c>
       <c r="K153" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.1992746586550044E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B154" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E154,TB_SET,2)," and HIV compartment ",VLOOKUP(G154,HIV_SET,2)," and gender compartment ",VLOOKUP(H154,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -6684,20 +6685,20 @@
         <v>2</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f>CONCATENATE(C154, "_", E154, IF(E154&lt;&gt;"",",",""), F154, IF(F154&lt;&gt;"",",",""),  G154, IF(G154&lt;&gt;"",",",""),  H154, IF(I154&lt;&gt;"","(",""), I154, IF(I154&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_5,4,2</v>
       </c>
       <c r="K154" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.3734838305104725E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B155" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E155,TB_SET,2)," and HIV compartment ",VLOOKUP(G155,HIV_SET,2)," and gender compartment ",VLOOKUP(H155,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -6716,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f>CONCATENATE(C155, "_", E155, IF(E155&lt;&gt;"",",",""), F155, IF(F155&lt;&gt;"",",",""),  G155, IF(G155&lt;&gt;"",",",""),  H155, IF(I155&lt;&gt;"","(",""), I155, IF(I155&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,1,1</v>
       </c>
       <c r="K155" s="23">
@@ -6724,12 +6725,12 @@
         <v>6.7590570562515065E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B156" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E156,TB_SET,2)," and HIV compartment ",VLOOKUP(G156,HIV_SET,2)," and gender compartment ",VLOOKUP(H156,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -6748,20 +6749,20 @@
         <v>2</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f>CONCATENATE(C156, "_", E156, IF(E156&lt;&gt;"",",",""), F156, IF(F156&lt;&gt;"",",",""),  G156, IF(G156&lt;&gt;"",",",""),  H156, IF(I156&lt;&gt;"","(",""), I156, IF(I156&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,1,2</v>
       </c>
       <c r="K156" s="23">
-        <f t="shared" ref="K156:K162" si="3">K154*1.3</f>
+        <f t="shared" ref="K156:K162" si="14">K154*1.3</f>
         <v>0.10885528979663614</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B157" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E157,TB_SET,2)," and HIV compartment ",VLOOKUP(G157,HIV_SET,2)," and gender compartment ",VLOOKUP(H157,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -6780,20 +6781,20 @@
         <v>1</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f>CONCATENATE(C157, "_", E157, IF(E157&lt;&gt;"",",",""), F157, IF(F157&lt;&gt;"",",",""),  G157, IF(G157&lt;&gt;"",",",""),  H157, IF(I157&lt;&gt;"","(",""), I157, IF(I157&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,2,1</v>
       </c>
       <c r="K157" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.7867741731269586E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
       <c r="B158" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E158,TB_SET,2)," and HIV compartment ",VLOOKUP(G158,HIV_SET,2)," and gender compartment ",VLOOKUP(H158,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -6812,20 +6813,20 @@
         <v>2</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f>CONCATENATE(C158, "_", E158, IF(E158&lt;&gt;"",",",""), F158, IF(F158&lt;&gt;"",",",""),  G158, IF(G158&lt;&gt;"",",",""),  H158, IF(I158&lt;&gt;"","(",""), I158, IF(I158&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,2,2</v>
       </c>
       <c r="K158" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.14151187673562698</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B159" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E159,TB_SET,2)," and HIV compartment ",VLOOKUP(G159,HIV_SET,2)," and gender compartment ",VLOOKUP(H159,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -6844,20 +6845,20 @@
         <v>1</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f>CONCATENATE(C159, "_", E159, IF(E159&lt;&gt;"",",",""), F159, IF(F159&lt;&gt;"",",",""),  G159, IF(G159&lt;&gt;"",",",""),  H159, IF(I159&lt;&gt;"","(",""), I159, IF(I159&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,3,1</v>
       </c>
       <c r="K159" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.11422806425065046</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B160" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E160,TB_SET,2)," and HIV compartment ",VLOOKUP(G160,HIV_SET,2)," and gender compartment ",VLOOKUP(H160,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -6876,20 +6877,20 @@
         <v>2</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f>CONCATENATE(C160, "_", E160, IF(E160&lt;&gt;"",",",""), F160, IF(F160&lt;&gt;"",",",""),  G160, IF(G160&lt;&gt;"",",",""),  H160, IF(I160&lt;&gt;"","(",""), I160, IF(I160&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,3,2</v>
       </c>
       <c r="K160" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.18396543975631507</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E161,TB_SET,2)," and HIV compartment ",VLOOKUP(G161,HIV_SET,2)," and gender compartment ",VLOOKUP(H161,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -6908,20 +6909,20 @@
         <v>1</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f>CONCATENATE(C161, "_", E161, IF(E161&lt;&gt;"",",",""), F161, IF(F161&lt;&gt;"",",",""),  G161, IF(G161&lt;&gt;"",",",""),  H161, IF(I161&lt;&gt;"","(",""), I161, IF(I161&lt;&gt;"",")",""))</f>
+        <f t="shared" si="12"/>
         <v>mu_6,4,1</v>
       </c>
       <c r="K161" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.1484964835258456</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B162" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E162,TB_SET,2)," and HIV compartment ",VLOOKUP(G162,HIV_SET,2)," and gender compartment ",VLOOKUP(H162,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -6940,20 +6941,20 @@
         <v>2</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f>CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J162:J193" si="15">CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
         <v>mu_6,4,2</v>
       </c>
       <c r="K162" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.2391550716832096</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B163" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E163,TB_SET,2)," and HIV compartment ",VLOOKUP(G163,HIV_SET,2)," and gender compartment ",VLOOKUP(H163,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -6972,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f>CONCATENATE(C163, "_", E163, IF(E163&lt;&gt;"",",",""), F163, IF(F163&lt;&gt;"",",",""),  G163, IF(G163&lt;&gt;"",",",""),  H163, IF(I163&lt;&gt;"","(",""), I163, IF(I163&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,1,1</v>
       </c>
       <c r="K163" s="23">
@@ -6980,12 +6981,12 @@
         <v>0.11879718682067648</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
       <c r="B164" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E164,TB_SET,2)," and HIV compartment ",VLOOKUP(G164,HIV_SET,2)," and gender compartment ",VLOOKUP(H164,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -7004,20 +7005,20 @@
         <v>2</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f>CONCATENATE(C164, "_", E164, IF(E164&lt;&gt;"",",",""), F164, IF(F164&lt;&gt;"",",",""),  G164, IF(G164&lt;&gt;"",",",""),  H164, IF(I164&lt;&gt;"","(",""), I164, IF(I164&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,1,2</v>
       </c>
       <c r="K164" s="23">
-        <f t="shared" ref="K164:K170" si="4">K162*0.8</f>
+        <f t="shared" ref="K164:K170" si="16">K162*0.8</f>
         <v>0.19132405734656768</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
       <c r="B165" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E165,TB_SET,2)," and HIV compartment ",VLOOKUP(G165,HIV_SET,2)," and gender compartment ",VLOOKUP(H165,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -7036,20 +7037,20 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f>CONCATENATE(C165, "_", E165, IF(E165&lt;&gt;"",",",""), F165, IF(F165&lt;&gt;"",",",""),  G165, IF(G165&lt;&gt;"",",",""),  H165, IF(I165&lt;&gt;"","(",""), I165, IF(I165&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,2,1</v>
       </c>
       <c r="K165" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9.5037749456541198E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B166" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E166,TB_SET,2)," and HIV compartment ",VLOOKUP(G166,HIV_SET,2)," and gender compartment ",VLOOKUP(H166,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -7068,20 +7069,20 @@
         <v>2</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f>CONCATENATE(C166, "_", E166, IF(E166&lt;&gt;"",",",""), F166, IF(F166&lt;&gt;"",",",""),  G166, IF(G166&lt;&gt;"",",",""),  H166, IF(I166&lt;&gt;"","(",""), I166, IF(I166&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,2,2</v>
       </c>
       <c r="K166" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.15305924587725417</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
       <c r="B167" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E167,TB_SET,2)," and HIV compartment ",VLOOKUP(G167,HIV_SET,2)," and gender compartment ",VLOOKUP(H167,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -7100,20 +7101,20 @@
         <v>1</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f>CONCATENATE(C167, "_", E167, IF(E167&lt;&gt;"",",",""), F167, IF(F167&lt;&gt;"",",",""),  G167, IF(G167&lt;&gt;"",",",""),  H167, IF(I167&lt;&gt;"","(",""), I167, IF(I167&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,3,1</v>
       </c>
       <c r="K167" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7.6030199565232964E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B168" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E168,TB_SET,2)," and HIV compartment ",VLOOKUP(G168,HIV_SET,2)," and gender compartment ",VLOOKUP(H168,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -7132,20 +7133,20 @@
         <v>2</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f>CONCATENATE(C168, "_", E168, IF(E168&lt;&gt;"",",",""), F168, IF(F168&lt;&gt;"",",",""),  G168, IF(G168&lt;&gt;"",",",""),  H168, IF(I168&lt;&gt;"","(",""), I168, IF(I168&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,3,2</v>
       </c>
       <c r="K168" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.12244739670180334</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
       <c r="B169" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E169,TB_SET,2)," and HIV compartment ",VLOOKUP(G169,HIV_SET,2)," and gender compartment ",VLOOKUP(H169,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -7164,20 +7165,20 @@
         <v>1</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f>CONCATENATE(C169, "_", E169, IF(E169&lt;&gt;"",",",""), F169, IF(F169&lt;&gt;"",",",""),  G169, IF(G169&lt;&gt;"",",",""),  H169, IF(I169&lt;&gt;"","(",""), I169, IF(I169&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,4,1</v>
       </c>
       <c r="K169" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6.0824159652186377E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E170,TB_SET,2)," and HIV compartment ",VLOOKUP(G170,HIV_SET,2)," and gender compartment ",VLOOKUP(H170,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -7196,20 +7197,20 @@
         <v>2</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f>CONCATENATE(C170, "_", E170, IF(E170&lt;&gt;"",",",""), F170, IF(F170&lt;&gt;"",",",""),  G170, IF(G170&lt;&gt;"",",",""),  H170, IF(I170&lt;&gt;"","(",""), I170, IF(I170&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_7,4,2</v>
       </c>
       <c r="K170" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9.7957917361442673E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E171,TB_SET,2)," and HIV compartment ",VLOOKUP(G171,HIV_SET,2)," and gender compartment ",VLOOKUP(H171,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -7228,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f>CONCATENATE(C171, "_", E171, IF(E171&lt;&gt;"",",",""), F171, IF(F171&lt;&gt;"",",",""),  G171, IF(G171&lt;&gt;"",",",""),  H171, IF(I171&lt;&gt;"","(",""), I171, IF(I171&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,1,1</v>
       </c>
       <c r="K171" s="23">
@@ -7236,12 +7237,12 @@
         <v>4.2576911756530458E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E172,TB_SET,2)," and HIV compartment ",VLOOKUP(G172,HIV_SET,2)," and gender compartment ",VLOOKUP(H172,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -7260,20 +7261,20 @@
         <v>2</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f>CONCATENATE(C172, "_", E172, IF(E172&lt;&gt;"",",",""), F172, IF(F172&lt;&gt;"",",",""),  G172, IF(G172&lt;&gt;"",",",""),  H172, IF(I172&lt;&gt;"","(",""), I172, IF(I172&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,1,2</v>
       </c>
       <c r="K172" s="23">
-        <f t="shared" ref="K172:K178" si="5">K170*0.7</f>
+        <f t="shared" ref="K172:K178" si="17">K170*0.7</f>
         <v>6.8570542153009867E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E173,TB_SET,2)," and HIV compartment ",VLOOKUP(G173,HIV_SET,2)," and gender compartment ",VLOOKUP(H173,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -7292,20 +7293,20 @@
         <v>1</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f>CONCATENATE(C173, "_", E173, IF(E173&lt;&gt;"",",",""), F173, IF(F173&lt;&gt;"",",",""),  G173, IF(G173&lt;&gt;"",",",""),  H173, IF(I173&lt;&gt;"","(",""), I173, IF(I173&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,2,1</v>
       </c>
       <c r="K173" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9803838229571319E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E174,TB_SET,2)," and HIV compartment ",VLOOKUP(G174,HIV_SET,2)," and gender compartment ",VLOOKUP(H174,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -7324,20 +7325,20 @@
         <v>2</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f>CONCATENATE(C174, "_", E174, IF(E174&lt;&gt;"",",",""), F174, IF(F174&lt;&gt;"",",",""),  G174, IF(G174&lt;&gt;"",",",""),  H174, IF(I174&lt;&gt;"","(",""), I174, IF(I174&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,2,2</v>
       </c>
       <c r="K174" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.7999379507106907E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E175,TB_SET,2)," and HIV compartment ",VLOOKUP(G175,HIV_SET,2)," and gender compartment ",VLOOKUP(H175,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -7356,20 +7357,20 @@
         <v>1</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f>CONCATENATE(C175, "_", E175, IF(E175&lt;&gt;"",",",""), F175, IF(F175&lt;&gt;"",",",""),  G175, IF(G175&lt;&gt;"",",",""),  H175, IF(I175&lt;&gt;"","(",""), I175, IF(I175&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,3,1</v>
       </c>
       <c r="K175" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0862686760699922E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E176,TB_SET,2)," and HIV compartment ",VLOOKUP(G176,HIV_SET,2)," and gender compartment ",VLOOKUP(H176,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -7388,20 +7389,20 @@
         <v>2</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f>CONCATENATE(C176, "_", E176, IF(E176&lt;&gt;"",",",""), F176, IF(F176&lt;&gt;"",",",""),  G176, IF(G176&lt;&gt;"",",",""),  H176, IF(I176&lt;&gt;"","(",""), I176, IF(I176&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,3,2</v>
       </c>
       <c r="K176" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.3599565654974829E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E177,TB_SET,2)," and HIV compartment ",VLOOKUP(G177,HIV_SET,2)," and gender compartment ",VLOOKUP(H177,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -7420,20 +7421,20 @@
         <v>1</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f>CONCATENATE(C177, "_", E177, IF(E177&lt;&gt;"",",",""), F177, IF(F177&lt;&gt;"",",",""),  G177, IF(G177&lt;&gt;"",",",""),  H177, IF(I177&lt;&gt;"","(",""), I177, IF(I177&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,4,1</v>
       </c>
       <c r="K177" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4603880732489943E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f>CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E178,TB_SET,2)," and HIV compartment ",VLOOKUP(G178,HIV_SET,2)," and gender compartment ",VLOOKUP(H178,G_SET,2)," per year")</f>
+        <f t="shared" si="13"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -7452,11 +7453,11 @@
         <v>2</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f>CONCATENATE(C178, "_", E178, IF(E178&lt;&gt;"",",",""), F178, IF(F178&lt;&gt;"",",",""),  G178, IF(G178&lt;&gt;"",",",""),  H178, IF(I178&lt;&gt;"","(",""), I178, IF(I178&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>mu_8,4,2</v>
       </c>
       <c r="K178" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.351969595848238E-2</v>
       </c>
     </row>
@@ -7465,7 +7466,7 @@
         <v>229</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B179:B194" si="18">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -7484,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f>CONCATENATE(C179, "_", E179, IF(E179&lt;&gt;"",",",""), F179, IF(F179&lt;&gt;"",",",""),  G179, IF(G179&lt;&gt;"",",",""),  H179, IF(I179&lt;&gt;"","(",""), I179, IF(I179&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,1,1</v>
       </c>
       <c r="K179" s="23">
@@ -7496,7 +7497,7 @@
         <v>229</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G180, HIV_SET, 2), " and gender compartment ", VLOOKUP(H180, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -7515,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f>CONCATENATE(C180, "_", E180, IF(E180&lt;&gt;"",",",""), F180, IF(F180&lt;&gt;"",",",""),  G180, IF(G180&lt;&gt;"",",",""),  H180, IF(I180&lt;&gt;"","(",""), I180, IF(I180&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,1,1</v>
       </c>
       <c r="K180" s="23">
@@ -7527,7 +7528,7 @@
         <v>229</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G181, HIV_SET, 2), " and gender compartment ", VLOOKUP(H181, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -7546,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f>CONCATENATE(C181, "_", E181, IF(E181&lt;&gt;"",",",""), F181, IF(F181&lt;&gt;"",",",""),  G181, IF(G181&lt;&gt;"",",",""),  H181, IF(I181&lt;&gt;"","(",""), I181, IF(I181&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,1,1</v>
       </c>
       <c r="K181" s="23">
@@ -7558,7 +7559,7 @@
         <v>229</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G182, HIV_SET, 2), " and gender compartment ", VLOOKUP(H182, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -7568,7 +7569,7 @@
         <v>165</v>
       </c>
       <c r="E182" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G182" s="9">
         <v>1</v>
@@ -7577,8 +7578,8 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f>CONCATENATE(C182, "_", E182, IF(E182&lt;&gt;"",",",""), F182, IF(F182&lt;&gt;"",",",""),  G182, IF(G182&lt;&gt;"",",",""),  H182, IF(I182&lt;&gt;"","(",""), I182, IF(I182&lt;&gt;"",")",""))</f>
-        <v>rho_5,1,1</v>
+        <f t="shared" si="15"/>
+        <v>rho_6,1,1</v>
       </c>
       <c r="K182" s="23">
         <v>5.0000000000000001E-3</v>
@@ -7589,7 +7590,7 @@
         <v>231</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G183, HIV_SET, 2), " and gender compartment ", VLOOKUP(H183, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -7608,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f>CONCATENATE(C183, "_", E183, IF(E183&lt;&gt;"",",",""), F183, IF(F183&lt;&gt;"",",",""),  G183, IF(G183&lt;&gt;"",",",""),  H183, IF(I183&lt;&gt;"","(",""), I183, IF(I183&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,2,1</v>
       </c>
       <c r="K183" s="23">
@@ -7621,7 +7622,7 @@
         <v>231</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G184, HIV_SET, 2), " and gender compartment ", VLOOKUP(H184, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -7640,11 +7641,11 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f>CONCATENATE(C184, "_", E184, IF(E184&lt;&gt;"",",",""), F184, IF(F184&lt;&gt;"",",",""),  G184, IF(G184&lt;&gt;"",",",""),  H184, IF(I184&lt;&gt;"","(",""), I184, IF(I184&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,2,1</v>
       </c>
       <c r="K184" s="23">
-        <f t="shared" ref="K184:K186" si="6">K180*0.01</f>
+        <f t="shared" ref="K184:K186" si="19">K180*0.01</f>
         <v>1E-4</v>
       </c>
     </row>
@@ -7653,7 +7654,7 @@
         <v>231</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G185, HIV_SET, 2), " and gender compartment ", VLOOKUP(H185, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -7672,11 +7673,11 @@
         <v>1</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f>CONCATENATE(C185, "_", E185, IF(E185&lt;&gt;"",",",""), F185, IF(F185&lt;&gt;"",",",""),  G185, IF(G185&lt;&gt;"",",",""),  H185, IF(I185&lt;&gt;"","(",""), I185, IF(I185&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,2,1</v>
       </c>
       <c r="K185" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -7685,7 +7686,7 @@
         <v>231</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G186, HIV_SET, 2), " and gender compartment ", VLOOKUP(H186, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -7695,7 +7696,7 @@
         <v>165</v>
       </c>
       <c r="E186" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G186" s="9">
         <v>2</v>
@@ -7704,11 +7705,11 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f>CONCATENATE(C186, "_", E186, IF(E186&lt;&gt;"",",",""), F186, IF(F186&lt;&gt;"",",",""),  G186, IF(G186&lt;&gt;"",",",""),  H186, IF(I186&lt;&gt;"","(",""), I186, IF(I186&lt;&gt;"",")",""))</f>
-        <v>rho_5,2,1</v>
+        <f t="shared" si="15"/>
+        <v>rho_6,2,1</v>
       </c>
       <c r="K186" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
@@ -7717,7 +7718,7 @@
         <v>232</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G187, HIV_SET, 2), " and gender compartment ", VLOOKUP(H187, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -7736,7 +7737,7 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f>CONCATENATE(C187, "_", E187, IF(E187&lt;&gt;"",",",""), F187, IF(F187&lt;&gt;"",",",""),  G187, IF(G187&lt;&gt;"",",",""),  H187, IF(I187&lt;&gt;"","(",""), I187, IF(I187&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,1,2</v>
       </c>
       <c r="K187" s="23">
@@ -7749,7 +7750,7 @@
         <v>232</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G188, HIV_SET, 2), " and gender compartment ", VLOOKUP(H188, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -7768,11 +7769,11 @@
         <v>2</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f>CONCATENATE(C188, "_", E188, IF(E188&lt;&gt;"",",",""), F188, IF(F188&lt;&gt;"",",",""),  G188, IF(G188&lt;&gt;"",",",""),  H188, IF(I188&lt;&gt;"","(",""), I188, IF(I188&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,1,2</v>
       </c>
       <c r="K188" s="23">
-        <f t="shared" ref="K188:K194" si="7">K180*0.95</f>
+        <f t="shared" ref="K188:K194" si="20">K180*0.95</f>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
@@ -7781,7 +7782,7 @@
         <v>232</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G189, HIV_SET, 2), " and gender compartment ", VLOOKUP(H189, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -7800,11 +7801,11 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f>CONCATENATE(C189, "_", E189, IF(E189&lt;&gt;"",",",""), F189, IF(F189&lt;&gt;"",",",""),  G189, IF(G189&lt;&gt;"",",",""),  H189, IF(I189&lt;&gt;"","(",""), I189, IF(I189&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,1,2</v>
       </c>
       <c r="K189" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
@@ -7813,7 +7814,7 @@
         <v>232</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G190, HIV_SET, 2), " and gender compartment ", VLOOKUP(H190, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -7823,7 +7824,7 @@
         <v>165</v>
       </c>
       <c r="E190" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G190" s="9">
         <v>1</v>
@@ -7832,11 +7833,11 @@
         <v>2</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f>CONCATENATE(C190, "_", E190, IF(E190&lt;&gt;"",",",""), F190, IF(F190&lt;&gt;"",",",""),  G190, IF(G190&lt;&gt;"",",",""),  H190, IF(I190&lt;&gt;"","(",""), I190, IF(I190&lt;&gt;"",")",""))</f>
-        <v>rho_5,1,2</v>
+        <f t="shared" si="15"/>
+        <v>rho_6,1,2</v>
       </c>
       <c r="K190" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
@@ -7845,7 +7846,7 @@
         <v>233</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G191, HIV_SET, 2), " and gender compartment ", VLOOKUP(H191, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -7864,11 +7865,11 @@
         <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f>CONCATENATE(C191, "_", E191, IF(E191&lt;&gt;"",",",""), F191, IF(F191&lt;&gt;"",",",""),  G191, IF(G191&lt;&gt;"",",",""),  H191, IF(I191&lt;&gt;"","(",""), I191, IF(I191&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_1,2,2</v>
       </c>
       <c r="K191" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
@@ -7877,7 +7878,7 @@
         <v>233</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G192, HIV_SET, 2), " and gender compartment ", VLOOKUP(H192, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -7896,11 +7897,11 @@
         <v>2</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f>CONCATENATE(C192, "_", E192, IF(E192&lt;&gt;"",",",""), F192, IF(F192&lt;&gt;"",",",""),  G192, IF(G192&lt;&gt;"",",",""),  H192, IF(I192&lt;&gt;"","(",""), I192, IF(I192&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_3,2,2</v>
       </c>
       <c r="K192" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
@@ -7909,7 +7910,7 @@
         <v>233</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G193, HIV_SET, 2), " and gender compartment ", VLOOKUP(H193, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -7928,11 +7929,11 @@
         <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f>CONCATENATE(C193, "_", E193, IF(E193&lt;&gt;"",",",""), F193, IF(F193&lt;&gt;"",",",""),  G193, IF(G193&lt;&gt;"",",",""),  H193, IF(I193&lt;&gt;"","(",""), I193, IF(I193&lt;&gt;"",")",""))</f>
+        <f t="shared" si="15"/>
         <v>rho_4,2,2</v>
       </c>
       <c r="K193" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
@@ -7941,7 +7942,7 @@
         <v>233</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f>CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G194, HIV_SET, 2), " and gender compartment ", VLOOKUP(H194, G_SET, 2), ", per year")</f>
+        <f t="shared" si="18"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -7951,7 +7952,7 @@
         <v>165</v>
       </c>
       <c r="E194" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G194" s="9">
         <v>2</v>
@@ -7960,15 +7961,22 @@
         <v>2</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f>CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
-        <v>rho_5,2,2</v>
+        <f t="shared" ref="J194:J225" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <v>rho_6,2,2</v>
       </c>
       <c r="K194" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.7500000000000003E-5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O194" xr:uid="{60EAF73F-B234-E148-9018-19A9C800E4F7}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="rho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross3\Repos\k01\epi_model_HIV_TB\param_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA349A2-841F-423C-8734-5ECB45D36951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B8C43-C6CB-F948-9BDF-F1F135E1FF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,10 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1508,34 +1500,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K136" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="10"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1694,7 +1687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1750,7 +1743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1813,7 +1806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -1877,7 +1870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +1898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -2001,7 +1994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -2041,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2081,7 +2074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -2201,7 +2194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2241,7 +2234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
@@ -2315,7 +2308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
@@ -2355,7 +2348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
@@ -2395,7 +2388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
@@ -2435,7 +2428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -2475,7 +2468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -2549,7 +2542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
@@ -2586,7 +2579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
@@ -2623,7 +2616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
@@ -2660,7 +2653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
@@ -2697,7 +2690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
@@ -2734,7 +2727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2808,7 +2801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +2838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -2882,7 +2875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -2919,7 +2912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
@@ -2959,7 +2952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
@@ -3039,7 +3032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -3079,7 +3072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
@@ -3119,7 +3112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
@@ -3199,7 +3192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
@@ -3239,7 +3232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
@@ -3276,7 +3269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
@@ -3313,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
@@ -3350,7 +3343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
@@ -3387,7 +3380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -3424,7 +3417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -3535,7 +3528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3572,7 +3565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
@@ -3609,7 +3602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
@@ -3646,7 +3639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3683,7 +3676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
@@ -3720,7 +3713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
@@ -3757,7 +3750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -3794,7 +3787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -3831,7 +3824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
@@ -3868,7 +3861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -3942,7 +3935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
@@ -4016,7 +4009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -4053,7 +4046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4090,7 +4083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
@@ -4127,7 +4120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -4164,7 +4157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -4201,7 +4194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
@@ -4275,7 +4268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
@@ -4312,7 +4305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
@@ -4349,7 +4342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
@@ -4423,7 +4416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
@@ -4460,7 +4453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
@@ -4497,7 +4490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
@@ -4534,7 +4527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
@@ -4608,7 +4601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
@@ -4645,7 +4638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4695,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
@@ -4726,7 +4719,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
@@ -4757,7 +4750,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -4788,7 +4781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -4819,7 +4812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -4850,7 +4843,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
@@ -4881,7 +4874,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -4908,7 +4901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -4932,7 +4925,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -4956,7 +4949,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -4980,7 +4973,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -5006,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -5032,7 +5025,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -5058,7 +5051,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5084,7 +5077,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5108,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5140,7 +5133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5172,7 +5165,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5205,7 +5198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5238,7 +5231,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5270,7 +5263,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5299,7 +5292,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5329,7 +5322,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5359,7 +5352,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5388,7 +5381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5417,7 +5410,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5446,7 +5439,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5475,7 +5468,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5506,7 +5499,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5537,7 +5530,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5569,7 +5562,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5601,7 +5594,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5633,7 +5626,7 @@
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5665,7 +5658,7 @@
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5697,7 +5690,7 @@
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5729,7 +5722,7 @@
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -5761,7 +5754,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -5793,7 +5786,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -5857,7 +5850,7 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -5889,7 +5882,7 @@
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>178</v>
       </c>
@@ -5921,7 +5914,7 @@
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -5953,7 +5946,7 @@
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -5985,7 +5978,7 @@
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6016,7 +6009,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6048,7 +6041,7 @@
         <v>3.0746100000000009E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6080,7 +6073,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6112,7 +6105,7 @@
         <v>3.3820710000000011E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>2.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6176,7 +6169,7 @@
         <v>3.7202781000000018E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6208,7 +6201,7 @@
         <v>2.6620000000000005E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6240,7 +6233,7 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6272,7 +6265,7 @@
         <v>2.9282000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6304,7 +6297,7 @@
         <v>4.5015365010000023E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>3.2210200000000008E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6368,7 +6361,7 @@
         <v>4.9516901511000029E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6400,7 +6393,7 @@
         <v>3.5431220000000013E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6432,7 +6425,7 @@
         <v>5.4468591662100038E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6464,7 +6457,7 @@
         <v>3.8974342000000016E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>5.9915450828310048E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
@@ -6528,7 +6521,7 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
@@ -6560,7 +6553,7 @@
         <v>6.2911223369725558E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
@@ -6592,7 +6585,7 @@
         <v>4.2969212055000025E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
@@ -6624,7 +6617,7 @@
         <v>6.9202345706698115E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
@@ -6656,7 +6649,7 @@
         <v>4.7266133260500033E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>7.6122580277367929E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
@@ -6720,7 +6713,7 @@
         <v>5.1992746586550044E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
@@ -6752,7 +6745,7 @@
         <v>8.3734838305104725E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
@@ -6784,7 +6777,7 @@
         <v>6.7590570562515065E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
@@ -6816,7 +6809,7 @@
         <v>0.10885528979663614</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
@@ -6848,7 +6841,7 @@
         <v>8.7867741731269586E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
@@ -6880,7 +6873,7 @@
         <v>0.14151187673562698</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
@@ -6912,7 +6905,7 @@
         <v>0.11422806425065046</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
@@ -6944,7 +6937,7 @@
         <v>0.18396543975631507</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
@@ -6976,7 +6969,7 @@
         <v>0.1484964835258456</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
@@ -7008,7 +7001,7 @@
         <v>0.2391550716832096</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
@@ -7040,7 +7033,7 @@
         <v>0.11879718682067648</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
@@ -7072,7 +7065,7 @@
         <v>0.19132405734656768</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
@@ -7104,7 +7097,7 @@
         <v>9.5037749456541198E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
@@ -7136,7 +7129,7 @@
         <v>0.15305924587725417</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
@@ -7168,7 +7161,7 @@
         <v>7.6030199565232964E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
@@ -7200,7 +7193,7 @@
         <v>0.12244739670180334</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
@@ -7232,7 +7225,7 @@
         <v>6.0824159652186377E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
@@ -7264,7 +7257,7 @@
         <v>9.7957917361442673E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
@@ -7296,7 +7289,7 @@
         <v>4.2576911756530458E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
@@ -7328,7 +7321,7 @@
         <v>6.8570542153009867E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
@@ -7360,7 +7353,7 @@
         <v>2.9803838229571319E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
@@ -7392,7 +7385,7 @@
         <v>4.7999379507106907E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
@@ -7424,7 +7417,7 @@
         <v>2.0862686760699922E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
@@ -7456,7 +7449,7 @@
         <v>3.3599565654974829E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
@@ -7488,7 +7481,7 @@
         <v>1.4603880732489943E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
@@ -7520,7 +7513,7 @@
         <v>2.351969595848238E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
@@ -7551,7 +7544,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
@@ -7582,7 +7575,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
@@ -7613,7 +7606,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
@@ -7628,7 +7621,7 @@
         <v>165</v>
       </c>
       <c r="E182" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G182" s="9">
         <v>1</v>
@@ -7638,13 +7631,13 @@
       </c>
       <c r="J182" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>rho_5,1,1</v>
+        <v>rho_6,1,1</v>
       </c>
       <c r="K182" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
@@ -7676,7 +7669,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
@@ -7708,7 +7701,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
@@ -7740,7 +7733,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
@@ -7755,7 +7748,7 @@
         <v>165</v>
       </c>
       <c r="E186" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G186" s="9">
         <v>2</v>
@@ -7765,14 +7758,14 @@
       </c>
       <c r="J186" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>rho_5,2,1</v>
+        <v>rho_6,2,1</v>
       </c>
       <c r="K186" s="23">
         <f t="shared" si="19"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
@@ -7804,7 +7797,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
@@ -7836,7 +7829,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
@@ -7868,7 +7861,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
@@ -7883,7 +7876,7 @@
         <v>165</v>
       </c>
       <c r="E190" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G190" s="9">
         <v>1</v>
@@ -7893,14 +7886,14 @@
       </c>
       <c r="J190" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>rho_5,1,2</v>
+        <v>rho_6,1,2</v>
       </c>
       <c r="K190" s="23">
         <f t="shared" si="20"/>
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
@@ -7932,7 +7925,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
@@ -7964,7 +7957,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
@@ -7996,7 +7989,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
@@ -8011,7 +8004,7 @@
         <v>165</v>
       </c>
       <c r="E194" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G194" s="9">
         <v>2</v>
@@ -8020,8 +8013,8 @@
         <v>2</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" ref="J194:J225" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
-        <v>rho_5,2,2</v>
+        <f t="shared" ref="J194" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <v>rho_6,2,2</v>
       </c>
       <c r="K194" s="23">
         <f t="shared" si="20"/>
@@ -8029,7 +8022,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
+  <autoFilter ref="A1:O194" xr:uid="{BC67A81D-7C1F-3D4A-875A-F60944DEF322}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="rho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8046,21 +8046,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1328125" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.46484375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46484375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.796875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="20.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8130,7 +8130,7 @@
         <v>32693.093583980408</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8195,7 +8195,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8260,7 +8260,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8293,7 +8293,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8326,7 +8326,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8359,7 +8359,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8392,7 +8392,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8425,7 +8425,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8458,7 +8458,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8491,7 +8491,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8524,7 +8524,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8557,7 +8557,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8590,7 +8590,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8623,7 +8623,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8656,7 +8656,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8721,7 +8721,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8786,7 +8786,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8819,7 +8819,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8852,7 +8852,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8885,7 +8885,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8918,7 +8918,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8951,7 +8951,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8984,7 +8984,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9017,7 +9017,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9050,7 +9050,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9083,7 +9083,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9116,7 +9116,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9149,7 +9149,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9182,7 +9182,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9247,7 +9247,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9312,7 +9312,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9345,7 +9345,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9378,7 +9378,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9411,7 +9411,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9444,7 +9444,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9477,7 +9477,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9510,7 +9510,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9543,7 +9543,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9576,7 +9576,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9609,7 +9609,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9642,7 +9642,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9675,7 +9675,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9708,7 +9708,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9773,7 +9773,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9838,7 +9838,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9871,7 +9871,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9904,7 +9904,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9937,7 +9937,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9970,7 +9970,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10003,7 +10003,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10036,7 +10036,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10069,7 +10069,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10102,7 +10102,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10135,7 +10135,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10168,7 +10168,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10201,7 +10201,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10234,7 +10234,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10299,7 +10299,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10364,7 +10364,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10397,7 +10397,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10430,7 +10430,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10463,7 +10463,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10496,7 +10496,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10529,7 +10529,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10562,7 +10562,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10595,7 +10595,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10628,7 +10628,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10661,7 +10661,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10694,7 +10694,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10727,7 +10727,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10760,7 +10760,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10825,7 +10825,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10890,7 +10890,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10923,7 +10923,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10956,7 +10956,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10989,7 +10989,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11022,7 +11022,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11055,7 +11055,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11088,7 +11088,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11121,7 +11121,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11154,7 +11154,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11187,7 +11187,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11220,7 +11220,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11253,7 +11253,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11286,7 +11286,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11351,7 +11351,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11416,7 +11416,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11449,7 +11449,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11482,7 +11482,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11515,7 +11515,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11548,7 +11548,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11581,7 +11581,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11614,7 +11614,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11647,7 +11647,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11680,7 +11680,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11713,7 +11713,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11746,7 +11746,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11779,7 +11779,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11812,7 +11812,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11877,7 +11877,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11942,7 +11942,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11975,7 +11975,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12008,7 +12008,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12041,7 +12041,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12074,7 +12074,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12107,7 +12107,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12140,7 +12140,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12173,7 +12173,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12206,7 +12206,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12239,7 +12239,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12272,7 +12272,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12305,264 +12305,264 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L129">
+  <sortState ref="A2:L129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12573,26 +12573,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B108352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="C111481" sqref="C111481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>278</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>279</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>280</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>282</v>
       </c>
@@ -12746,12 +12746,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>298</v>
       </c>
@@ -12759,280 +12759,280 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>299</v>
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>284</v>
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>285</v>
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>286</v>
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>287</v>
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>288</v>
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>289</v>
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>290</v>
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>291</v>
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>292</v>
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>293</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>294</v>
       </c>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>295</v>
       </c>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>296</v>
       </c>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>297</v>
       </c>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
     </row>
   </sheetData>
@@ -13049,14 +13049,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13120,12 +13120,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -13141,12 +13141,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13178,12 +13178,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13199,12 +13199,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/GitHub/epi_model_HIV_TB/param_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B8C43-C6CB-F948-9BDF-F1F135E1FF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD045E84-B234-4C48-9DBD-811EC3790330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43545" yWindow="285" windowWidth="24405" windowHeight="18675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,19 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="313">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -958,55 +967,91 @@
     <t>Percentage of pop LTBI</t>
   </si>
   <si>
-    <t>Excess mortality rate HIV+ CD4 &lt;200 (No active TB) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality rate HIV+ CD4 &lt;200 (No active TB) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality HIV+ CD4 &gt;200 (No active TB) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality HIV+ CD4 &gt;200 (No active TB) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality HIV+ on ART (No active TB) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality HIV+ on ART (No active TB) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV negative) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV negative) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + CD4 &lt;200) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + CD4 &lt;200) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + CD4 &gt;200) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + CD4 &gt;200) - Female</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + on ART) - Male</t>
-  </si>
-  <si>
-    <t>Excess mortality due to active TB (HIV + on ART) - Female</t>
-  </si>
-  <si>
-    <t>Background mortality rate (HIV negative and no active TB)-Male</t>
-  </si>
-  <si>
-    <t>Background mortality rate (HIV negative and no active TB)- Female</t>
-  </si>
-  <si>
-    <t>Jen to input these as proportion of the population in the compartment</t>
+    <t>All-cause mortality rate per 100,000 ages 15-49 male</t>
+  </si>
+  <si>
+    <t>GBD 2017</t>
+  </si>
+  <si>
+    <t>cause_id 294</t>
+  </si>
+  <si>
+    <t>location_id 196 (South Africa)</t>
+  </si>
+  <si>
+    <t>All-cause mortality rate per 100,000 ages 15-49 female</t>
+  </si>
+  <si>
+    <t>HIV deaths due to causes other than TB mortality rate per 100,000 ages 15-49 male</t>
+  </si>
+  <si>
+    <t>cause_id 300</t>
+  </si>
+  <si>
+    <t>HIV deaths due to causes other than TB mortality rate per 100,000 ages 15-49 female</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for drug-susceptible TB age 15-49 male</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for drug-susceptible TB age 15-49 female</t>
+  </si>
+  <si>
+    <t>All HIV mortality rate per 100,000 ages 15-49 male</t>
+  </si>
+  <si>
+    <t>cause_id 298</t>
+  </si>
+  <si>
+    <t>cause_id 948</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for MDR TB age 15-49 male</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for MDR TB age 15-49 female</t>
+  </si>
+  <si>
+    <t>cause_id 949</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for XDR TB age 15-49 male</t>
+  </si>
+  <si>
+    <t>HIV/TB mortality rate per 100,000  for XDR TB age 15-49 female</t>
+  </si>
+  <si>
+    <t>cause_id 950</t>
+  </si>
+  <si>
+    <t>TB mortality rate per 100,000 (not HIV) age 15-49 male</t>
+  </si>
+  <si>
+    <t>Confirmed units for rates as per 100,000 population against GBD compare.</t>
+  </si>
+  <si>
+    <t>Drug-susceptible TB mortality rate per 100,000 (not HIV) age 15-49 male</t>
+  </si>
+  <si>
+    <t>MDR TB mortality rate per 100,000 (not HIV) age 15-49 male</t>
+  </si>
+  <si>
+    <t>Drug-susceptible TB mortality rate per 100,000 (not HIV) age 15-49 female</t>
+  </si>
+  <si>
+    <t>XDR TB mortality rate per 100,000 (not HIV) age 15-49 male</t>
+  </si>
+  <si>
+    <t>cause_id 297</t>
+  </si>
+  <si>
+    <t>cause_id 934</t>
+  </si>
+  <si>
+    <t>cause_id 946</t>
+  </si>
+  <si>
+    <t>cause_id 947</t>
   </si>
 </sst>
 </file>
@@ -1500,35 +1545,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K179" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K188" sqref="K188"/>
+      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="10"/>
+    <col min="16" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1743,7 +1787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1806,7 +1850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -1870,7 +1914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1920,7 +1964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
@@ -1957,7 +2001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -1994,7 +2038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -2034,7 +2078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2074,7 +2118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
@@ -2114,7 +2158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
@@ -2154,7 +2198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -2194,7 +2238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2234,7 +2278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
@@ -2271,7 +2315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
@@ -2308,7 +2352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
@@ -2348,7 +2392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
@@ -2388,7 +2432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
@@ -2428,7 +2472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -2468,7 +2512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -2505,7 +2549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -2542,7 +2586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
@@ -2579,7 +2623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
@@ -2616,7 +2660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
@@ -2653,7 +2697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
@@ -2690,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
@@ -2727,7 +2771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -2764,7 +2808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2801,7 +2845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
@@ -2838,7 +2882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -2875,7 +2919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -2912,7 +2956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
@@ -2952,7 +2996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
@@ -2992,7 +3036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
@@ -3032,7 +3076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -3072,7 +3116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
@@ -3112,7 +3156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
@@ -3152,7 +3196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
@@ -3192,7 +3236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
@@ -3232,7 +3276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
@@ -3269,7 +3313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
@@ -3306,7 +3350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
@@ -3343,7 +3387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
@@ -3380,7 +3424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -3417,7 +3461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
@@ -3454,7 +3498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
@@ -3491,7 +3535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -3528,7 +3572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3565,7 +3609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
@@ -3602,7 +3646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
@@ -3639,7 +3683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3676,7 +3720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
@@ -3713,7 +3757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
@@ -3750,7 +3794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -3787,7 +3831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
@@ -3861,7 +3905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -3898,7 +3942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -3935,7 +3979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -3972,7 +4016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
@@ -4009,7 +4053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -4046,7 +4090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4083,7 +4127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
@@ -4120,7 +4164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -4157,7 +4201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -4194,7 +4238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -4231,7 +4275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
@@ -4268,7 +4312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
@@ -4305,7 +4349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
@@ -4342,7 +4386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
@@ -4379,7 +4423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
@@ -4416,7 +4460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
@@ -4453,7 +4497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
@@ -4490,7 +4534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
@@ -4527,7 +4571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
@@ -4564,7 +4608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
@@ -4601,7 +4645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
@@ -4638,7 +4682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4663,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4688,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
@@ -4719,7 +4763,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
@@ -4750,7 +4794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -4781,7 +4825,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -4812,7 +4856,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -4843,7 +4887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
@@ -4874,7 +4918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -4901,7 +4945,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -4925,7 +4969,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -4949,7 +4993,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -4973,7 +5017,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -4999,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -5025,7 +5069,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -5051,7 +5095,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5077,7 +5121,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5101,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5133,7 +5177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5165,7 +5209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5198,7 +5242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5231,7 +5275,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5263,7 +5307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5292,7 +5336,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5322,7 +5366,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5396,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5381,7 +5425,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5410,7 +5454,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5439,7 +5483,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5468,7 +5512,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5499,7 +5543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5530,7 +5574,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5562,7 +5606,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5594,7 +5638,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5626,7 +5670,7 @@
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5658,7 +5702,7 @@
         <v>2.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5690,7 +5734,7 @@
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5722,7 +5766,7 @@
         <v>2.3152500000000006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -5754,7 +5798,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -5786,7 +5830,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -5818,7 +5862,7 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -5850,7 +5894,7 @@
         <v>2.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -5882,7 +5926,7 @@
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A128" s="20" t="s">
         <v>178</v>
       </c>
@@ -5914,7 +5958,7 @@
         <v>2.5410000000000005E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -5946,7 +5990,7 @@
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -5978,7 +6022,7 @@
         <v>2.7951000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6009,7 +6053,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6041,7 +6085,7 @@
         <v>3.0746100000000009E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6073,7 +6117,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6105,7 +6149,7 @@
         <v>3.3820710000000011E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6137,7 +6181,7 @@
         <v>2.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6169,7 +6213,7 @@
         <v>3.7202781000000018E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6201,7 +6245,7 @@
         <v>2.6620000000000005E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6233,7 +6277,7 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6265,7 +6309,7 @@
         <v>2.9282000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6297,7 +6341,7 @@
         <v>4.5015365010000023E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6329,7 +6373,7 @@
         <v>3.2210200000000008E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6361,7 +6405,7 @@
         <v>4.9516901511000029E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6393,7 +6437,7 @@
         <v>3.5431220000000013E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6425,7 +6469,7 @@
         <v>5.4468591662100038E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6457,7 +6501,7 @@
         <v>3.8974342000000016E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6489,7 +6533,7 @@
         <v>5.9915450828310048E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
@@ -6521,7 +6565,7 @@
         <v>4.092305910000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
@@ -6553,7 +6597,7 @@
         <v>6.2911223369725558E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
@@ -6585,7 +6629,7 @@
         <v>4.2969212055000025E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
@@ -6617,7 +6661,7 @@
         <v>6.9202345706698115E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
@@ -6649,7 +6693,7 @@
         <v>4.7266133260500033E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
@@ -6681,7 +6725,7 @@
         <v>7.6122580277367929E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
@@ -6713,7 +6757,7 @@
         <v>5.1992746586550044E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
@@ -6745,7 +6789,7 @@
         <v>8.3734838305104725E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
@@ -6777,7 +6821,7 @@
         <v>6.7590570562515065E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
@@ -6809,7 +6853,7 @@
         <v>0.10885528979663614</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
@@ -6841,7 +6885,7 @@
         <v>8.7867741731269586E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
@@ -6873,7 +6917,7 @@
         <v>0.14151187673562698</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
@@ -6905,7 +6949,7 @@
         <v>0.11422806425065046</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
@@ -6937,7 +6981,7 @@
         <v>0.18396543975631507</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
@@ -6969,7 +7013,7 @@
         <v>0.1484964835258456</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
@@ -7001,7 +7045,7 @@
         <v>0.2391550716832096</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
@@ -7033,7 +7077,7 @@
         <v>0.11879718682067648</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
@@ -7065,7 +7109,7 @@
         <v>0.19132405734656768</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
@@ -7097,7 +7141,7 @@
         <v>9.5037749456541198E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
@@ -7129,7 +7173,7 @@
         <v>0.15305924587725417</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
@@ -7161,7 +7205,7 @@
         <v>7.6030199565232964E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
@@ -7193,7 +7237,7 @@
         <v>0.12244739670180334</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
@@ -7225,7 +7269,7 @@
         <v>6.0824159652186377E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
@@ -7257,7 +7301,7 @@
         <v>9.7957917361442673E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
@@ -7289,7 +7333,7 @@
         <v>4.2576911756530458E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
@@ -7321,7 +7365,7 @@
         <v>6.8570542153009867E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
@@ -7353,7 +7397,7 @@
         <v>2.9803838229571319E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
@@ -7385,7 +7429,7 @@
         <v>4.7999379507106907E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
@@ -7417,7 +7461,7 @@
         <v>2.0862686760699922E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
@@ -7449,7 +7493,7 @@
         <v>3.3599565654974829E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
@@ -7481,7 +7525,7 @@
         <v>1.4603880732489943E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
@@ -7513,7 +7557,7 @@
         <v>2.351969595848238E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
@@ -7544,7 +7588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
@@ -7575,7 +7619,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
@@ -7606,7 +7650,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
@@ -7637,7 +7681,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
@@ -7669,7 +7713,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
@@ -7701,7 +7745,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
@@ -7733,7 +7777,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
@@ -7765,7 +7809,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
@@ -7797,7 +7841,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
@@ -7829,7 +7873,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
@@ -7861,7 +7905,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
@@ -7893,7 +7937,7 @@
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
@@ -7925,7 +7969,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
@@ -7957,7 +8001,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
@@ -7989,7 +8033,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
@@ -8022,14 +8066,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O194" xr:uid="{BC67A81D-7C1F-3D4A-875A-F60944DEF322}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="rho"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:O194">
+  <autoFilter ref="A1:O194" xr:uid="{BC67A81D-7C1F-3D4A-875A-F60944DEF322}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8046,21 +8084,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.1328125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="20.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8098,7 +8136,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8130,7 +8168,7 @@
         <v>32693.093583980408</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8162,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8195,7 +8233,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8227,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8260,7 +8298,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8293,7 +8331,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8326,7 +8364,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8359,7 +8397,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8392,7 +8430,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8425,7 +8463,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8458,7 +8496,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8491,7 +8529,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8524,7 +8562,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8557,7 +8595,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8590,7 +8628,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8623,7 +8661,7 @@
         <v>1348.5901103391921</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8656,7 +8694,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -8688,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8721,7 +8759,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -8753,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8786,7 +8824,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8819,7 +8857,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8852,7 +8890,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8885,7 +8923,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8918,7 +8956,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8951,7 +8989,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8984,7 +9022,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9017,7 +9055,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9050,7 +9088,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9083,7 +9121,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9116,7 +9154,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9149,7 +9187,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9182,7 +9220,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -9214,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9247,7 +9285,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -9279,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9312,7 +9350,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9345,7 +9383,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9378,7 +9416,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9411,7 +9449,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9444,7 +9482,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9477,7 +9515,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9510,7 +9548,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9543,7 +9581,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9576,7 +9614,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9609,7 +9647,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9642,7 +9680,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9675,7 +9713,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9708,7 +9746,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -9740,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9773,7 +9811,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -9805,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9838,7 +9876,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9871,7 +9909,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9904,7 +9942,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9937,7 +9975,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9970,7 +10008,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10003,7 +10041,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10036,7 +10074,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10069,7 +10107,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10102,7 +10140,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10135,7 +10173,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10168,7 +10206,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10201,7 +10239,7 @@
         <v>449.53003677973061</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10234,7 +10272,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -10266,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10299,7 +10337,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10331,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10364,7 +10402,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10397,7 +10435,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10430,7 +10468,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10463,7 +10501,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10496,7 +10534,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10529,7 +10567,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10562,7 +10600,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10595,7 +10633,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10628,7 +10666,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10661,7 +10699,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -10694,7 +10732,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10727,7 +10765,7 @@
         <v>1103.391908459339</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10760,7 +10798,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10792,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10825,7 +10863,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -10857,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10890,7 +10928,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10923,7 +10961,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10956,7 +10994,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10989,7 +11027,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11022,7 +11060,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11055,7 +11093,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11088,7 +11126,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11121,7 +11159,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11154,7 +11192,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11187,7 +11225,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11220,7 +11258,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11253,7 +11291,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11286,7 +11324,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -11318,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11351,7 +11389,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -11383,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11416,7 +11454,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11449,7 +11487,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11482,7 +11520,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11515,7 +11553,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11548,7 +11586,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11581,7 +11619,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11614,7 +11652,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11647,7 +11685,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11680,7 +11718,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11713,7 +11751,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11746,7 +11784,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11779,7 +11817,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11812,7 +11850,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11844,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11877,7 +11915,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11909,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11942,7 +11980,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11975,7 +12013,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12008,7 +12046,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12041,7 +12079,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12074,7 +12112,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12107,7 +12145,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12140,7 +12178,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12173,7 +12211,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12206,7 +12244,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12239,7 +12277,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12272,7 +12310,7 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -12305,264 +12343,264 @@
         <v>367.79730281977959</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12571,28 +12609,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108352" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111481" sqref="C111481"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12618,7 +12656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -12629,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -12640,7 +12678,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -12651,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -12662,7 +12700,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -12673,7 +12711,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -12684,7 +12722,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -12695,7 +12733,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
@@ -12706,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -12714,7 +12752,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>278</v>
       </c>
@@ -12722,7 +12760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="25" t="s">
         <v>279</v>
       </c>
@@ -12730,7 +12768,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="25" t="s">
         <v>280</v>
       </c>
@@ -12738,7 +12776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="27" t="s">
         <v>282</v>
       </c>
@@ -12746,294 +12784,533 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16">
+        <v>667.69125159867303</v>
+      </c>
+      <c r="D16">
+        <v>621.91596160486597</v>
+      </c>
+      <c r="E16">
+        <v>725.80082818748997</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17">
+        <v>487.71837360315601</v>
+      </c>
+      <c r="D17">
+        <v>436.91669589439499</v>
+      </c>
+      <c r="E17">
+        <v>556.03760119042602</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18">
+        <v>353.97451428615199</v>
+      </c>
+      <c r="D18">
+        <v>298.14022379823899</v>
+      </c>
+      <c r="E18">
+        <v>421.02666012590601</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19">
+        <v>328.28962708281801</v>
+      </c>
+      <c r="D19">
+        <v>275.75168655442201</v>
+      </c>
+      <c r="E19">
+        <v>397.64813504226203</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A20" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20">
+        <v>270.29685912212301</v>
+      </c>
+      <c r="D20">
+        <v>206.97423329835701</v>
+      </c>
+      <c r="E20">
+        <v>343.91638639716899</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A21" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21">
+        <v>264.93621874887299</v>
+      </c>
+      <c r="D21">
+        <v>205.62683179700201</v>
+      </c>
+      <c r="E21">
+        <v>339.17910941088098</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A22" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22">
+        <v>76.970274789631006</v>
+      </c>
+      <c r="D22">
+        <v>48.421027847361103</v>
+      </c>
+      <c r="E22">
+        <v>109.456440346139</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A23" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23">
+        <v>58.460988902228898</v>
+      </c>
+      <c r="D23">
+        <v>34.611741515461397</v>
+      </c>
+      <c r="E23">
+        <v>87.602923512240494</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24">
+        <v>6.5950565310523803</v>
+      </c>
+      <c r="D24">
+        <v>2.67155063488859</v>
+      </c>
+      <c r="E24">
+        <v>13.136486160221301</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="C25">
+        <v>4.8104961798478998</v>
+      </c>
+      <c r="D25">
+        <v>1.8525923964359301</v>
+      </c>
+      <c r="E25">
+        <v>10.096949019498</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="27" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="C26">
+        <v>0.112323843345287</v>
+      </c>
+      <c r="D26">
+        <v>4.5985772535474097E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.22960163575013601</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="G26" t="s">
         <v>287</v>
       </c>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="H26" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="C27">
+        <v>8.1923251867938002E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.1924496573431098E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.17543715890676301</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A30" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A31" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-    </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A32" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A34" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A35" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="18"/>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="18"/>
     </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A42" s="18"/>
     </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" s="18"/>
     </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A44" s="18"/>
     </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A46" s="18"/>
     </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="18"/>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="18"/>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="18"/>
     </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="18"/>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="18"/>
     </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="18"/>
     </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="18"/>
     </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="18"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A95" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13049,14 +13326,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13064,7 +13341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13072,7 +13349,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13080,7 +13357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13088,7 +13365,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13096,7 +13373,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13104,7 +13381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13112,7 +13389,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13120,12 +13397,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13133,7 +13410,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -13141,12 +13418,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13154,7 +13431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13162,7 +13439,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -13170,7 +13447,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13178,12 +13455,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -13191,7 +13468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13199,12 +13476,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13212,7 +13489,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13220,7 +13497,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD045E84-B234-4C48-9DBD-811EC3790330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E09E81-CA83-44E0-BD25-66F067CE1B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43545" yWindow="285" windowWidth="24405" windowHeight="18675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34755" yWindow="-7620" windowWidth="19755" windowHeight="19605" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="324">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1052,13 +1052,46 @@
   </si>
   <si>
     <t>cause_id 947</t>
+  </si>
+  <si>
+    <t>TB mortality rate per 100,000 (not HIV) age 15-49 female</t>
+  </si>
+  <si>
+    <t>MDR TB mortality rate per 100,000 (not HIV) age 15-49 female</t>
+  </si>
+  <si>
+    <t>XDR TB mortality rate per 100,000 (not HIV) age 15-49 female</t>
+  </si>
+  <si>
+    <t>GBD 2018</t>
+  </si>
+  <si>
+    <t>GBD 2019</t>
+  </si>
+  <si>
+    <t>GBD 2020</t>
+  </si>
+  <si>
+    <t>GBD 2021</t>
+  </si>
+  <si>
+    <t>GBD 2022</t>
+  </si>
+  <si>
+    <t>GBD 2023</t>
+  </si>
+  <si>
+    <t>GBD 2024</t>
+  </si>
+  <si>
+    <t>GBD 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1158,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12612,10 +12651,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13072,13 +13111,43 @@
       <c r="A28" s="27" t="s">
         <v>303</v>
       </c>
+      <c r="C28">
+        <v>32.781908989999998</v>
+      </c>
+      <c r="D28">
+        <v>29.630786910000001</v>
+      </c>
+      <c r="E28">
+        <v>36.915591910000003</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" t="s">
+        <v>287</v>
+      </c>
       <c r="H28" s="31" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="27" t="s">
-        <v>303</v>
+        <v>313</v>
+      </c>
+      <c r="C29">
+        <v>15.92630484</v>
+      </c>
+      <c r="D29">
+        <v>13.86750552</v>
+      </c>
+      <c r="E29">
+        <v>18.053657309999998</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" t="s">
+        <v>287</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>309</v>
@@ -13088,6 +13157,21 @@
       <c r="A30" s="27" t="s">
         <v>305</v>
       </c>
+      <c r="C30">
+        <v>30.619318209999999</v>
+      </c>
+      <c r="D30">
+        <v>27.03644954</v>
+      </c>
+      <c r="E30">
+        <v>34.821362049999998</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G30" t="s">
+        <v>287</v>
+      </c>
       <c r="H30" s="31" t="s">
         <v>310</v>
       </c>
@@ -13096,6 +13180,21 @@
       <c r="A31" s="27" t="s">
         <v>307</v>
       </c>
+      <c r="C31">
+        <v>14.90405754</v>
+      </c>
+      <c r="D31">
+        <v>12.80162367</v>
+      </c>
+      <c r="E31">
+        <v>17.08584523</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G31" t="s">
+        <v>287</v>
+      </c>
       <c r="H31" s="31" t="s">
         <v>310</v>
       </c>
@@ -13104,13 +13203,43 @@
       <c r="A32" s="27" t="s">
         <v>306</v>
       </c>
+      <c r="C32">
+        <v>2.1263778709999999</v>
+      </c>
+      <c r="D32">
+        <v>0.99031739500000004</v>
+      </c>
+      <c r="E32">
+        <v>3.7960577139999998</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" t="s">
+        <v>287</v>
+      </c>
       <c r="H32" s="31" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="27" t="s">
-        <v>306</v>
+        <v>314</v>
+      </c>
+      <c r="C33">
+        <v>1.0051327029999999</v>
+      </c>
+      <c r="D33">
+        <v>0.49495520500000001</v>
+      </c>
+      <c r="E33">
+        <v>1.8558520039999999</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" t="s">
+        <v>287</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>311</v>
@@ -13120,13 +13249,43 @@
       <c r="A34" s="27" t="s">
         <v>308</v>
       </c>
+      <c r="C34">
+        <v>3.6212901999999998E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.7022888999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.5484691999999997E-2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>287</v>
+      </c>
       <c r="H34" s="31" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A35" s="27" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="C35">
+        <v>1.7114595999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>8.2082219999999994E-3</v>
+      </c>
+      <c r="E35">
+        <v>3.1991639000000002E-2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>287</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>312</v>
@@ -13313,6 +13472,7 @@
       <c r="A95" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E09E81-CA83-44E0-BD25-66F067CE1B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856B17B-ADA0-4985-B798-FCE2D7CD43AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34755" yWindow="-7620" windowWidth="19755" windowHeight="19605" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36720" yWindow="-7755" windowWidth="33495" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="335">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1085,6 +1085,39 @@
   </si>
   <si>
     <t>GBD 2025</t>
+  </si>
+  <si>
+    <t>Same as baseline</t>
+  </si>
+  <si>
+    <t>Handwavy 5x baseline, establishes a ref rate for PLHIV not on ART, CD4&gt;200</t>
+  </si>
+  <si>
+    <t>Handwavy 1.2x baseline, ref rate for PLHIV on ART</t>
+  </si>
+  <si>
+    <t>Handwavy 10x baseline, ref rate for CD4 &lt;=200</t>
+  </si>
+  <si>
+    <t>Same as ref rate for PLHIV, CD4 &gt;200</t>
+  </si>
+  <si>
+    <t>Same as ref rate for PLHIV, CD4≤200</t>
+  </si>
+  <si>
+    <t>Same as ref rate for PLHIV on ART</t>
+  </si>
+  <si>
+    <t>Crude calculation from GBD = baseline mortality for males (no HIV or TB)</t>
+  </si>
+  <si>
+    <t>Crude calculation from GBD = baseline mortality for females (no HIV or TB)</t>
+  </si>
+  <si>
+    <t>TB-specific baseline</t>
+  </si>
+  <si>
+    <t>Handwavy</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1304,6 +1337,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,11 +1622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K155" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomRight" activeCell="M177" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1606,7 +1642,7 @@
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
     <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
     <col min="16" max="16384" width="8.796875" style="10"/>
   </cols>
@@ -5493,7 +5529,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5522,7 +5558,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5551,7 +5587,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5578,11 +5614,14 @@
         <f t="shared" si="7"/>
         <v>mu_1,1,1</v>
       </c>
-      <c r="K115" s="23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K115" s="11">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O115" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5609,11 +5648,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,1,2</v>
       </c>
-      <c r="K116" s="23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K116" s="11">
+        <f>0.0019</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5640,12 +5683,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,2,1</v>
       </c>
-      <c r="K117" s="23">
-        <f>K115*1.05</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K117" s="11">
+        <f>K115*5</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5672,12 +5718,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,2,2</v>
       </c>
-      <c r="K118" s="23">
-        <f t="shared" ref="K118:K122" si="9">K116*1.05</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K118" s="11">
+        <f>K116*5</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5704,12 +5753,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,3,1</v>
       </c>
-      <c r="K119" s="23">
-        <f t="shared" si="9"/>
-        <v>2.2050000000000004E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K119" s="11">
+        <f>K115*10</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O119" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5736,12 +5788,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,3,2</v>
       </c>
-      <c r="K120" s="23">
-        <f t="shared" si="9"/>
-        <v>2.2050000000000004E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K120" s="11">
+        <f>K116*10</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5768,12 +5823,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,4,1</v>
       </c>
-      <c r="K121" s="23">
-        <f t="shared" si="9"/>
-        <v>2.3152500000000006E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K121" s="11">
+        <f>K115*1.2</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O121" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5800,12 +5858,15 @@
         <f t="shared" si="7"/>
         <v>mu_1,4,2</v>
       </c>
-      <c r="K122" s="23">
-        <f t="shared" si="9"/>
-        <v>2.3152500000000006E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K122" s="11">
+        <f>K116*1.2</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -5832,12 +5893,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,1,1</v>
       </c>
-      <c r="K123" s="23">
-        <f>K115*1.1</f>
-        <v>2.2000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K123" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O123" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -5864,12 +5928,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,1,2</v>
       </c>
-      <c r="K124" s="23">
-        <f t="shared" ref="K124:K125" si="10">K116*1.1</f>
-        <v>2.2000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K124" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O124" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -5896,12 +5963,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,2,1</v>
       </c>
-      <c r="K125" s="23">
-        <f t="shared" si="10"/>
-        <v>2.3100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K125" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O125" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -5928,12 +5998,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,2,2</v>
       </c>
-      <c r="K126" s="23">
-        <f>K118*1.1</f>
-        <v>2.3100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K126" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -5960,13 +6033,16 @@
         <f t="shared" si="7"/>
         <v>mu_2,3,1</v>
       </c>
-      <c r="K127" s="23">
-        <f t="shared" ref="K127:K154" si="11">K125*1.1</f>
-        <v>2.5410000000000005E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A128" s="20" t="s">
+      <c r="K127" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O127" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="A128" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B128" s="9" t="str">
@@ -5992,12 +6068,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,3,2</v>
       </c>
-      <c r="K128" s="23">
-        <f t="shared" si="11"/>
-        <v>2.5410000000000005E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K128" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -6024,12 +6103,15 @@
         <f t="shared" si="7"/>
         <v>mu_2,4,1</v>
       </c>
-      <c r="K129" s="23">
-        <f t="shared" si="11"/>
-        <v>2.7951000000000007E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K129" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -6053,15 +6135,18 @@
         <v>2</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" ref="J130:J161" si="12">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J130:J161" si="9">CONCATENATE(C130, "_", E130, IF(E130&lt;&gt;"",",",""), F130, IF(F130&lt;&gt;"",",",""),  G130, IF(G130&lt;&gt;"",",",""),  H130, IF(I130&lt;&gt;"","(",""), I130, IF(I130&lt;&gt;"",")",""))</f>
         <v>mu_2,4,2</v>
       </c>
-      <c r="K130" s="23">
-        <f t="shared" si="11"/>
-        <v>2.7951000000000007E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K130" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O130" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6085,14 +6170,18 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,1,1</v>
       </c>
-      <c r="K131" s="23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K131" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6116,15 +6205,18 @@
         <v>2</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,1,2</v>
       </c>
-      <c r="K132" s="23">
-        <f t="shared" si="11"/>
-        <v>3.0746100000000009E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K132" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6148,15 +6240,18 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,2,1</v>
       </c>
-      <c r="K133" s="23">
-        <f t="shared" si="11"/>
-        <v>2.2000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K133" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6180,15 +6275,18 @@
         <v>2</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,2,2</v>
       </c>
-      <c r="K134" s="23">
-        <f t="shared" si="11"/>
-        <v>3.3820710000000011E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K134" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6212,15 +6310,18 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,3,1</v>
       </c>
-      <c r="K135" s="23">
-        <f t="shared" si="11"/>
-        <v>2.4200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K135" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O135" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6244,15 +6345,18 @@
         <v>2</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,3,2</v>
       </c>
-      <c r="K136" s="23">
-        <f t="shared" si="11"/>
-        <v>3.7202781000000018E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K136" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O136" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6276,15 +6380,18 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,4,1</v>
       </c>
-      <c r="K137" s="23">
-        <f t="shared" si="11"/>
-        <v>2.6620000000000005E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="K137" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O137" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6308,15 +6415,18 @@
         <v>2</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_3,4,2</v>
       </c>
-      <c r="K138" s="23">
-        <f t="shared" si="11"/>
-        <v>4.092305910000002E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K138" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O138" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6340,15 +6450,18 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,1,1</v>
       </c>
-      <c r="K139" s="23">
-        <f t="shared" si="11"/>
-        <v>2.9282000000000006E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K139" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6372,15 +6485,18 @@
         <v>2</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,1,2</v>
       </c>
-      <c r="K140" s="23">
-        <f t="shared" si="11"/>
-        <v>4.5015365010000023E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K140" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O140" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6404,15 +6520,18 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,2,1</v>
       </c>
-      <c r="K141" s="23">
-        <f t="shared" si="11"/>
-        <v>3.2210200000000008E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K141" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O141" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6436,15 +6555,18 @@
         <v>2</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,2,2</v>
       </c>
-      <c r="K142" s="23">
-        <f t="shared" si="11"/>
-        <v>4.9516901511000029E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K142" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O142" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6468,15 +6590,18 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,3,1</v>
       </c>
-      <c r="K143" s="23">
-        <f t="shared" si="11"/>
-        <v>3.5431220000000013E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K143" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6500,15 +6625,18 @@
         <v>2</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,3,2</v>
       </c>
-      <c r="K144" s="23">
-        <f t="shared" si="11"/>
-        <v>5.4468591662100038E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K144" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6532,15 +6660,18 @@
         <v>1</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,4,1</v>
       </c>
-      <c r="K145" s="23">
-        <f t="shared" si="11"/>
-        <v>3.8974342000000016E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K145" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6564,20 +6695,23 @@
         <v>2</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_4,4,2</v>
       </c>
-      <c r="K146" s="23">
-        <f t="shared" si="11"/>
-        <v>5.9915450828310048E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K146" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O146" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B147" s="9" t="str">
-        <f t="shared" ref="B147:B178" si="13">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
+        <f t="shared" ref="B147:B178" si="10">CONCATENATE("Mortality rates from populations in TB compartment ",VLOOKUP(E147,TB_SET,2)," and HIV compartment ",VLOOKUP(G147,HIV_SET,2)," and gender compartment ",VLOOKUP(H147,G_SET,2)," per year")</f>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -6596,20 +6730,23 @@
         <v>1</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,1,1</v>
       </c>
-      <c r="K147" s="23">
-        <f>K145*1.05</f>
-        <v>4.092305910000002E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K147" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O147" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B148" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -6628,20 +6765,23 @@
         <v>2</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,1,2</v>
       </c>
-      <c r="K148" s="23">
-        <f>K146*1.05</f>
-        <v>6.2911223369725558E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K148" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O148" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B149" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -6660,20 +6800,23 @@
         <v>1</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,2,1</v>
       </c>
-      <c r="K149" s="23">
-        <f>K147*1.05</f>
-        <v>4.2969212055000025E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K149" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O149" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B150" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -6692,20 +6835,23 @@
         <v>2</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,2,2</v>
       </c>
-      <c r="K150" s="23">
-        <f t="shared" si="11"/>
-        <v>6.9202345706698115E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K150" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O150" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B151" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -6724,20 +6870,23 @@
         <v>1</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,3,1</v>
       </c>
-      <c r="K151" s="23">
-        <f t="shared" si="11"/>
-        <v>4.7266133260500033E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K151" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O151" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
       <c r="B152" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -6756,20 +6905,23 @@
         <v>2</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,3,2</v>
       </c>
-      <c r="K152" s="23">
-        <f t="shared" si="11"/>
-        <v>7.6122580277367929E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K152" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O152" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B153" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -6788,20 +6940,23 @@
         <v>1</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,4,1</v>
       </c>
-      <c r="K153" s="23">
-        <f t="shared" si="11"/>
-        <v>5.1992746586550044E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K153" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O153" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B154" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, on IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -6820,20 +6975,23 @@
         <v>2</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_5,4,2</v>
       </c>
-      <c r="K154" s="23">
-        <f t="shared" si="11"/>
-        <v>8.3734838305104725E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K154" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O154" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B155" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -6852,20 +7010,23 @@
         <v>1</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,1,1</v>
       </c>
-      <c r="K155" s="23">
-        <f>K153*1.3</f>
-        <v>6.7590570562515065E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K155" s="11">
+        <f>K115*20</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O155" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B156" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -6884,20 +7045,23 @@
         <v>2</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,1,2</v>
       </c>
-      <c r="K156" s="23">
-        <f t="shared" ref="K156:K162" si="14">K154*1.3</f>
-        <v>0.10885528979663614</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K156" s="11">
+        <f>K116*20</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O156" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B157" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -6916,20 +7080,23 @@
         <v>1</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,2,1</v>
       </c>
-      <c r="K157" s="23">
-        <f t="shared" si="14"/>
-        <v>8.7867741731269586E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K157" s="11">
+        <f>K115*50</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O157" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
       <c r="B158" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -6948,20 +7115,23 @@
         <v>2</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,2,2</v>
       </c>
-      <c r="K158" s="23">
-        <f t="shared" si="14"/>
-        <v>0.14151187673562698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K158" s="11">
+        <f>K116*50</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O158" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B159" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -6980,20 +7150,23 @@
         <v>1</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,3,1</v>
       </c>
-      <c r="K159" s="23">
-        <f t="shared" si="14"/>
-        <v>0.11422806425065046</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K159" s="11">
+        <f>K115*100</f>
+        <v>0.33</v>
+      </c>
+      <c r="O159" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B160" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -7012,20 +7185,23 @@
         <v>2</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,3,2</v>
       </c>
-      <c r="K160" s="23">
-        <f t="shared" si="14"/>
-        <v>0.18396543975631507</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K160" s="11">
+        <f>K116*100</f>
+        <v>0.19</v>
+      </c>
+      <c r="O160" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B161" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -7044,20 +7220,23 @@
         <v>1</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>mu_6,4,1</v>
       </c>
-      <c r="K161" s="23">
-        <f t="shared" si="14"/>
-        <v>0.1484964835258456</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K161" s="11">
+        <f>K115*30</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O161" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B162" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Active and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -7076,20 +7255,23 @@
         <v>2</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f t="shared" ref="J162:J193" si="15">CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J162:J193" si="11">CONCATENATE(C162, "_", E162, IF(E162&lt;&gt;"",",",""), F162, IF(F162&lt;&gt;"",",",""),  G162, IF(G162&lt;&gt;"",",",""),  H162, IF(I162&lt;&gt;"","(",""), I162, IF(I162&lt;&gt;"",")",""))</f>
         <v>mu_6,4,2</v>
       </c>
-      <c r="K162" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2391550716832096</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K162" s="11">
+        <f>K116*30</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O162" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B163" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -7108,20 +7290,23 @@
         <v>1</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,1,1</v>
       </c>
-      <c r="K163" s="23">
-        <f>K161*0.8</f>
-        <v>0.11879718682067648</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K163" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O163" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
       <c r="B164" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -7140,20 +7325,23 @@
         <v>2</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,1,2</v>
       </c>
-      <c r="K164" s="23">
-        <f t="shared" ref="K164:K170" si="16">K162*0.8</f>
-        <v>0.19132405734656768</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K164" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O164" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
       <c r="B165" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -7172,20 +7360,23 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,2,1</v>
       </c>
-      <c r="K165" s="23">
-        <f t="shared" si="16"/>
-        <v>9.5037749456541198E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K165" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O165" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B166" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -7204,20 +7395,23 @@
         <v>2</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,2,2</v>
       </c>
-      <c r="K166" s="23">
-        <f t="shared" si="16"/>
-        <v>0.15305924587725417</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K166" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O166" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
       <c r="B167" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -7236,20 +7430,23 @@
         <v>1</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,3,1</v>
       </c>
-      <c r="K167" s="23">
-        <f t="shared" si="16"/>
-        <v>7.6030199565232964E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K167" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O167" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B168" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -7268,20 +7465,23 @@
         <v>2</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,3,2</v>
       </c>
-      <c r="K168" s="23">
-        <f t="shared" si="16"/>
-        <v>0.12244739670180334</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K168" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O168" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
       <c r="B169" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -7300,20 +7500,23 @@
         <v>1</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,4,1</v>
       </c>
-      <c r="K169" s="23">
-        <f t="shared" si="16"/>
-        <v>6.0824159652186377E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K169" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O169" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  Recovered/Treated and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -7332,20 +7535,23 @@
         <v>2</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_7,4,2</v>
       </c>
-      <c r="K170" s="23">
-        <f t="shared" si="16"/>
-        <v>9.7957917361442673E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K170" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O170" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Male per year</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -7364,20 +7570,23 @@
         <v>1</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,1,1</v>
       </c>
-      <c r="K171" s="23">
-        <f>K169*0.7</f>
-        <v>4.2576911756530458E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K171" s="11">
+        <f>K115</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  HIV-negative and gender compartment Female per year</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -7396,20 +7605,23 @@
         <v>2</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,1,2</v>
       </c>
-      <c r="K172" s="23">
-        <f t="shared" ref="K172:K178" si="17">K170*0.7</f>
-        <v>6.8570542153009867E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K172" s="11">
+        <f>K116</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="O172" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male per year</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -7428,20 +7640,23 @@
         <v>1</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,2,1</v>
       </c>
-      <c r="K173" s="23">
-        <f t="shared" si="17"/>
-        <v>2.9803838229571319E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K173" s="11">
+        <f>K117</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O173" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female per year</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -7460,20 +7675,23 @@
         <v>2</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,2,2</v>
       </c>
-      <c r="K174" s="23">
-        <f t="shared" si="17"/>
-        <v>4.7999379507106907E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K174" s="11">
+        <f>K118</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O174" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Male per year</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -7492,20 +7710,23 @@
         <v>1</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,3,1</v>
       </c>
-      <c r="K175" s="23">
-        <f t="shared" si="17"/>
-        <v>2.0862686760699922E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+      <c r="K175" s="11">
+        <f>K119</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O175" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV not on ART, CD4≤200 and gender compartment Female per year</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -7524,20 +7745,23 @@
         <v>2</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,3,2</v>
       </c>
-      <c r="K176" s="23">
-        <f t="shared" si="17"/>
-        <v>3.3599565654974829E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K176" s="11">
+        <f>K120</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O176" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Male per year</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -7556,20 +7780,23 @@
         <v>1</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,4,1</v>
       </c>
-      <c r="K177" s="23">
-        <f t="shared" si="17"/>
-        <v>1.4603880732489943E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="K177" s="11">
+        <f>K121</f>
+        <v>3.96E-3</v>
+      </c>
+      <c r="O177" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Mortality rates from populations in TB compartment  LTBI, after IPT and HIV compartment  PLHIV and on ART and gender compartment Female per year</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -7588,20 +7815,23 @@
         <v>2</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>mu_8,4,2</v>
       </c>
-      <c r="K178" s="23">
-        <f t="shared" si="17"/>
-        <v>2.351969595848238E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K178" s="11">
+        <f>K122</f>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="O178" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f t="shared" ref="B179:B194" si="18">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
+        <f t="shared" ref="B179:B194" si="12">CONCATENATE("Birth rate into HIV compartment ", VLOOKUP(G179, HIV_SET, 2), " and gender compartment ", VLOOKUP(H179, G_SET, 2), ", per year")</f>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -7620,19 +7850,19 @@
         <v>1</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_1,1,1</v>
       </c>
       <c r="K179" s="23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -7651,19 +7881,19 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_3,1,1</v>
       </c>
       <c r="K180" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -7682,19 +7912,19 @@
         <v>1</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_4,1,1</v>
       </c>
       <c r="K181" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Male, per year</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -7713,19 +7943,19 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_6,1,1</v>
       </c>
       <c r="K182" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -7744,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_1,2,1</v>
       </c>
       <c r="K183" s="23">
@@ -7752,12 +7982,12 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -7776,20 +8006,20 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_3,2,1</v>
       </c>
       <c r="K184" s="23">
-        <f t="shared" ref="K184:K186" si="19">K180*0.01</f>
+        <f t="shared" ref="K184:K186" si="13">K180*0.01</f>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -7808,20 +8038,20 @@
         <v>1</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_4,2,1</v>
       </c>
       <c r="K185" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Male, per year</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -7840,20 +8070,20 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_6,2,1</v>
       </c>
       <c r="K186" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -7872,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_1,1,2</v>
       </c>
       <c r="K187" s="23">
@@ -7880,12 +8110,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -7904,20 +8134,20 @@
         <v>2</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_3,1,2</v>
       </c>
       <c r="K188" s="23">
-        <f t="shared" ref="K188:K194" si="20">K180*0.95</f>
+        <f t="shared" ref="K188:K194" si="14">K180*0.95</f>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -7936,20 +8166,20 @@
         <v>2</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_4,1,2</v>
       </c>
       <c r="K189" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  HIV-negative and gender compartment Female, per year</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -7968,20 +8198,20 @@
         <v>2</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_6,1,2</v>
       </c>
       <c r="K190" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -8000,20 +8230,20 @@
         <v>2</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_1,2,2</v>
       </c>
       <c r="K191" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -8032,11 +8262,11 @@
         <v>2</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_3,2,2</v>
       </c>
       <c r="K192" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
@@ -8045,7 +8275,7 @@
         <v>233</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -8064,11 +8294,11 @@
         <v>2</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>rho_4,2,2</v>
       </c>
       <c r="K193" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
@@ -8077,7 +8307,7 @@
         <v>233</v>
       </c>
       <c r="B194" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>Birth rate into HIV compartment  PLHIV not on ART, CD4&gt;200 and gender compartment Female, per year</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -8096,11 +8326,11 @@
         <v>2</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" ref="J194" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J194" si="15">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
         <v>rho_6,2,2</v>
       </c>
       <c r="K194" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>4.7500000000000003E-5</v>
       </c>
     </row>
@@ -12650,11 +12880,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27:G35"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/ws.epi_model_HIV_TB/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44219354-4639-4870-8BBD-764F8F68B8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98E987-0D4D-B543-AF82-98BB761A3C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27420" yWindow="-4605" windowWidth="26940" windowHeight="19530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,10 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="348">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -952,9 +943,6 @@
     <t>Total population</t>
   </si>
   <si>
-    <t>Percentage of pop HIV +</t>
-  </si>
-  <si>
     <t>Percentage of pop Male</t>
   </si>
   <si>
@@ -964,9 +952,6 @@
     <t>Percentage of pop active</t>
   </si>
   <si>
-    <t>Percentage of pop LTBI</t>
-  </si>
-  <si>
     <t>All-cause mortality rate per 100,000 ages 15-49 male</t>
   </si>
   <si>
@@ -1163,15 +1148,25 @@
   </si>
   <si>
     <t>This is a guess and may need further revision</t>
+  </si>
+  <si>
+    <t>percentage of pop LTBI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1303,23 +1298,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,61 +1329,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,31 +1687,31 @@
   <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="10"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="51">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="17">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="64">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="64">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="34">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="34">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="32">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="32">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="34">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="32">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="64">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="51">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="51">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
@@ -2142,7 +2140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="51">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="51">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -2219,7 +2217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="51">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="51">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
@@ -2299,7 +2297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="51">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
@@ -2339,7 +2337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="51">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="51">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="68">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="68">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="68">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="68">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="68">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="68">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="68">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="68">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="51">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="51">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
@@ -2801,7 +2799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="51">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
@@ -2838,7 +2836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="51">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="51">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="51">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="51">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="51">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
@@ -3023,7 +3021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="51">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="51">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="51">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="51">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="51">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="51">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="51">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
@@ -3297,7 +3295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="51">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="51">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="51">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="68">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="68">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="68">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
@@ -3528,7 +3526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="68">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
@@ -3565,7 +3563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="68">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="68">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
@@ -3639,7 +3637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="51">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="51">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="51">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="51">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
@@ -3787,7 +3785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="51">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
@@ -3824,7 +3822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="51">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="51">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="51">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="51">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="51">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="51">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="51">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -4083,7 +4081,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="51">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="51">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -4157,7 +4155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="51">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="51">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="68">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="68">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
@@ -4305,7 +4303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="68">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="68">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -4379,7 +4377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="68">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -4416,7 +4414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="68">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="68">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
@@ -4490,7 +4488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="68">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="51">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="51">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
@@ -4601,7 +4599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="51">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="51">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="51">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="51">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="51">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
@@ -4786,7 +4784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="51">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="17">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="17">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4873,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="34">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
@@ -4904,7 +4902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="34">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="34">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="34">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="34">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="34">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="17">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="17">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="17">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="17">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="34">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="34">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="34">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="34">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="34">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" ht="34">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" ht="34">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" ht="34">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="34">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5416,7 +5414,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="34">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5448,7 +5446,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" ht="34">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" ht="34">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="34">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5537,7 +5535,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="34">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="34">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5595,7 +5593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" ht="34">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="34">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5653,7 +5651,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="48">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5684,10 +5682,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O115" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="48">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5719,10 +5717,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O116" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="51">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5754,10 +5752,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="51">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5789,10 +5787,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O118" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="51">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5824,10 +5822,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="51">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5859,10 +5857,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="48">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5894,10 +5892,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O121" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="48">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5929,10 +5927,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O122" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="48">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -5964,10 +5962,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O123" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="48">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -5999,10 +5997,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O124" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="51">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -6034,10 +6032,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O125" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="51">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -6069,10 +6067,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O126" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="51">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -6104,10 +6102,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="51">
       <c r="A128" s="31" t="s">
         <v>178</v>
       </c>
@@ -6139,10 +6137,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O128" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="48">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -6174,10 +6172,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O129" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="48">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -6209,10 +6207,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="51">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6244,10 +6242,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="51">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6279,10 +6277,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O132" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="51">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6314,10 +6312,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O133" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="51">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6349,10 +6347,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="51">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6384,10 +6382,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="51">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6419,10 +6417,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O136" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="51">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6454,10 +6452,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O137" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="51">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6489,10 +6487,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="48">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6524,10 +6522,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O139" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="48">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6559,10 +6557,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O140" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="51">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6594,10 +6592,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O141" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="51">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6629,10 +6627,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="51">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6664,10 +6662,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O143" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="51">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6699,10 +6697,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="51">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6734,10 +6732,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O145" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="51">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6769,10 +6767,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O146" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="48">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
@@ -6804,10 +6802,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O147" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="48">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
@@ -6839,10 +6837,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O148" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="51">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
@@ -6874,10 +6872,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O149" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="51">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
@@ -6909,10 +6907,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="51">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
@@ -6944,10 +6942,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="51">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
@@ -6979,10 +6977,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="48">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
@@ -7014,10 +7012,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O153" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="48">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
@@ -7049,10 +7047,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="48">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
@@ -7084,10 +7082,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O155" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="48">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
@@ -7119,10 +7117,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O156" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="51">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
@@ -7154,10 +7152,10 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="51">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
@@ -7189,10 +7187,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O158" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="51">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
@@ -7224,10 +7222,10 @@
         <v>0.33</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="51">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
@@ -7259,10 +7257,10 @@
         <v>0.19</v>
       </c>
       <c r="O160" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="48">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
@@ -7294,10 +7292,10 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="O161" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="48">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
@@ -7329,10 +7327,10 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="48">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
@@ -7364,10 +7362,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O163" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="48">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
@@ -7399,10 +7397,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O164" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="51">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
@@ -7434,10 +7432,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="51">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
@@ -7469,10 +7467,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O166" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="51">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
@@ -7504,10 +7502,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="51">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
@@ -7539,10 +7537,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O168" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="48">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
@@ -7574,10 +7572,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O169" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="48">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
@@ -7609,10 +7607,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O170" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="48">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
@@ -7644,10 +7642,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O171" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="48">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
@@ -7679,10 +7677,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O172" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="51">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
@@ -7714,10 +7712,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O173" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="51">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
@@ -7749,10 +7747,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O174" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="51">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
@@ -7784,10 +7782,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O175" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="51">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
@@ -7819,10 +7817,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O176" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="48">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
@@ -7854,10 +7852,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O177" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="48">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
@@ -7889,10 +7887,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O178" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="34">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
@@ -7923,7 +7921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" ht="34">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
@@ -7954,7 +7952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" ht="34">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
@@ -7985,7 +7983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" ht="34">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
@@ -8016,7 +8014,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" ht="34">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
@@ -8048,7 +8046,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" ht="34">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
@@ -8080,7 +8078,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" ht="34">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
@@ -8112,7 +8110,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" ht="34">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
@@ -8144,7 +8142,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" ht="34">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
@@ -8176,7 +8174,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" ht="34">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
@@ -8208,7 +8206,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" ht="34">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
@@ -8240,7 +8238,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" ht="34">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
@@ -8272,7 +8270,7 @@
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" ht="34">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
@@ -8304,7 +8302,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" ht="34">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" ht="34">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
@@ -8368,7 +8366,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" ht="34">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
@@ -8401,8 +8399,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O194" xr:uid="{BC67A81D-7C1F-3D4A-875A-F60944DEF322}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
+  <sortState ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8416,24 +8413,24 @@
   <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.1328125" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
     <col min="8" max="13" width="22.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.46484375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="20.46484375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="34">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8456,22 +8453,22 @@
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -8486,7 +8483,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="32">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8539,7 +8536,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="48">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8592,7 +8589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="32">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8645,7 +8642,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="48">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8698,7 +8695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="48">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8751,7 +8748,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="48">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8804,7 +8801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="32">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8857,7 +8854,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="48">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8910,7 +8907,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="32">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8963,7 +8960,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="32">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9016,7 +9013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="32">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9069,7 +9066,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="32">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9122,7 +9119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="32">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9175,7 +9172,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="48">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9228,7 +9225,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="32">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9281,7 +9278,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="32">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9334,7 +9331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="48">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9387,7 +9384,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="48">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9440,7 +9437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="48">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9493,7 +9490,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="48">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9546,7 +9543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="48">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9599,7 +9596,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="48">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9652,7 +9649,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="48">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9705,7 +9702,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="48">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9758,7 +9755,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="32">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9811,7 +9808,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="48">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9864,7 +9861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="32">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9917,7 +9914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="48">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9970,7 +9967,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="48">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10023,7 +10020,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="48">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10076,7 +10073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="48">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10129,7 +10126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="48">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10182,7 +10179,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="48">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10235,7 +10232,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="48">
       <c r="A35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10288,7 +10285,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="48">
       <c r="A36" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10341,7 +10338,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="48">
       <c r="A37" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10394,7 +10391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="48">
       <c r="A38" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10447,7 +10444,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="48">
       <c r="A39" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10500,7 +10497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="48">
       <c r="A40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10553,7 +10550,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="48">
       <c r="A41" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10606,7 +10603,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="32">
       <c r="A42" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10659,7 +10656,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="48">
       <c r="A43" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10712,7 +10709,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="32">
       <c r="A44" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10765,7 +10762,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="48">
       <c r="A45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10818,7 +10815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="48">
       <c r="A46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10871,7 +10868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="48">
       <c r="A47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10924,7 +10921,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="48">
       <c r="A48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10977,7 +10974,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="48">
       <c r="A49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -11030,7 +11027,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11083,7 +11080,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="48">
       <c r="A51" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11136,7 +11133,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="32">
       <c r="A52" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11189,7 +11186,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="48">
       <c r="A53" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11242,7 +11239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="48">
       <c r="A54" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11295,7 +11292,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="48">
       <c r="A55" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11348,7 +11345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="32">
       <c r="A56" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11401,7 +11398,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="48">
       <c r="A57" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11454,7 +11451,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="32">
       <c r="A58" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11507,7 +11504,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="48">
       <c r="A59" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11560,7 +11557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="32">
       <c r="A60" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11613,7 +11610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="32">
       <c r="A61" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11666,7 +11663,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="32">
       <c r="A62" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11719,7 +11716,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="48">
       <c r="A63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11772,7 +11769,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="32">
       <c r="A64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11825,7 +11822,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" ht="48">
       <c r="A65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11878,7 +11875,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" ht="32">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -11931,7 +11928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" ht="48">
       <c r="A67" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -11984,7 +11981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="32">
       <c r="A68" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12037,7 +12034,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="48">
       <c r="A69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -12090,7 +12087,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="48">
       <c r="A70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12143,7 +12140,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="48">
       <c r="A71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12196,7 +12193,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="32">
       <c r="A72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12249,7 +12246,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="48">
       <c r="A73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12302,7 +12299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="32">
       <c r="A74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12355,7 +12352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="32">
       <c r="A75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12408,7 +12405,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="32">
       <c r="A76" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12461,7 +12458,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="32">
       <c r="A77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12514,7 +12511,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="32">
       <c r="A78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12567,7 +12564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" ht="48">
       <c r="A79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12620,7 +12617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" ht="32">
       <c r="A80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12673,7 +12670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" ht="32">
       <c r="A81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12726,7 +12723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" ht="48">
       <c r="A82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12779,7 +12776,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" ht="48">
       <c r="A83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -12832,7 +12829,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="48">
       <c r="A84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12885,7 +12882,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" ht="48">
       <c r="A85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -12938,7 +12935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="48">
       <c r="A86" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12991,7 +12988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="48">
       <c r="A87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13044,7 +13041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" ht="48">
       <c r="A88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13097,7 +13094,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" ht="48">
       <c r="A89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13150,7 +13147,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" ht="32">
       <c r="A90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13203,7 +13200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" ht="48">
       <c r="A91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13256,7 +13253,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" ht="32">
       <c r="A92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13309,7 +13306,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="48">
       <c r="A93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13362,7 +13359,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" ht="48">
       <c r="A94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13415,7 +13412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" ht="48">
       <c r="A95" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13468,7 +13465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" ht="48">
       <c r="A96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13521,7 +13518,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" ht="48">
       <c r="A97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13574,7 +13571,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" ht="48">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="10">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13627,7 +13624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" ht="48">
       <c r="A99" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -13680,7 +13677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" ht="48">
       <c r="A100" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13733,7 +13730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" ht="48">
       <c r="A101" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13786,7 +13783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" ht="48">
       <c r="A102" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13839,7 +13836,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" ht="48">
       <c r="A103" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13892,7 +13889,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" ht="48">
       <c r="A104" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13945,7 +13942,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" ht="48">
       <c r="A105" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13998,7 +13995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" ht="32">
       <c r="A106" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14051,7 +14048,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" ht="48">
       <c r="A107" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14104,7 +14101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" ht="32">
       <c r="A108" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14157,7 +14154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" ht="48">
       <c r="A109" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14210,7 +14207,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" ht="48">
       <c r="A110" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14263,7 +14260,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" ht="48">
       <c r="A111" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14316,7 +14313,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" ht="48">
       <c r="A112" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14369,7 +14366,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" ht="48">
       <c r="A113" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14422,7 +14419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" ht="48">
       <c r="A114" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14475,7 +14472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" ht="48">
       <c r="A115" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14528,7 +14525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" ht="48">
       <c r="A116" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14581,7 +14578,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" ht="48">
       <c r="A117" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14634,7 +14631,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" ht="48">
       <c r="A118" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14687,7 +14684,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" ht="48">
       <c r="A119" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14740,7 +14737,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" ht="48">
       <c r="A120" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14793,7 +14790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" ht="48">
       <c r="A121" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14846,7 +14843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" ht="32">
       <c r="A122" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14899,7 +14896,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" ht="48">
       <c r="A123" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14952,7 +14949,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" ht="32">
       <c r="A124" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15005,7 +15002,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" ht="32">
       <c r="A125" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15058,7 +15055,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" ht="48">
       <c r="A126" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15111,7 +15108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" ht="48">
       <c r="A127" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15164,7 +15161,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" ht="48">
       <c r="A128" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15217,7 +15214,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" ht="48">
       <c r="A129" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15270,264 +15267,264 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:3">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:3">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:3">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:3">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:3">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:3">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:3">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:3">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:3">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:3">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:3">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:3">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:3">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:3">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:3">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:3">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:3">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:3">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:3">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:3">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:3">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:3">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:3">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:3">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:3">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:3">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:3">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:3">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:3">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:3">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:3">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:3">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:3">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:3">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:3">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:3">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:3">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:3">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:3">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:3">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:3">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:3">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:3">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:3">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:3">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:3">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:3">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:3">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:3">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q129">
+  <sortState ref="A2:Q129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15536,28 +15533,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="48">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15583,7 +15580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="51">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -15594,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -15605,7 +15602,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -15616,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -15627,7 +15624,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="39" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -15638,7 +15635,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -15649,7 +15646,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -15660,7 +15657,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
@@ -15671,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="17">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -15679,744 +15676,740 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:8" ht="34">
+      <c r="A11" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1-C13-C12</f>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34">
+      <c r="A12" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" s="1">
-        <f>1-C14-C13</f>
-        <v>0.17999999999999994</v>
-      </c>
-      <c r="G12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>344</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:8" ht="17">
       <c r="A15" s="25" t="s">
         <v>279</v>
       </c>
       <c r="C15" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="25" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="27" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
+      <c r="A18" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="27" t="s">
+      <c r="G18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="1">
+        <f>1-C15-C16</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34">
+      <c r="A20" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="27" t="s">
+      <c r="C20">
+        <v>667.69125159867303</v>
+      </c>
+      <c r="D20">
+        <v>621.91596160486597</v>
+      </c>
+      <c r="E20">
+        <v>725.80082818748997</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
-      </c>
       <c r="G20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+        <v>284</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34">
       <c r="A21" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21">
+        <v>487.71837360315601</v>
+      </c>
+      <c r="D21">
+        <v>436.91669589439499</v>
+      </c>
+      <c r="E21">
+        <v>556.03760119042602</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C21">
-        <v>667.69125159867303</v>
-      </c>
-      <c r="D21">
-        <v>621.91596160486597</v>
-      </c>
-      <c r="E21">
-        <v>725.80082818748997</v>
-      </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="34">
+      <c r="A22" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22">
+        <v>353.97451428615199</v>
+      </c>
+      <c r="D22">
+        <v>298.14022379823899</v>
+      </c>
+      <c r="E22">
+        <v>421.02666012590601</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" t="s">
         <v>284</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H22" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="34">
+      <c r="A23" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23">
+        <v>328.28962708281801</v>
+      </c>
+      <c r="D23">
+        <v>275.75168655442201</v>
+      </c>
+      <c r="E23">
+        <v>397.64813504226203</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="27" t="s">
+      <c r="C24">
+        <v>270.29685912212301</v>
+      </c>
+      <c r="D24">
+        <v>206.97423329835701</v>
+      </c>
+      <c r="E24">
+        <v>343.91638639716899</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C22">
-        <v>487.71837360315601</v>
-      </c>
-      <c r="D22">
-        <v>436.91669589439499</v>
-      </c>
-      <c r="E22">
-        <v>556.03760119042602</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" t="s">
-        <v>286</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23">
-        <v>353.97451428615199</v>
-      </c>
-      <c r="D23">
-        <v>298.14022379823899</v>
-      </c>
-      <c r="E23">
-        <v>421.02666012590601</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G23" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A24" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24">
-        <v>328.28962708281801</v>
-      </c>
-      <c r="D24">
-        <v>275.75168655442201</v>
-      </c>
-      <c r="E24">
-        <v>397.64813504226203</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="27" t="s">
         <v>288</v>
       </c>
       <c r="C25">
-        <v>270.29685912212301</v>
+        <v>264.93621874887299</v>
       </c>
       <c r="D25">
-        <v>206.97423329835701</v>
+        <v>205.62683179700201</v>
       </c>
       <c r="E25">
-        <v>343.91638639716899</v>
+        <v>339.17910941088098</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" t="s">
         <v>284</v>
       </c>
-      <c r="G25" t="s">
-        <v>286</v>
-      </c>
       <c r="H25" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
+      <c r="A26" s="27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A26" s="27" t="s">
+      <c r="C26">
+        <v>76.970274789631006</v>
+      </c>
+      <c r="D26">
+        <v>48.421027847361103</v>
+      </c>
+      <c r="E26">
+        <v>109.456440346139</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
+      <c r="A27" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C26">
-        <v>264.93621874887299</v>
-      </c>
-      <c r="D26">
-        <v>205.62683179700201</v>
-      </c>
-      <c r="E26">
-        <v>339.17910941088098</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="C27">
+        <v>58.460988902228898</v>
+      </c>
+      <c r="D27">
+        <v>34.611741515461397</v>
+      </c>
+      <c r="E27">
+        <v>87.602923512240494</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" t="s">
         <v>284</v>
       </c>
-      <c r="G26" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A27" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27">
-        <v>76.970274789631006</v>
-      </c>
-      <c r="D27">
-        <v>48.421027847361103</v>
-      </c>
-      <c r="E27">
-        <v>109.456440346139</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="34">
+      <c r="A28" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28">
+        <v>6.5950565310523803</v>
+      </c>
+      <c r="D28">
+        <v>2.67155063488859</v>
+      </c>
+      <c r="E28">
+        <v>13.136486160221301</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
         <v>284</v>
       </c>
-      <c r="G27" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="30" t="s">
+      <c r="H28" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34">
+      <c r="A29" s="27" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A28" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28">
-        <v>58.460988902228898</v>
-      </c>
-      <c r="D28">
-        <v>34.611741515461397</v>
-      </c>
-      <c r="E28">
-        <v>87.602923512240494</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="C29">
+        <v>4.8104961798478998</v>
+      </c>
+      <c r="D29">
+        <v>1.8525923964359301</v>
+      </c>
+      <c r="E29">
+        <v>10.096949019498</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
         <v>284</v>
       </c>
-      <c r="G28" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A29" s="27" t="s">
+      <c r="H29" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C29">
-        <v>6.5950565310523803</v>
-      </c>
-      <c r="D29">
-        <v>2.67155063488859</v>
-      </c>
-      <c r="E29">
-        <v>13.136486160221301</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G29" t="s">
-        <v>286</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:9" ht="34">
       <c r="A30" s="27" t="s">
         <v>297</v>
       </c>
       <c r="C30">
-        <v>4.8104961798478998</v>
+        <v>0.112323843345287</v>
       </c>
       <c r="D30">
-        <v>1.8525923964359301</v>
+        <v>4.5985772535474097E-2</v>
       </c>
       <c r="E30">
-        <v>10.096949019498</v>
+        <v>0.22960163575013601</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
         <v>284</v>
       </c>
-      <c r="G30" t="s">
-        <v>286</v>
-      </c>
       <c r="H30" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34">
+      <c r="A31" s="27" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A31" s="27" t="s">
+      <c r="C31">
+        <v>8.1923251867938002E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.1924496573431098E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.17543715890676301</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C31">
-        <v>0.112323843345287</v>
-      </c>
-      <c r="D31">
-        <v>4.5985772535474097E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.22960163575013601</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" t="s">
-        <v>286</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="32" spans="1:9" ht="34">
       <c r="A32" s="27" t="s">
         <v>300</v>
       </c>
       <c r="C32">
-        <v>8.1923251867938002E-2</v>
+        <v>32.781908989999998</v>
       </c>
       <c r="D32">
-        <v>3.1924496573431098E-2</v>
+        <v>29.630786910000001</v>
       </c>
       <c r="E32">
-        <v>0.17543715890676301</v>
+        <v>36.915591910000003</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="G32" t="s">
-        <v>286</v>
-      </c>
       <c r="H32" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34">
       <c r="A33" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33">
+        <v>15.92630484</v>
+      </c>
+      <c r="D33">
+        <v>13.86750552</v>
+      </c>
+      <c r="E33">
+        <v>18.053657309999998</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51">
+      <c r="A34" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C33">
-        <v>32.781908989999998</v>
-      </c>
-      <c r="D33">
-        <v>29.630786910000001</v>
-      </c>
-      <c r="E33">
-        <v>36.915591910000003</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="C34">
+        <v>30.619318209999999</v>
+      </c>
+      <c r="D34">
+        <v>27.03644954</v>
+      </c>
+      <c r="E34">
+        <v>34.821362049999998</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A34" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34">
-        <v>15.92630484</v>
-      </c>
-      <c r="D34">
-        <v>13.86750552</v>
-      </c>
-      <c r="E34">
-        <v>18.053657309999998</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="51">
       <c r="A35" s="27" t="s">
         <v>304</v>
       </c>
       <c r="C35">
-        <v>30.619318209999999</v>
+        <v>14.90405754</v>
       </c>
       <c r="D35">
-        <v>27.03644954</v>
+        <v>12.80162367</v>
       </c>
       <c r="E35">
-        <v>34.821362049999998</v>
+        <v>17.08584523</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34">
+      <c r="A36" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36">
+        <v>2.1263778709999999</v>
+      </c>
+      <c r="D36">
+        <v>0.99031739500000004</v>
+      </c>
+      <c r="E36">
+        <v>3.7960577139999998</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="30" t="s">
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="34">
+      <c r="A37" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37">
+        <v>1.0051327029999999</v>
+      </c>
+      <c r="D37">
+        <v>0.49495520500000001</v>
+      </c>
+      <c r="E37">
+        <v>1.8558520039999999</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34">
+      <c r="A38" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38">
+        <v>3.6212901999999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.7022888999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>6.5484691999999997E-2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" s="30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A36" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36">
-        <v>14.90405754</v>
-      </c>
-      <c r="D36">
-        <v>12.80162367</v>
-      </c>
-      <c r="E36">
-        <v>17.08584523</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G36" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="30" t="s">
+    <row r="39" spans="1:8" ht="34">
+      <c r="A39" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39">
+        <v>1.7114595999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>8.2082219999999994E-3</v>
+      </c>
+      <c r="E39">
+        <v>3.1991639000000002E-2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A37" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37">
-        <v>2.1263778709999999</v>
-      </c>
-      <c r="D37">
-        <v>0.99031739500000004</v>
-      </c>
-      <c r="E37">
-        <v>3.7960577139999998</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A38" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38">
-        <v>1.0051327029999999</v>
-      </c>
-      <c r="D38">
-        <v>0.49495520500000001</v>
-      </c>
-      <c r="E38">
-        <v>1.8558520039999999</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G38" t="s">
-        <v>286</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A39" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39">
-        <v>3.6212901999999998E-2</v>
-      </c>
-      <c r="D39">
-        <v>1.7022888999999999E-2</v>
-      </c>
-      <c r="E39">
-        <v>6.5484691999999997E-2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A40" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C40">
-        <v>1.7114595999999999E-2</v>
-      </c>
-      <c r="D40">
-        <v>8.2082219999999994E-3</v>
-      </c>
-      <c r="E40">
-        <v>3.1991639000000002E-2</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G40" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="16">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="18"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="18"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" ht="16">
       <c r="A44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="16">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" ht="16">
       <c r="A46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" ht="16">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" ht="16">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" ht="16">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="16">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" ht="16">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" ht="16">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" ht="16">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" ht="16">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" ht="16">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:1" ht="16">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:1" ht="16">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:1" ht="16">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:1" ht="16">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:1" ht="16">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:1" ht="16">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:1" ht="16">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:1" ht="16">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:1" ht="16">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" ht="16">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" ht="16">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" ht="16">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" ht="16">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" ht="16">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" ht="16">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" ht="16">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" ht="16">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" ht="16">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" ht="16">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" ht="16">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" ht="16">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" ht="16">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" ht="16">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" ht="16">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" ht="16">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" ht="16">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" ht="16">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" ht="16">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" ht="16">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" ht="16">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" ht="16">
       <c r="A86" s="18"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" ht="16">
       <c r="A87" s="18"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" ht="16">
       <c r="A88" s="18"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" ht="16">
       <c r="A89" s="18"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" ht="16">
       <c r="A90" s="18"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" ht="16">
       <c r="A91" s="18"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" ht="16">
       <c r="A92" s="18"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" ht="16">
       <c r="A93" s="18"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" ht="16">
       <c r="A94" s="18"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" ht="16">
       <c r="A95" s="18"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" ht="16">
       <c r="A96" s="18"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:1" ht="16">
       <c r="A97" s="18"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:1" ht="16">
       <c r="A98" s="18"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:1" ht="16">
       <c r="A99" s="18"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A100" s="18"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16427,17 +16420,17 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16445,7 +16438,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16453,7 +16446,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16461,7 +16454,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16469,7 +16462,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16477,7 +16470,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16485,7 +16478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16493,7 +16486,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16501,12 +16494,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16514,7 +16507,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -16522,12 +16515,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16535,7 +16528,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -16543,7 +16536,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -16551,7 +16544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16559,12 +16552,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16572,7 +16565,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -16580,12 +16573,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -16593,7 +16586,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -16601,7 +16594,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>3</v>
       </c>

--- a/param_files/Epi_parameters_June_24_2020.xlsx
+++ b/param_files/Epi_parameters_June_24_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/ws.epi_model_HIV_TB/epi_model_HIV_TB/param_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98E987-0D4D-B543-AF82-98BB761A3C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C53F13D-FE77-4442-935E-CD82058870F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,19 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="357">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -943,15 +952,6 @@
     <t>Total population</t>
   </si>
   <si>
-    <t>Percentage of pop Male</t>
-  </si>
-  <si>
-    <t>Percentage of pop unifected</t>
-  </si>
-  <si>
-    <t>Percentage of pop active</t>
-  </si>
-  <si>
     <t>All-cause mortality rate per 100,000 ages 15-49 male</t>
   </si>
   <si>
@@ -1123,15 +1123,6 @@
     <t>Factor adj</t>
   </si>
   <si>
-    <t>Percentage of HIV+ pop with no ART and CD4&lt;=200</t>
-  </si>
-  <si>
-    <t>Percentage of HIV+ pop with no ART and CD4&gt;200</t>
-  </si>
-  <si>
-    <t>Percentage of HIV+ pop on ART</t>
-  </si>
-  <si>
     <t>Numerator = 588 virally suppressed + 66 reported current ART. Denominator = 2393 completed screening</t>
   </si>
   <si>
@@ -1141,23 +1132,68 @@
     <t>DO ART rough calculation based on published CD4 thresholds. Anticipate following up with Torin for actual data.</t>
   </si>
   <si>
-    <t>Percentage of active TB pop with HIV</t>
-  </si>
-  <si>
-    <t>Percentage of LTBI pop with HIV</t>
-  </si>
-  <si>
-    <t>This is a guess and may need further revision</t>
-  </si>
-  <si>
-    <t>percentage of pop LTBI</t>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop with no ART and CD4&lt;=200 male</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop with no ART and CD4&lt;=200 female</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop with no ART and CD4&gt;200 male</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop with no ART and CD4&gt;200 female</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop on ART male</t>
+  </si>
+  <si>
+    <t>Percentage of HIV+ pop on ART female</t>
+  </si>
+  <si>
+    <t>Percentage of pop uninfected with TB male</t>
+  </si>
+  <si>
+    <t>Percentage of pop uninfected with TB female</t>
+  </si>
+  <si>
+    <t>Percentage of pop active TB male</t>
+  </si>
+  <si>
+    <t>I don't know that we'll find data sources to differentiate this parameter by gender.</t>
+  </si>
+  <si>
+    <t>Percentage of active TB pop with HIV male</t>
+  </si>
+  <si>
+    <t>Percentage of active TB pop with HIV female</t>
+  </si>
+  <si>
+    <t>percentage of pop LTBI male</t>
+  </si>
+  <si>
+    <t>We may not be able to find this from available data</t>
+  </si>
+  <si>
+    <t>Percentage of LTBI pop with HIV male</t>
+  </si>
+  <si>
+    <t>Percentage of LTBI pop with HIV female</t>
+  </si>
+  <si>
+    <t>percentage of pop LTBI female</t>
+  </si>
+  <si>
+    <t>Percentage of pop active TB female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,10 +1419,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,32 +1722,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="10"/>
+    <col min="16" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="51">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1786,7 +1822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +1850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="64">
+    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64">
+    <row r="5" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1870,7 +1906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1926,7 +1962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="32">
+    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1957,7 +1993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="32">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +2025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -2021,7 +2057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="32">
+    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="64">
+    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -2081,7 +2117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="51">
+    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -2103,7 +2139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51">
+    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
@@ -2140,7 +2176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51">
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -2177,7 +2213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="51">
+    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -2217,7 +2253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="51">
+    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2257,7 +2293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="51">
+    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="51">
+    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -2377,7 +2413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="51">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +2453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68">
+    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
@@ -2454,7 +2490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="68">
+    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
@@ -2491,7 +2527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="68">
+    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
@@ -2531,7 +2567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="68">
+    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
@@ -2571,7 +2607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="68">
+    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +2647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="68">
+    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="68">
+    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -2688,7 +2724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="68">
+    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="51">
+    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
@@ -2762,7 +2798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="51">
+    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="51">
+    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
@@ -2836,7 +2872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="51">
+    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
@@ -2873,7 +2909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="51">
+    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="51">
+    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -2947,7 +2983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="51">
+    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2984,7 +3020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="51">
+    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
@@ -3021,7 +3057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="51">
+    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -3058,7 +3094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="51">
+    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -3095,7 +3131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="51">
+    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
@@ -3135,7 +3171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="51">
+    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
@@ -3175,7 +3211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="51">
+    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
@@ -3215,7 +3251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="51">
+    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -3255,7 +3291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="51">
+    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
@@ -3295,7 +3331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="51">
+    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
@@ -3335,7 +3371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="51">
+    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
@@ -3375,7 +3411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="51">
+    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
@@ -3415,7 +3451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="68">
+    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
@@ -3452,7 +3488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="68">
+    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
@@ -3489,7 +3525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="68">
+    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
@@ -3526,7 +3562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="68">
+    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
@@ -3563,7 +3599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="68">
+    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -3600,7 +3636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="68">
+    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
@@ -3637,7 +3673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51">
+    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
@@ -3674,7 +3710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="51">
+    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -3711,7 +3747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="51">
+    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3748,7 +3784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="51">
+    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
@@ -3785,7 +3821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="51">
+    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +3858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="51">
+    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3859,7 +3895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="51">
+    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
@@ -3896,7 +3932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="51">
+    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
@@ -3933,7 +3969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="51">
+    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -3970,7 +4006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="51">
+    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -4007,7 +4043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="51">
+    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="51">
+    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -4081,7 +4117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="51">
+    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -4118,7 +4154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="51">
+    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -4155,7 +4191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="51">
+    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
@@ -4192,7 +4228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="51">
+    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -4229,7 +4265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="68">
+    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4266,7 +4302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="68">
+    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
@@ -4303,7 +4339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="68">
+    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -4340,7 +4376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="68">
+    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="68">
+    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -4414,7 +4450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="68">
+    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
@@ -4451,7 +4487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="68">
+    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
@@ -4488,7 +4524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="68">
+    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
@@ -4525,7 +4561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="51">
+    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
@@ -4562,7 +4598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="51">
+    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="51">
+    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
@@ -4636,7 +4672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="51">
+    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
@@ -4673,7 +4709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="51">
+    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
@@ -4710,7 +4746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="51">
+    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
@@ -4747,7 +4783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="51">
+    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
@@ -4784,7 +4820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="51">
+    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
@@ -4821,7 +4857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17">
+    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4846,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17">
+    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4871,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="34">
+    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
@@ -4902,7 +4938,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="34">
+    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
@@ -4933,7 +4969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="34">
+    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -4964,7 +5000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="34">
+    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -4995,7 +5031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="34">
+    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -5026,7 +5062,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="34">
+    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
@@ -5057,7 +5093,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17">
+    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -5084,7 +5120,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="17">
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -5108,7 +5144,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="17">
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -5132,7 +5168,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="17">
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -5156,7 +5192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34">
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -5182,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="34">
+    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -5208,7 +5244,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="34">
+    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -5234,7 +5270,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="34">
+    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5260,7 +5296,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="34">
+    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5284,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="34">
+    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5316,7 +5352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="34">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5348,7 +5384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="34">
+    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5381,7 +5417,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="34">
+    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5414,7 +5450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="34">
+    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5446,7 +5482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="34">
+    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5475,7 +5511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="34">
+    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5505,7 +5541,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="34">
+    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5535,7 +5571,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="34">
+    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5564,7 +5600,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="34">
+    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5593,7 +5629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="34">
+    <row r="113" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5622,7 +5658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="34">
+    <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5651,7 +5687,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="48">
+    <row r="115" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5682,10 +5718,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O115" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="48">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5717,10 +5753,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O116" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="51">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5752,10 +5788,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="51">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5787,10 +5823,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O118" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="51">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5822,10 +5858,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="51">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5857,10 +5893,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="48">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5892,10 +5928,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O121" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="48">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5927,10 +5963,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O122" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="48">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -5962,10 +5998,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O123" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -5997,10 +6033,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O124" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -6032,10 +6068,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O125" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -6067,10 +6103,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O126" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -6102,10 +6138,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A128" s="31" t="s">
         <v>178</v>
       </c>
@@ -6137,10 +6173,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O128" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="48">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -6172,10 +6208,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O129" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -6207,10 +6243,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6242,10 +6278,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6277,10 +6313,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O132" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6312,10 +6348,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O133" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6347,10 +6383,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6382,10 +6418,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6417,10 +6453,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O136" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6452,10 +6488,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O137" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6487,10 +6523,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6522,10 +6558,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O139" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6557,10 +6593,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O140" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6592,10 +6628,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O141" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6627,10 +6663,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6662,10 +6698,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O143" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6697,10 +6733,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6732,10 +6768,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O145" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6767,10 +6803,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O146" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
@@ -6802,10 +6838,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O147" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
@@ -6837,10 +6873,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O148" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
@@ -6872,10 +6908,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O149" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
@@ -6907,10 +6943,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
@@ -6942,10 +6978,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
@@ -6977,10 +7013,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="48">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
@@ -7012,10 +7048,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O153" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
@@ -7047,10 +7083,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
@@ -7082,10 +7118,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O155" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="48">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
@@ -7117,10 +7153,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O156" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="51">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
@@ -7152,10 +7188,10 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
@@ -7187,10 +7223,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O158" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
@@ -7222,10 +7258,10 @@
         <v>0.33</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
@@ -7257,10 +7293,10 @@
         <v>0.19</v>
       </c>
       <c r="O160" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="48">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
@@ -7292,10 +7328,10 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="O161" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="48">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
@@ -7327,10 +7363,10 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="48">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
@@ -7362,10 +7398,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O163" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
@@ -7397,10 +7433,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O164" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
@@ -7432,10 +7468,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
@@ -7467,10 +7503,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O166" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
@@ -7502,10 +7538,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
@@ -7537,10 +7573,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O168" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="48">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
@@ -7572,10 +7608,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O169" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
@@ -7607,10 +7643,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O170" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
@@ -7642,10 +7678,10 @@
         <v>3.3E-3</v>
       </c>
       <c r="O171" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
@@ -7677,10 +7713,10 @@
         <v>1.9E-3</v>
       </c>
       <c r="O172" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
@@ -7712,10 +7748,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="O173" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
@@ -7747,10 +7783,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O174" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
@@ -7782,10 +7818,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O175" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="51">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
@@ -7817,10 +7853,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="O176" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="48">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
@@ -7852,10 +7888,10 @@
         <v>3.96E-3</v>
       </c>
       <c r="O177" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
@@ -7887,10 +7923,10 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="O178" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="34">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
@@ -7921,7 +7957,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="34">
+    <row r="180" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
@@ -7952,7 +7988,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="34">
+    <row r="181" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
@@ -7983,7 +8019,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="34">
+    <row r="182" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
@@ -8014,7 +8050,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="34">
+    <row r="183" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
@@ -8046,7 +8082,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="34">
+    <row r="184" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
@@ -8078,7 +8114,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="34">
+    <row r="185" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
@@ -8110,7 +8146,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="34">
+    <row r="186" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
@@ -8142,7 +8178,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="34">
+    <row r="187" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
@@ -8174,7 +8210,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="34">
+    <row r="188" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
@@ -8206,7 +8242,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="34">
+    <row r="189" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
@@ -8238,7 +8274,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="34">
+    <row r="190" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
@@ -8270,7 +8306,7 @@
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="34">
+    <row r="191" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
@@ -8302,7 +8338,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="34">
+    <row r="192" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
@@ -8334,7 +8370,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="34">
+    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
@@ -8366,7 +8402,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="34">
+    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
@@ -8399,7 +8435,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O194">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8412,25 +8448,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936F566-E80E-414B-9865-88FE42A54FD2}">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.1328125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
     <col min="8" max="13" width="22.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8453,22 +8489,22 @@
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -8483,7 +8519,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="32">
+    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8536,7 +8572,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="48">
+    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8589,7 +8625,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32">
+    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8642,7 +8678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="48">
+    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8695,7 +8731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="48">
+    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8748,7 +8784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48">
+    <row r="7" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8801,7 +8837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="32">
+    <row r="8" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8854,7 +8890,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="48">
+    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8907,7 +8943,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="32">
+    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8960,7 +8996,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="32">
+    <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9013,7 +9049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32">
+    <row r="12" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9066,7 +9102,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="32">
+    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9119,7 +9155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32">
+    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9172,7 +9208,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="48">
+    <row r="15" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9225,7 +9261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="32">
+    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9278,7 +9314,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="32">
+    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9331,7 +9367,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="48">
+    <row r="18" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9384,7 +9420,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="48">
+    <row r="19" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9437,7 +9473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="48">
+    <row r="20" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9490,7 +9526,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="48">
+    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9543,7 +9579,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="48">
+    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9596,7 +9632,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="48">
+    <row r="23" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9649,7 +9685,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="48">
+    <row r="24" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9702,7 +9738,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="48">
+    <row r="25" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9755,7 +9791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="32">
+    <row r="26" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9808,7 +9844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48">
+    <row r="27" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9861,7 +9897,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="32">
+    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9914,7 +9950,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="48">
+    <row r="29" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9967,7 +10003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="48">
+    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10020,7 +10056,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="48">
+    <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10073,7 +10109,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="48">
+    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10126,7 +10162,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="48">
+    <row r="33" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10179,7 +10215,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="48">
+    <row r="34" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10232,7 +10268,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="48">
+    <row r="35" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10285,7 +10321,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="48">
+    <row r="36" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10338,7 +10374,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="48">
+    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10391,7 +10427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="48">
+    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10444,7 +10480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="48">
+    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10497,7 +10533,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="48">
+    <row r="40" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10550,7 +10586,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="48">
+    <row r="41" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10603,7 +10639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="32">
+    <row r="42" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10656,7 +10692,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="48">
+    <row r="43" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10709,7 +10745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="32">
+    <row r="44" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10762,7 +10798,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="48">
+    <row r="45" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10815,7 +10851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="48">
+    <row r="46" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10868,7 +10904,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="48">
+    <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10921,7 +10957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="48">
+    <row r="48" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10974,7 +11010,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="48">
+    <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -11027,7 +11063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="32">
+    <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11080,7 +11116,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="48">
+    <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11133,7 +11169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="32">
+    <row r="52" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11186,7 +11222,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="48">
+    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11239,7 +11275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="48">
+    <row r="54" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11292,7 +11328,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="48">
+    <row r="55" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11345,7 +11381,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32">
+    <row r="56" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11398,7 +11434,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="48">
+    <row r="57" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11451,7 +11487,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="32">
+    <row r="58" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11504,7 +11540,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="48">
+    <row r="59" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11557,7 +11593,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="32">
+    <row r="60" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11610,7 +11646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="32">
+    <row r="61" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11663,7 +11699,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="32">
+    <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11716,7 +11752,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="48">
+    <row r="63" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11769,7 +11805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32">
+    <row r="64" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11822,7 +11858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="48">
+    <row r="65" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11875,7 +11911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="32">
+    <row r="66" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -11928,7 +11964,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="48">
+    <row r="67" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -11981,7 +12017,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="32">
+    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12034,7 +12070,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="48">
+    <row r="69" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -12087,7 +12123,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="48">
+    <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12140,7 +12176,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="48">
+    <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12193,7 +12229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="32">
+    <row r="72" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12246,7 +12282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="48">
+    <row r="73" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12299,7 +12335,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="32">
+    <row r="74" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12352,7 +12388,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32">
+    <row r="75" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12405,7 +12441,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="32">
+    <row r="76" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12458,7 +12494,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="32">
+    <row r="77" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12511,7 +12547,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="32">
+    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12564,7 +12600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="48">
+    <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12617,7 +12653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="32">
+    <row r="80" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12670,7 +12706,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="32">
+    <row r="81" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12723,7 +12759,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="48">
+    <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12776,7 +12812,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="48">
+    <row r="83" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -12829,7 +12865,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="48">
+    <row r="84" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12882,7 +12918,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="48">
+    <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -12935,7 +12971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="48">
+    <row r="86" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12988,7 +13024,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="48">
+    <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13041,7 +13077,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="48">
+    <row r="88" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13094,7 +13130,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="48">
+    <row r="89" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13147,7 +13183,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="32">
+    <row r="90" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13200,7 +13236,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="48">
+    <row r="91" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13253,7 +13289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="32">
+    <row r="92" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13306,7 +13342,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="48">
+    <row r="93" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13359,7 +13395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="48">
+    <row r="94" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13412,7 +13448,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="48">
+    <row r="95" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13465,7 +13501,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="48">
+    <row r="96" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13518,7 +13554,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="48">
+    <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13571,7 +13607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="48">
+    <row r="98" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="10">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13624,7 +13660,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="48">
+    <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -13677,7 +13713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="48">
+    <row r="100" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13730,7 +13766,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="48">
+    <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13783,7 +13819,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="48">
+    <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13836,7 +13872,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="48">
+    <row r="103" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13889,7 +13925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="48">
+    <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13942,7 +13978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="48">
+    <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13995,7 +14031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="32">
+    <row r="106" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14048,7 +14084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="48">
+    <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14101,7 +14137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="32">
+    <row r="108" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14154,7 +14190,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="48">
+    <row r="109" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14207,7 +14243,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="48">
+    <row r="110" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14260,7 +14296,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="48">
+    <row r="111" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14313,7 +14349,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="48">
+    <row r="112" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14366,7 +14402,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="48">
+    <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14419,7 +14455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="48">
+    <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14472,7 +14508,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="48">
+    <row r="115" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14525,7 +14561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="48">
+    <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14578,7 +14614,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="48">
+    <row r="117" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14631,7 +14667,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="48">
+    <row r="118" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14684,7 +14720,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="48">
+    <row r="119" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14737,7 +14773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="48">
+    <row r="120" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14790,7 +14826,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="48">
+    <row r="121" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14843,7 +14879,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="32">
+    <row r="122" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14896,7 +14932,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="48">
+    <row r="123" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14949,7 +14985,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="32">
+    <row r="124" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15002,7 +15038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="32">
+    <row r="125" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15055,7 +15091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="48">
+    <row r="126" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15108,7 +15144,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="48">
+    <row r="127" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15161,7 +15197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="48">
+    <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15214,7 +15250,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="48">
+    <row r="129" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15267,264 +15303,264 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15533,28 +15569,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15580,7 +15616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -15591,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -15602,7 +15638,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51">
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -15613,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -15624,7 +15660,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1">
+    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -15635,7 +15671,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -15646,7 +15682,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -15657,18 +15693,21 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -15676,737 +15715,801 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34">
-      <c r="A11" s="32" t="s">
-        <v>338</v>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="33" t="s">
+        <v>339</v>
       </c>
       <c r="C11" s="1">
-        <f>1-C13-C12</f>
+        <f>C12</f>
         <v>0.17999999999999994</v>
       </c>
-      <c r="G11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34">
-      <c r="A12" s="32" t="s">
-        <v>339</v>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="1">
+        <f>1-C16-C14</f>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="G12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="33" t="s">
         <v>342</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="C14" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="25" t="s">
-        <v>279</v>
+      <c r="G14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="C15" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="32" t="s">
-        <v>345</v>
+      <c r="G17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="C18" s="1">
         <v>0.5</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="33" t="s">
         <v>347</v>
       </c>
       <c r="C19" s="1">
-        <f>1-C15-C16</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A20" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C24</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="27" t="s">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="1">
+        <f>1-C17-C19</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27">
+        <v>667.69125159867303</v>
+      </c>
+      <c r="D27">
+        <v>621.91596160486597</v>
+      </c>
+      <c r="E27">
+        <v>725.80082818748997</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" t="s">
         <v>281</v>
       </c>
-      <c r="C20">
-        <v>667.69125159867303</v>
-      </c>
-      <c r="D20">
-        <v>621.91596160486597</v>
-      </c>
-      <c r="E20">
-        <v>725.80082818748997</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H27" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G20" t="s">
+      <c r="C28">
+        <v>487.71837360315601</v>
+      </c>
+      <c r="D28">
+        <v>436.91669589439499</v>
+      </c>
+      <c r="E28">
+        <v>556.03760119042602</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A29" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29">
+        <v>353.97451428615199</v>
+      </c>
+      <c r="D29">
+        <v>298.14022379823899</v>
+      </c>
+      <c r="E29">
+        <v>421.02666012590601</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A30" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30">
+        <v>328.28962708281801</v>
+      </c>
+      <c r="D30">
+        <v>275.75168655442201</v>
+      </c>
+      <c r="E30">
+        <v>397.64813504226203</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A31" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31">
+        <v>270.29685912212301</v>
+      </c>
+      <c r="D31">
+        <v>206.97423329835701</v>
+      </c>
+      <c r="E31">
+        <v>343.91638639716899</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="I20" s="4" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A32" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32">
+        <v>264.93621874887299</v>
+      </c>
+      <c r="D32">
+        <v>205.62683179700201</v>
+      </c>
+      <c r="E32">
+        <v>339.17910941088098</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A33" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33">
+        <v>76.970274789631006</v>
+      </c>
+      <c r="D33">
+        <v>48.421027847361103</v>
+      </c>
+      <c r="E33">
+        <v>109.456440346139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A34" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34">
+        <v>58.460988902228898</v>
+      </c>
+      <c r="D34">
+        <v>34.611741515461397</v>
+      </c>
+      <c r="E34">
+        <v>87.602923512240494</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A35" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35">
+        <v>6.5950565310523803</v>
+      </c>
+      <c r="D35">
+        <v>2.67155063488859</v>
+      </c>
+      <c r="E35">
+        <v>13.136486160221301</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A36" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36">
+        <v>4.8104961798478998</v>
+      </c>
+      <c r="D36">
+        <v>1.8525923964359301</v>
+      </c>
+      <c r="E36">
+        <v>10.096949019498</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A37" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37">
+        <v>0.112323843345287</v>
+      </c>
+      <c r="D37">
+        <v>4.5985772535474097E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.22960163575013601</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A38" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38">
+        <v>8.1923251867938002E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.1924496573431098E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.17543715890676301</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A39" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39">
+        <v>32.781908989999998</v>
+      </c>
+      <c r="D39">
+        <v>29.630786910000001</v>
+      </c>
+      <c r="E39">
+        <v>36.915591910000003</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A40" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40">
+        <v>15.92630484</v>
+      </c>
+      <c r="D40">
+        <v>13.86750552</v>
+      </c>
+      <c r="E40">
+        <v>18.053657309999998</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41">
+        <v>30.619318209999999</v>
+      </c>
+      <c r="D41">
+        <v>27.03644954</v>
+      </c>
+      <c r="E41">
+        <v>34.821362049999998</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A42" s="27" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="34">
-      <c r="A21" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21">
-        <v>487.71837360315601</v>
-      </c>
-      <c r="D21">
-        <v>436.91669589439499</v>
-      </c>
-      <c r="E21">
-        <v>556.03760119042602</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" t="s">
-        <v>284</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="34">
-      <c r="A22" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22">
-        <v>353.97451428615199</v>
-      </c>
-      <c r="D22">
-        <v>298.14022379823899</v>
-      </c>
-      <c r="E22">
-        <v>421.02666012590601</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" t="s">
-        <v>284</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34">
-      <c r="A23" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23">
-        <v>328.28962708281801</v>
-      </c>
-      <c r="D23">
-        <v>275.75168655442201</v>
-      </c>
-      <c r="E23">
-        <v>397.64813504226203</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24">
-        <v>270.29685912212301</v>
-      </c>
-      <c r="D24">
-        <v>206.97423329835701</v>
-      </c>
-      <c r="E24">
-        <v>343.91638639716899</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25">
-        <v>264.93621874887299</v>
-      </c>
-      <c r="D25">
-        <v>205.62683179700201</v>
-      </c>
-      <c r="E25">
-        <v>339.17910941088098</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" t="s">
-        <v>284</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26">
-        <v>76.970274789631006</v>
-      </c>
-      <c r="D26">
-        <v>48.421027847361103</v>
-      </c>
-      <c r="E26">
-        <v>109.456440346139</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27">
-        <v>58.460988902228898</v>
-      </c>
-      <c r="D27">
-        <v>34.611741515461397</v>
-      </c>
-      <c r="E27">
-        <v>87.602923512240494</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" t="s">
-        <v>284</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="34">
-      <c r="A28" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28">
-        <v>6.5950565310523803</v>
-      </c>
-      <c r="D28">
-        <v>2.67155063488859</v>
-      </c>
-      <c r="E28">
-        <v>13.136486160221301</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" t="s">
-        <v>284</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34">
-      <c r="A29" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29">
-        <v>4.8104961798478998</v>
-      </c>
-      <c r="D29">
-        <v>1.8525923964359301</v>
-      </c>
-      <c r="E29">
-        <v>10.096949019498</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34">
-      <c r="A30" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30">
-        <v>0.112323843345287</v>
-      </c>
-      <c r="D30">
-        <v>4.5985772535474097E-2</v>
-      </c>
-      <c r="E30">
-        <v>0.22960163575013601</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" t="s">
-        <v>284</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="34">
-      <c r="A31" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C31">
-        <v>8.1923251867938002E-2</v>
-      </c>
-      <c r="D31">
-        <v>3.1924496573431098E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.17543715890676301</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G31" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34">
-      <c r="A32" s="27" t="s">
+      <c r="C42">
+        <v>14.90405754</v>
+      </c>
+      <c r="D42">
+        <v>12.80162367</v>
+      </c>
+      <c r="E42">
+        <v>17.08584523</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A43" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C32">
-        <v>32.781908989999998</v>
-      </c>
-      <c r="D32">
-        <v>29.630786910000001</v>
-      </c>
-      <c r="E32">
-        <v>36.915591910000003</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" t="s">
-        <v>284</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="C43">
+        <v>2.1263778709999999</v>
+      </c>
+      <c r="D43">
+        <v>0.99031739500000004</v>
+      </c>
+      <c r="E43">
+        <v>3.7960577139999998</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A44" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44">
+        <v>1.0051327029999999</v>
+      </c>
+      <c r="D44">
+        <v>0.49495520500000001</v>
+      </c>
+      <c r="E44">
+        <v>1.8558520039999999</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A45" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45">
+        <v>3.6212901999999998E-2</v>
+      </c>
+      <c r="D45">
+        <v>1.7022888999999999E-2</v>
+      </c>
+      <c r="E45">
+        <v>6.5484691999999997E-2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34">
-      <c r="A33" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C33">
-        <v>15.92630484</v>
-      </c>
-      <c r="D33">
-        <v>13.86750552</v>
-      </c>
-      <c r="E33">
-        <v>18.053657309999998</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" s="30" t="s">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A46" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46">
+        <v>1.7114595999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>8.2082219999999994E-3</v>
+      </c>
+      <c r="E46">
+        <v>3.1991639000000002E-2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="51">
-      <c r="A34" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34">
-        <v>30.619318209999999</v>
-      </c>
-      <c r="D34">
-        <v>27.03644954</v>
-      </c>
-      <c r="E34">
-        <v>34.821362049999998</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="51">
-      <c r="A35" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35">
-        <v>14.90405754</v>
-      </c>
-      <c r="D35">
-        <v>12.80162367</v>
-      </c>
-      <c r="E35">
-        <v>17.08584523</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="34">
-      <c r="A36" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36">
-        <v>2.1263778709999999</v>
-      </c>
-      <c r="D36">
-        <v>0.99031739500000004</v>
-      </c>
-      <c r="E36">
-        <v>3.7960577139999998</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G36" t="s">
-        <v>284</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="34">
-      <c r="A37" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37">
-        <v>1.0051327029999999</v>
-      </c>
-      <c r="D37">
-        <v>0.49495520500000001</v>
-      </c>
-      <c r="E37">
-        <v>1.8558520039999999</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="34">
-      <c r="A38" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38">
-        <v>3.6212901999999998E-2</v>
-      </c>
-      <c r="D38">
-        <v>1.7022888999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>6.5484691999999997E-2</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="C39">
-        <v>1.7114595999999999E-2</v>
-      </c>
-      <c r="D39">
-        <v>8.2082219999999994E-3</v>
-      </c>
-      <c r="E39">
-        <v>3.1991639000000002E-2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G39" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16">
-      <c r="A40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" ht="16">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="16">
-      <c r="A42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="16">
-      <c r="A43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="16">
-      <c r="A44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="16">
-      <c r="A45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="16">
-      <c r="A46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" ht="16">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" ht="16">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" ht="16">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" ht="16">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="16">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="16">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="16">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="16">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="16">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="16">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="16">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="16">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="16">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="16">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="16">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="16">
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="16">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="16">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="16">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="16">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="16">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="16">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="16">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="16">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="16">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="16">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="16">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="16">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="16">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="16">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="16">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="16">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="16">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="16">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="16">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="16">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="16">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="16">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="18"/>
     </row>
-    <row r="87" spans="1:1" ht="16">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="18"/>
     </row>
-    <row r="88" spans="1:1" ht="16">
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="18"/>
     </row>
-    <row r="89" spans="1:1" ht="16">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="18"/>
     </row>
-    <row r="90" spans="1:1" ht="16">
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="18"/>
     </row>
-    <row r="91" spans="1:1" ht="16">
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="18"/>
     </row>
-    <row r="92" spans="1:1" ht="16">
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="18"/>
     </row>
-    <row r="93" spans="1:1" ht="16">
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="18"/>
     </row>
-    <row r="94" spans="1:1" ht="16">
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="18"/>
     </row>
-    <row r="95" spans="1:1" ht="16">
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="18"/>
     </row>
-    <row r="96" spans="1:1" ht="16">
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="18"/>
     </row>
-    <row r="97" spans="1:1" ht="16">
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="18"/>
     </row>
-    <row r="98" spans="1:1" ht="16">
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="18"/>
     </row>
-    <row r="99" spans="1:1" ht="16">
+    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="18"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A100" s="18"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A101" s="18"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A102" s="18"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A103" s="18"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A104" s="18"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A105" s="18"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A106" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -16423,14 +16526,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16438,7 +16541,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16446,7 +16549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16454,7 +16557,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16462,7 +16565,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16470,7 +16573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16478,7 +16581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16486,7 +16589,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16494,12 +16597,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16507,7 +16610,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -16515,12 +16618,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16528,7 +16631,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -16536,7 +16639,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -16544,7 +16647,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16552,12 +16655,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16565,7 +16668,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -16573,12 +16676,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -16586,7 +16689,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -16594,7 +16697,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
